--- a/Coursework Reports/4th assignment/xlsx4.xlsx
+++ b/Coursework Reports/4th assignment/xlsx4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78656758-55F1-438C-A307-F2438AC9871B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0254D6-D13C-41D4-9ECA-EB5A022C50F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>Lp.</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>theta</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1085,6 +1091,8 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -8544,6 +8552,653 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-71FD-4ADC-92A6-FB06FDB03CCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Linia Klasyfikacyjna h=0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykres!$F$2:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykres!$G$2:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>93.958665132545363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.13637459240428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.314084052263212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.491793512122143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.669502971981075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.847212431839992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.024921891698924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.202631351557855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.380340811416772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.558050271275704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.735759731134635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.913469190993567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.091178650852484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.268888110711416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.446597570570347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.624307030429264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.802016490288196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.979725950147127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.157435410006059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.33514486986499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.512854329723908</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.690563789582839</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.868273249441756</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.045982709300688</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74.223692169159619</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.401401629018551</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.579111088877482</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.7568205487364</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.934530008595331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70.112239468454248</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.28994892831318</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68.467658388172111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.645367848031043</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.823077307889974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.000786767748892</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65.178496227607823</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.356205687466741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.533915147325672</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62.711624607184604</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61.889334067043535</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.067043526902459</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60.244752986761384</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.422462446620315</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.60017190647924</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>57.777881366338171</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56.955590826197096</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.133300286056027</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55.311009745914951</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.488719205773876</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.666428665632807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52.844138125491732</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.021847585350663</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.199557045209588</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.377266505068519</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49.554975964927443</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.732685424786368</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47.910394884645299</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.088104344504224</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46.265813804363155</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45.44352326422208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.621232724081011</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.798942183939936</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.976651643798867</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.154361103657791</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.332070563516716</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.509780023375647</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39.687489483234572</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.865198943093503</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>38.042908402952428</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37.220617862811359</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36.398327322670283</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.576036782529215</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34.753746242388139</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33.931455702247064</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.109165162105995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32.28687462196492</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.464584081823851</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30.642293541682776</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.820003001541707</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.997712461400639</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.175421921259556</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.353131381118487</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.530840840977419</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25.708550300836336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24.886259760695268</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24.063969220554199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.241678680413131</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.419388140272048</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.597097600130979</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.774807059989911</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>19.952516519848828</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.13022597970776</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.307935439566691</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.485644899425623</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.66335435928454</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.841063819143471</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.018773279002403</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.19648273886132</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.374192198720252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-71FD-4ADC-92A6-FB06FDB03CCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13012,15 +13667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34139,8 +34794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34267,8 +34922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34289,6 +34944,12 @@
       <c r="E1" t="s">
         <v>27</v>
       </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
       <c r="H1" s="109" t="s">
         <v>26</v>
       </c>
@@ -34321,6 +34982,16 @@
       <c r="D2">
         <v>0.98807900000000004</v>
       </c>
+      <c r="E2" s="110">
+        <v>-20.841100000000001</v>
+      </c>
+      <c r="F2" s="111">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>-$E$2/$E$4-$E$3/$E$4*F2</f>
+        <v>93.958665132545363</v>
+      </c>
       <c r="I2">
         <f>IF(C2=1,A2, #N/A)</f>
         <v>57</v>
@@ -34351,12 +35022,22 @@
       <c r="D3">
         <v>0.99999899999999997</v>
       </c>
+      <c r="E3" s="110">
+        <v>0.180811</v>
+      </c>
+      <c r="F3" s="111">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">-$E$2/$E$4-$E$3/$E$4*F3</f>
+        <v>93.13637459240428</v>
+      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">IF(C3=1,A3, #N/A)</f>
+        <f t="shared" ref="I3:I66" si="1">IF(C3=1,A3, #N/A)</f>
         <v>86</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">IF($C3=1,B3, #N/A)</f>
+        <f t="shared" ref="J3:J66" si="2">IF($C3=1,B3, #N/A)</f>
         <v>87</v>
       </c>
       <c r="L3" t="e">
@@ -34381,12 +35062,22 @@
       <c r="D4">
         <v>0.99202500000000005</v>
       </c>
+      <c r="E4" s="110">
+        <v>0.219887</v>
+      </c>
+      <c r="F4" s="111">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>92.314084052263212</v>
+      </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="L4" t="e">
@@ -34411,12 +35102,19 @@
       <c r="D5">
         <v>7.5414300000000004E-2</v>
       </c>
+      <c r="F5" s="111">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>91.491793512122143</v>
+      </c>
       <c r="I5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L5">
@@ -34441,12 +35139,19 @@
       <c r="D6">
         <v>0.99993600000000005</v>
       </c>
+      <c r="F6" s="111">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>90.669502971981075</v>
+      </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="L6" t="e">
@@ -34471,12 +35176,19 @@
       <c r="D7">
         <v>0.99753000000000003</v>
       </c>
+      <c r="F7" s="111">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>89.847212431839992</v>
+      </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="L7" t="e">
@@ -34501,12 +35213,19 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="F8" s="111">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>89.024921891698924</v>
+      </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="L8" t="e">
@@ -34531,12 +35250,19 @@
       <c r="D9">
         <v>0.99999700000000002</v>
       </c>
+      <c r="F9" s="111">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>88.202631351557855</v>
+      </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="L9" t="e">
@@ -34561,12 +35287,19 @@
       <c r="D10">
         <v>1.3068400000000001E-2</v>
       </c>
+      <c r="F10" s="111">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>87.380340811416772</v>
+      </c>
       <c r="I10" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L10">
@@ -34591,12 +35324,19 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="F11" s="111">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>86.558050271275704</v>
+      </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="L11" t="e">
@@ -34621,12 +35361,19 @@
       <c r="D12">
         <v>0.99961900000000004</v>
       </c>
+      <c r="F12" s="111">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>85.735759731134635</v>
+      </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="L12" t="e">
@@ -34651,12 +35398,19 @@
       <c r="D13">
         <v>5.5503299999999998E-2</v>
       </c>
+      <c r="F13" s="111">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>84.913469190993567</v>
+      </c>
       <c r="I13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J13" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L13">
@@ -34681,12 +35435,19 @@
       <c r="D14">
         <v>0.79308900000000004</v>
       </c>
+      <c r="F14" s="111">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>84.091178650852484</v>
+      </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="L14" t="e">
@@ -34711,12 +35472,19 @@
       <c r="D15">
         <v>3.0332399999999999E-2</v>
       </c>
+      <c r="F15" s="111">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>83.268888110711416</v>
+      </c>
       <c r="I15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L15">
@@ -34741,12 +35509,19 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="F16" s="111">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>82.446597570570347</v>
+      </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="L16" t="e">
@@ -34771,12 +35546,19 @@
       <c r="D17">
         <v>1.0941499999999999E-3</v>
       </c>
+      <c r="F17" s="111">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>81.624307030429264</v>
+      </c>
       <c r="I17" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J17" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L17">
@@ -34801,12 +35583,19 @@
       <c r="D18">
         <v>0.99939999999999996</v>
       </c>
+      <c r="F18" s="111">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>80.802016490288196</v>
+      </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="L18" t="e">
@@ -34831,12 +35620,19 @@
       <c r="D19">
         <v>0.70970100000000003</v>
       </c>
+      <c r="F19" s="111">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>79.979725950147127</v>
+      </c>
       <c r="I19" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J19" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L19">
@@ -34861,12 +35657,19 @@
       <c r="D20">
         <v>1.8535100000000001E-3</v>
       </c>
+      <c r="F20" s="111">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>79.157435410006059</v>
+      </c>
       <c r="I20" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J20" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L20">
@@ -34891,12 +35694,19 @@
       <c r="D21">
         <v>0.99313499999999999</v>
       </c>
+      <c r="F21" s="111">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>78.33514486986499</v>
+      </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="L21" t="e">
@@ -34921,12 +35731,19 @@
       <c r="D22">
         <v>0.51700000000000002</v>
       </c>
+      <c r="F22" s="111">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>77.512854329723908</v>
+      </c>
       <c r="I22" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J22" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L22">
@@ -34951,12 +35768,19 @@
       <c r="D23">
         <v>0.33102599999999999</v>
       </c>
+      <c r="F23" s="111">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>76.690563789582839</v>
+      </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="L23" t="e">
@@ -34981,12 +35805,19 @@
       <c r="D24">
         <v>0.58119399999999999</v>
       </c>
+      <c r="F24" s="111">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>75.868273249441756</v>
+      </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="L24" t="e">
@@ -35011,12 +35842,19 @@
       <c r="D25">
         <v>0.95212699999999995</v>
       </c>
+      <c r="F25" s="111">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>75.045982709300688</v>
+      </c>
       <c r="I25" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J25" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L25">
@@ -35041,12 +35879,19 @@
       <c r="D26">
         <v>0.84106800000000004</v>
       </c>
+      <c r="F26" s="111">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>74.223692169159619</v>
+      </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="L26" t="e">
@@ -35071,12 +35916,19 @@
       <c r="D27">
         <v>0.99571600000000005</v>
       </c>
+      <c r="F27" s="111">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>73.401401629018551</v>
+      </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="L27" t="e">
@@ -35101,12 +35953,19 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="F28" s="111">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>72.579111088877482</v>
+      </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="L28" t="e">
@@ -35131,12 +35990,19 @@
       <c r="D29">
         <v>0.95454300000000003</v>
       </c>
+      <c r="F29" s="111">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>71.7568205487364</v>
+      </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="L29" t="e">
@@ -35161,12 +36027,19 @@
       <c r="D30">
         <v>0.99999000000000005</v>
       </c>
+      <c r="F30" s="111">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>70.934530008595331</v>
+      </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="L30" t="e">
@@ -35191,12 +36064,19 @@
       <c r="D31">
         <v>0.99960899999999997</v>
       </c>
+      <c r="F31" s="111">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>70.112239468454248</v>
+      </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="L31" t="e">
@@ -35221,12 +36101,19 @@
       <c r="D32">
         <v>0.99998799999999999</v>
       </c>
+      <c r="F32" s="111">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>69.28994892831318</v>
+      </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="L32" t="e">
@@ -35251,12 +36138,19 @@
       <c r="D33">
         <v>0.189801</v>
       </c>
+      <c r="F33" s="111">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>68.467658388172111</v>
+      </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="L33" t="e">
@@ -35281,12 +36175,19 @@
       <c r="D34">
         <v>0.129471</v>
       </c>
+      <c r="F34" s="111">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>67.645367848031043</v>
+      </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="L34" t="e">
@@ -35311,12 +36212,19 @@
       <c r="D35">
         <v>0.99966100000000002</v>
       </c>
+      <c r="F35" s="111">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>66.823077307889974</v>
+      </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="L35" t="e">
@@ -35341,12 +36249,19 @@
       <c r="D36">
         <v>2.7772999999999999E-3</v>
       </c>
+      <c r="F36" s="111">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>66.000786767748892</v>
+      </c>
       <c r="I36" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J36" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L36">
@@ -35371,12 +36286,19 @@
       <c r="D37">
         <v>3.03228E-3</v>
       </c>
+      <c r="F37" s="111">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>65.178496227607823</v>
+      </c>
       <c r="I37" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L37">
@@ -35401,12 +36323,19 @@
       <c r="D38">
         <v>0.99994499999999997</v>
       </c>
+      <c r="F38" s="111">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>64.356205687466741</v>
+      </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="L38" t="e">
@@ -35431,12 +36360,19 @@
       <c r="D39">
         <v>1.7268399999999999E-4</v>
       </c>
+      <c r="F39" s="111">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>63.533915147325672</v>
+      </c>
       <c r="I39" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J39" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L39">
@@ -35461,12 +36397,19 @@
       <c r="D40">
         <v>0.989985</v>
       </c>
+      <c r="F40" s="111">
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>62.711624607184604</v>
+      </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="L40" t="e">
@@ -35491,12 +36434,19 @@
       <c r="D41">
         <v>0.99912100000000004</v>
       </c>
+      <c r="F41" s="111">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>61.889334067043535</v>
+      </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="L41" t="e">
@@ -35521,12 +36471,19 @@
       <c r="D42">
         <v>2.71025E-3</v>
       </c>
+      <c r="F42" s="111">
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>61.067043526902459</v>
+      </c>
       <c r="I42" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J42" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L42">
@@ -35551,12 +36508,19 @@
       <c r="D43">
         <v>1</v>
       </c>
+      <c r="F43" s="111">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>60.244752986761384</v>
+      </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="L43" t="e">
@@ -35581,12 +36545,19 @@
       <c r="D44">
         <v>0.999996</v>
       </c>
+      <c r="F44" s="111">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>59.422462446620315</v>
+      </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="L44" t="e">
@@ -35611,12 +36582,19 @@
       <c r="D45">
         <v>0.811666</v>
       </c>
+      <c r="F45" s="111">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>58.60017190647924</v>
+      </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="L45" t="e">
@@ -35641,12 +36619,19 @@
       <c r="D46">
         <v>0.97253599999999996</v>
       </c>
+      <c r="F46" s="111">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>57.777881366338171</v>
+      </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="L46" t="e">
@@ -35671,12 +36656,19 @@
       <c r="D47">
         <v>0.43199500000000002</v>
       </c>
+      <c r="F47" s="111">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>56.955590826197096</v>
+      </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="L47" t="e">
@@ -35701,12 +36693,19 @@
       <c r="D48">
         <v>4.76795E-3</v>
       </c>
+      <c r="F48" s="111">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>56.133300286056027</v>
+      </c>
       <c r="I48" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J48" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L48">
@@ -35731,12 +36730,19 @@
       <c r="D49">
         <v>0.28723100000000001</v>
       </c>
+      <c r="F49" s="111">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>55.311009745914951</v>
+      </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="L49" t="e">
@@ -35761,12 +36767,19 @@
       <c r="D50">
         <v>0.997444</v>
       </c>
+      <c r="F50" s="111">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>54.488719205773876</v>
+      </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="L50" t="e">
@@ -35791,12 +36804,19 @@
       <c r="D51">
         <v>0.97527699999999995</v>
       </c>
+      <c r="F51" s="111">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>53.666428665632807</v>
+      </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="L51" t="e">
@@ -35821,12 +36841,19 @@
       <c r="D52">
         <v>0.99733000000000005</v>
       </c>
+      <c r="F52" s="111">
+        <v>51</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>52.844138125491732</v>
+      </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="L52" t="e">
@@ -35851,12 +36878,19 @@
       <c r="D53">
         <v>0.99997100000000005</v>
       </c>
+      <c r="F53" s="111">
+        <v>52</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>52.021847585350663</v>
+      </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="L53" t="e">
@@ -35881,12 +36915,19 @@
       <c r="D54">
         <v>0.62661900000000004</v>
       </c>
+      <c r="F54" s="111">
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>51.199557045209588</v>
+      </c>
       <c r="I54" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L54">
@@ -35911,12 +36952,19 @@
       <c r="D55">
         <v>7.0444999999999994E-2</v>
       </c>
+      <c r="F55" s="111">
+        <v>54</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>50.377266505068519</v>
+      </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L55" t="e">
@@ -35941,12 +36989,19 @@
       <c r="D56">
         <v>0.22431999999999999</v>
       </c>
+      <c r="F56" s="111">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>49.554975964927443</v>
+      </c>
       <c r="I56" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L56">
@@ -35971,12 +37026,19 @@
       <c r="D57">
         <v>0.98187599999999997</v>
       </c>
+      <c r="F57" s="111">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>48.732685424786368</v>
+      </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="L57" t="e">
@@ -36001,12 +37063,19 @@
       <c r="D58">
         <v>0.99971399999999999</v>
       </c>
+      <c r="F58" s="111">
+        <v>57</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>47.910394884645299</v>
+      </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="L58" t="e">
@@ -36031,12 +37100,19 @@
       <c r="D59">
         <v>9.6378099999999994E-2</v>
       </c>
+      <c r="F59" s="111">
+        <v>58</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>47.088104344504224</v>
+      </c>
       <c r="I59" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L59">
@@ -36061,12 +37137,19 @@
       <c r="D60">
         <v>3.6825499999999997E-2</v>
       </c>
+      <c r="F60" s="111">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>46.265813804363155</v>
+      </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L60" t="e">
@@ -36091,12 +37174,19 @@
       <c r="D61">
         <v>0.99992199999999998</v>
       </c>
+      <c r="F61" s="111">
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>45.44352326422208</v>
+      </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L61" t="e">
@@ -36121,12 +37211,19 @@
       <c r="D62">
         <v>2.77209E-2</v>
       </c>
+      <c r="F62" s="111">
+        <v>61</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>44.621232724081011</v>
+      </c>
       <c r="I62" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L62">
@@ -36151,12 +37248,19 @@
       <c r="D63">
         <v>0.160216</v>
       </c>
+      <c r="F63" s="111">
+        <v>62</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>43.798942183939936</v>
+      </c>
       <c r="I63" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L63">
@@ -36181,12 +37285,19 @@
       <c r="D64">
         <v>0.99868400000000002</v>
       </c>
+      <c r="F64" s="111">
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>42.976651643798867</v>
+      </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="L64" t="e">
@@ -36211,12 +37322,19 @@
       <c r="D65">
         <v>0.91793599999999997</v>
       </c>
+      <c r="F65" s="111">
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>42.154361103657791</v>
+      </c>
       <c r="I65" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L65">
@@ -36241,12 +37359,19 @@
       <c r="D66">
         <v>0.72183399999999998</v>
       </c>
+      <c r="F66" s="111">
+        <v>65</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>41.332070563516716</v>
+      </c>
       <c r="I66" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L66">
@@ -36271,12 +37396,19 @@
       <c r="D67">
         <v>2.6567E-2</v>
       </c>
+      <c r="F67" s="111">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G101" si="3">-$E$2/$E$4-$E$3/$E$4*F67</f>
+        <v>40.509780023375647</v>
+      </c>
       <c r="I67" t="e">
-        <f t="shared" ref="I67:I101" si="2">IF(C67=1,A67, #N/A)</f>
+        <f t="shared" ref="I67:I101" si="4">IF(C67=1,A67, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f t="shared" ref="J67:J101" si="3">IF($C67=1,B67, #N/A)</f>
+        <f t="shared" ref="J67:J101" si="5">IF($C67=1,B67, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L67">
@@ -36301,12 +37433,19 @@
       <c r="D68">
         <v>0.98830300000000004</v>
       </c>
+      <c r="F68" s="111">
+        <v>67</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>39.687489483234572</v>
+      </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="L68" t="e">
@@ -36331,12 +37470,19 @@
       <c r="D69">
         <v>0.83920300000000003</v>
       </c>
+      <c r="F69" s="111">
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>38.865198943093503</v>
+      </c>
       <c r="I69" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L69">
@@ -36361,12 +37507,19 @@
       <c r="D70">
         <v>4.1034500000000002E-2</v>
       </c>
+      <c r="F70" s="111">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>38.042908402952428</v>
+      </c>
       <c r="I70" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L70">
@@ -36391,12 +37544,19 @@
       <c r="D71">
         <v>1</v>
       </c>
+      <c r="F71" s="111">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>37.220617862811359</v>
+      </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="L71" t="e">
@@ -36421,12 +37581,19 @@
       <c r="D72">
         <v>0.99995100000000003</v>
       </c>
+      <c r="F72" s="111">
+        <v>71</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>36.398327322670283</v>
+      </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="L72" t="e">
@@ -36451,12 +37618,19 @@
       <c r="D73">
         <v>0.42599199999999998</v>
       </c>
+      <c r="F73" s="111">
+        <v>72</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>35.576036782529215</v>
+      </c>
       <c r="I73" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L73">
@@ -36481,12 +37655,19 @@
       <c r="D74">
         <v>0.99999899999999997</v>
       </c>
+      <c r="F74" s="111">
+        <v>73</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>34.753746242388139</v>
+      </c>
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="J74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="L74" t="e">
@@ -36511,12 +37692,19 @@
       <c r="D75">
         <v>2.1841699999999999E-2</v>
       </c>
+      <c r="F75" s="111">
+        <v>74</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>33.931455702247064</v>
+      </c>
       <c r="I75" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L75">
@@ -36541,12 +37729,19 @@
       <c r="D76">
         <v>0.95346799999999998</v>
       </c>
+      <c r="F76" s="111">
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>33.109165162105995</v>
+      </c>
       <c r="I76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="J76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L76" t="e">
@@ -36571,12 +37766,19 @@
       <c r="D77">
         <v>0.78903800000000002</v>
       </c>
+      <c r="F77" s="111">
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>32.28687462196492</v>
+      </c>
       <c r="I77" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L77">
@@ -36601,12 +37803,19 @@
       <c r="D78">
         <v>0.95434200000000002</v>
       </c>
+      <c r="F78" s="111">
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>31.464584081823851</v>
+      </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="J78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="L78" t="e">
@@ -36631,12 +37840,19 @@
       <c r="D79">
         <v>0.99986299999999995</v>
       </c>
+      <c r="F79" s="111">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>30.642293541682776</v>
+      </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="J79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="L79" t="e">
@@ -36661,12 +37877,19 @@
       <c r="D80">
         <v>0.99992999999999999</v>
       </c>
+      <c r="F80" s="111">
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>29.820003001541707</v>
+      </c>
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="J80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="L80" t="e">
@@ -36691,12 +37914,19 @@
       <c r="D81" s="108">
         <v>1.8694599999999999E-5</v>
       </c>
+      <c r="F81" s="111">
+        <v>80</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>28.997712461400639</v>
+      </c>
       <c r="I81" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L81">
@@ -36721,12 +37951,19 @@
       <c r="D82">
         <v>0.99961299999999997</v>
       </c>
+      <c r="F82" s="111">
+        <v>81</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>28.175421921259556</v>
+      </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="J82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="L82" t="e">
@@ -36751,12 +37988,19 @@
       <c r="D83">
         <v>0.95579099999999995</v>
       </c>
+      <c r="F83" s="111">
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>27.353131381118487</v>
+      </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="J83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="L83" t="e">
@@ -36781,12 +38025,19 @@
       <c r="D84">
         <v>1</v>
       </c>
+      <c r="F84" s="111">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>26.530840840977419</v>
+      </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="J84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="L84" t="e">
@@ -36811,12 +38062,19 @@
       <c r="D85">
         <v>5.0615500000000001E-2</v>
       </c>
+      <c r="F85" s="111">
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>25.708550300836336</v>
+      </c>
       <c r="I85" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L85">
@@ -36841,12 +38099,19 @@
       <c r="D86">
         <v>0.99749200000000005</v>
       </c>
+      <c r="F86" s="111">
+        <v>85</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>24.886259760695268</v>
+      </c>
       <c r="I86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="J86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="L86" t="e">
@@ -36871,12 +38136,19 @@
       <c r="D87">
         <v>0.99999400000000005</v>
       </c>
+      <c r="F87" s="111">
+        <v>86</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>24.063969220554199</v>
+      </c>
       <c r="I87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="J87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="L87" t="e">
@@ -36901,12 +38173,19 @@
       <c r="D88">
         <v>0.86205200000000004</v>
       </c>
+      <c r="F88" s="111">
+        <v>87</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>23.241678680413131</v>
+      </c>
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="L88" t="e">
@@ -36931,12 +38210,19 @@
       <c r="D89">
         <v>0.99998699999999996</v>
       </c>
+      <c r="F89" s="111">
+        <v>88</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>22.419388140272048</v>
+      </c>
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="J89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="L89" t="e">
@@ -36961,12 +38247,19 @@
       <c r="D90">
         <v>0.82342300000000002</v>
       </c>
+      <c r="F90" s="111">
+        <v>89</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>21.597097600130979</v>
+      </c>
       <c r="I90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="J90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="L90" t="e">
@@ -36991,12 +38284,19 @@
       <c r="D91">
         <v>0.99991600000000003</v>
       </c>
+      <c r="F91" s="111">
+        <v>90</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>20.774807059989911</v>
+      </c>
       <c r="I91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="J91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="L91" t="e">
@@ -37021,12 +38321,19 @@
       <c r="D92">
         <v>0.89294899999999999</v>
       </c>
+      <c r="F92" s="111">
+        <v>91</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>19.952516519848828</v>
+      </c>
       <c r="I92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="L92" t="e">
@@ -37051,12 +38358,19 @@
       <c r="D93">
         <v>0.98424400000000001</v>
       </c>
+      <c r="F93" s="111">
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>19.13022597970776</v>
+      </c>
       <c r="I93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="J93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="L93" t="e">
@@ -37081,12 +38395,19 @@
       <c r="D94">
         <v>0.36989300000000003</v>
       </c>
+      <c r="F94" s="111">
+        <v>93</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>18.307935439566691</v>
+      </c>
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="J94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="L94" t="e">
@@ -37111,12 +38432,19 @@
       <c r="D95">
         <v>0.68181700000000001</v>
       </c>
+      <c r="F95" s="111">
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>17.485644899425623</v>
+      </c>
       <c r="I95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="L95" t="e">
@@ -37141,12 +38469,19 @@
       <c r="D96">
         <v>6.7019499999999999E-3</v>
       </c>
+      <c r="F96" s="111">
+        <v>95</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>16.66335435928454</v>
+      </c>
       <c r="I96" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L96">
@@ -37171,12 +38506,19 @@
       <c r="D97">
         <v>0.99987999999999999</v>
       </c>
+      <c r="F97" s="111">
+        <v>96</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>15.841063819143471</v>
+      </c>
       <c r="I97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="J97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="L97" t="e">
@@ -37201,12 +38543,19 @@
       <c r="D98">
         <v>0.98546800000000001</v>
       </c>
+      <c r="F98" s="111">
+        <v>97</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>15.018773279002403</v>
+      </c>
       <c r="I98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="J98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="L98" t="e">
@@ -37231,12 +38580,19 @@
       <c r="D99">
         <v>0.99984799999999996</v>
       </c>
+      <c r="F99" s="111">
+        <v>98</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>14.19648273886132</v>
+      </c>
       <c r="I99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="J99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="L99" t="e">
@@ -37261,12 +38617,19 @@
       <c r="D100">
         <v>1</v>
       </c>
+      <c r="F100" s="111">
+        <v>99</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>13.374192198720252</v>
+      </c>
       <c r="I100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="L100" t="e">
@@ -37291,12 +38654,19 @@
       <c r="D101">
         <v>0.99999099999999996</v>
       </c>
+      <c r="F101" s="111">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>12.551901658579183</v>
+      </c>
       <c r="I101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="J101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="L101" t="e">

--- a/Coursework Reports/4th assignment/xlsx4.xlsx
+++ b/Coursework Reports/4th assignment/xlsx4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0254D6-D13C-41D4-9ECA-EB5A022C50F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF6EC82-480B-4953-8568-DD14171B19BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>Lp.</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Wynik</t>
   </si>
   <si>
-    <t>h = 0.01</t>
-  </si>
-  <si>
     <t>Wynik:0</t>
   </si>
   <si>
@@ -299,6 +296,24 @@
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsilon </t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>1e-6</t>
+  </si>
+  <si>
+    <t>h = 0.0001</t>
+  </si>
+  <si>
+    <t>1e-3/1e-4</t>
+  </si>
+  <si>
+    <t>brak zbieżności</t>
   </si>
 </sst>
 </file>
@@ -345,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -860,6 +875,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1005,6 +1029,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,10 +1117,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -7291,10 +7317,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Wykres!$I$2:$I$100</c:f>
+              <c:f>Wykres!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>57</c:v>
                 </c:pt>
@@ -7591,16 +7617,19 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Wykres!$J$2:$J$100</c:f>
+              <c:f>Wykres!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>68</c:v>
                 </c:pt>
@@ -7897,6 +7926,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7938,10 +7970,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Wykres!$L$2:$L$100</c:f>
+              <c:f>Wykres!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -8237,6 +8269,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8244,10 +8279,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Wykres!$M$2:$M$100</c:f>
+              <c:f>Wykres!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -8543,6 +8578,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8559,7 +8597,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Linia Klasyfikacyjna h=0.01</c:v>
+            <c:v>Linia Klasyfikacyjna h=0.0001</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -8585,10 +8623,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Wykres!$F$2:$F$100</c:f>
+              <c:f>Wykres!$F$2:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8885,312 +8923,318 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Wykres!$G$2:$G$100</c:f>
+              <c:f>Wykres!$G$2:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>93.958665132545363</c:v>
+                  <c:v>92.005371615254134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.13637459240428</c:v>
+                  <c:v>91.192529999371743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.314084052263212</c:v>
+                  <c:v>90.379688383489352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.491793512122143</c:v>
+                  <c:v>89.566846767606961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.669502971981075</c:v>
+                  <c:v>88.75400515172457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.847212431839992</c:v>
+                  <c:v>87.941163535842179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.024921891698924</c:v>
+                  <c:v>87.128321919959802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.202631351557855</c:v>
+                  <c:v>86.315480304077411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.380340811416772</c:v>
+                  <c:v>85.50263868819502</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.558050271275704</c:v>
+                  <c:v>84.689797072312629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85.735759731134635</c:v>
+                  <c:v>83.876955456430238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.913469190993567</c:v>
+                  <c:v>83.064113840547847</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.091178650852484</c:v>
+                  <c:v>82.251272224665456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.268888110711416</c:v>
+                  <c:v>81.438430608783065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82.446597570570347</c:v>
+                  <c:v>80.625588992900674</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.624307030429264</c:v>
+                  <c:v>79.812747377018283</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.802016490288196</c:v>
+                  <c:v>78.999905761135892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.979725950147127</c:v>
+                  <c:v>78.187064145253501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.157435410006059</c:v>
+                  <c:v>77.37422252937111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.33514486986499</c:v>
+                  <c:v>76.561380913488733</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77.512854329723908</c:v>
+                  <c:v>75.748539297606342</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>76.690563789582839</c:v>
+                  <c:v>74.935697681723951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.868273249441756</c:v>
+                  <c:v>74.12285606584156</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.045982709300688</c:v>
+                  <c:v>73.310014449959169</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74.223692169159619</c:v>
+                  <c:v>72.497172834076778</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>73.401401629018551</c:v>
+                  <c:v>71.684331218194387</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72.579111088877482</c:v>
+                  <c:v>70.871489602311996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>71.7568205487364</c:v>
+                  <c:v>70.058647986429605</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70.934530008595331</c:v>
+                  <c:v>69.245806370547214</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70.112239468454248</c:v>
+                  <c:v>68.432964754664823</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69.28994892831318</c:v>
+                  <c:v>67.620123138782446</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.467658388172111</c:v>
+                  <c:v>66.807281522900041</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67.645367848031043</c:v>
+                  <c:v>65.994439907017664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66.823077307889974</c:v>
+                  <c:v>65.181598291135273</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>66.000786767748892</c:v>
+                  <c:v>64.368756675252882</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.178496227607823</c:v>
+                  <c:v>63.555915059370491</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>64.356205687466741</c:v>
+                  <c:v>62.7430734434881</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>63.533915147325672</c:v>
+                  <c:v>61.930231827605709</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62.711624607184604</c:v>
+                  <c:v>61.117390211723318</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>61.889334067043535</c:v>
+                  <c:v>60.304548595840927</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61.067043526902459</c:v>
+                  <c:v>59.491706979958536</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60.244752986761384</c:v>
+                  <c:v>58.678865364076152</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59.422462446620315</c:v>
+                  <c:v>57.866023748193761</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>58.60017190647924</c:v>
+                  <c:v>57.05318213231137</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57.777881366338171</c:v>
+                  <c:v>56.240340516428979</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>56.955590826197096</c:v>
+                  <c:v>55.427498900546588</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>56.133300286056027</c:v>
+                  <c:v>54.614657284664197</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.311009745914951</c:v>
+                  <c:v>53.801815668781813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54.488719205773876</c:v>
+                  <c:v>52.988974052899422</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>53.666428665632807</c:v>
+                  <c:v>52.176132437017031</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52.844138125491732</c:v>
+                  <c:v>51.36329082113464</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52.021847585350663</c:v>
+                  <c:v>50.550449205252249</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51.199557045209588</c:v>
+                  <c:v>49.737607589369858</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>50.377266505068519</c:v>
+                  <c:v>48.924765973487467</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49.554975964927443</c:v>
+                  <c:v>48.111924357605083</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>48.732685424786368</c:v>
+                  <c:v>47.299082741722692</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>47.910394884645299</c:v>
+                  <c:v>46.486241125840301</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>47.088104344504224</c:v>
+                  <c:v>45.67339950995791</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.265813804363155</c:v>
+                  <c:v>44.860557894075519</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45.44352326422208</c:v>
+                  <c:v>44.047716278193128</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.621232724081011</c:v>
+                  <c:v>43.234874662310744</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43.798942183939936</c:v>
+                  <c:v>42.422033046428353</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42.976651643798867</c:v>
+                  <c:v>41.609191430545962</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42.154361103657791</c:v>
+                  <c:v>40.796349814663571</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>41.332070563516716</c:v>
+                  <c:v>39.98350819878118</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>40.509780023375647</c:v>
+                  <c:v>39.170666582898789</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39.687489483234572</c:v>
+                  <c:v>38.357824967016398</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38.865198943093503</c:v>
+                  <c:v>37.544983351134015</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>38.042908402952428</c:v>
+                  <c:v>36.732141735251624</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>37.220617862811359</c:v>
+                  <c:v>35.919300119369233</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>36.398327322670283</c:v>
+                  <c:v>35.106458503486841</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>35.576036782529215</c:v>
+                  <c:v>34.29361688760445</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>34.753746242388139</c:v>
+                  <c:v>33.480775271722059</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>33.931455702247064</c:v>
+                  <c:v>32.667933655839676</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>33.109165162105995</c:v>
+                  <c:v>31.855092039957285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>32.28687462196492</c:v>
+                  <c:v>31.042250424074894</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>31.464584081823851</c:v>
+                  <c:v>30.229408808192503</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>30.642293541682776</c:v>
+                  <c:v>29.416567192310112</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>29.820003001541707</c:v>
+                  <c:v>28.603725576427721</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>28.997712461400639</c:v>
+                  <c:v>27.79088396054533</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28.175421921259556</c:v>
+                  <c:v>26.978042344662938</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>27.353131381118487</c:v>
+                  <c:v>26.165200728780547</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>26.530840840977419</c:v>
+                  <c:v>25.352359112898156</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25.708550300836336</c:v>
+                  <c:v>24.53951749701578</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>24.886259760695268</c:v>
+                  <c:v>23.726675881133389</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>24.063969220554199</c:v>
+                  <c:v>22.913834265250998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>23.241678680413131</c:v>
+                  <c:v>22.100992649368607</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>22.419388140272048</c:v>
+                  <c:v>21.288151033486216</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>21.597097600130979</c:v>
+                  <c:v>20.475309417603825</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20.774807059989911</c:v>
+                  <c:v>19.662467801721434</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.952516519848828</c:v>
+                  <c:v>18.849626185839043</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19.13022597970776</c:v>
+                  <c:v>18.036784569956652</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18.307935439566691</c:v>
+                  <c:v>17.223942954074261</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17.485644899425623</c:v>
+                  <c:v>16.41110133819187</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16.66335435928454</c:v>
+                  <c:v>15.598259722309479</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.841063819143471</c:v>
+                  <c:v>14.785418106427102</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.018773279002403</c:v>
+                  <c:v>13.972576490544711</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14.19648273886132</c:v>
+                  <c:v>13.15973487466232</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>13.374192198720252</c:v>
+                  <c:v>12.346893258779929</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11.534051642897538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13666,16 +13710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14011,46 +14055,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="90" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="87" t="s">
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="89"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="91"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
@@ -14101,7 +14145,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="80">
+      <c r="A3" s="82">
         <v>0.05</v>
       </c>
       <c r="B3" s="37">
@@ -14163,7 +14207,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="38">
         <v>2</v>
       </c>
@@ -14223,7 +14267,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="38">
         <v>3</v>
       </c>
@@ -14283,7 +14327,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="38">
         <v>4</v>
       </c>
@@ -14343,7 +14387,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="38">
         <v>5</v>
       </c>
@@ -14403,7 +14447,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="38">
         <v>6</v>
       </c>
@@ -14463,7 +14507,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="38">
         <v>7</v>
       </c>
@@ -14523,7 +14567,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="38">
         <v>8</v>
       </c>
@@ -14583,7 +14627,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="38">
         <v>9</v>
       </c>
@@ -14643,7 +14687,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="38">
         <v>10</v>
       </c>
@@ -14703,7 +14747,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="38">
         <v>11</v>
       </c>
@@ -14763,7 +14807,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="38">
         <v>12</v>
       </c>
@@ -14823,7 +14867,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="38">
         <v>13</v>
       </c>
@@ -14883,7 +14927,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="38">
         <v>14</v>
       </c>
@@ -14943,7 +14987,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="38">
         <v>15</v>
       </c>
@@ -15003,7 +15047,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="38">
         <v>16</v>
       </c>
@@ -15063,7 +15107,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="38">
         <v>17</v>
       </c>
@@ -15123,7 +15167,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="38">
         <v>18</v>
       </c>
@@ -15183,7 +15227,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="38">
         <v>19</v>
       </c>
@@ -15243,7 +15287,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="38">
         <v>20</v>
       </c>
@@ -15303,7 +15347,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="38">
         <v>21</v>
       </c>
@@ -15363,7 +15407,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="38">
         <v>22</v>
       </c>
@@ -15423,7 +15467,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="38">
         <v>23</v>
       </c>
@@ -15483,7 +15527,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="38">
         <v>24</v>
       </c>
@@ -15543,7 +15587,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="38">
         <v>25</v>
       </c>
@@ -15603,7 +15647,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="38">
         <v>26</v>
       </c>
@@ -15663,7 +15707,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="38">
         <v>27</v>
       </c>
@@ -15723,7 +15767,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="38">
         <v>28</v>
       </c>
@@ -15783,7 +15827,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="38">
         <v>29</v>
       </c>
@@ -15843,7 +15887,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="38">
         <v>30</v>
       </c>
@@ -15903,7 +15947,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="38">
         <v>31</v>
       </c>
@@ -15963,7 +16007,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="38">
         <v>32</v>
       </c>
@@ -16023,7 +16067,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="38">
         <v>33</v>
       </c>
@@ -16083,7 +16127,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="38">
         <v>34</v>
       </c>
@@ -16143,7 +16187,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="38">
         <v>35</v>
       </c>
@@ -16203,7 +16247,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="38">
         <v>36</v>
       </c>
@@ -16263,7 +16307,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="38">
         <v>37</v>
       </c>
@@ -16323,7 +16367,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="38">
         <v>38</v>
       </c>
@@ -16383,7 +16427,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="38">
         <v>39</v>
       </c>
@@ -16443,7 +16487,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="38">
         <v>40</v>
       </c>
@@ -16503,7 +16547,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="81"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="38">
         <v>41</v>
       </c>
@@ -16563,7 +16607,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="81"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="38">
         <v>42</v>
       </c>
@@ -16623,7 +16667,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="81"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="38">
         <v>43</v>
       </c>
@@ -16683,7 +16727,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="81"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="38">
         <v>44</v>
       </c>
@@ -16743,7 +16787,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="38">
         <v>45</v>
       </c>
@@ -16803,7 +16847,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="81"/>
+      <c r="A48" s="83"/>
       <c r="B48" s="38">
         <v>46</v>
       </c>
@@ -16863,7 +16907,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="81"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="38">
         <v>47</v>
       </c>
@@ -16923,7 +16967,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="81"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="38">
         <v>48</v>
       </c>
@@ -16983,7 +17027,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="81"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="38">
         <v>49</v>
       </c>
@@ -17043,7 +17087,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="38">
         <v>50</v>
       </c>
@@ -17103,7 +17147,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="81"/>
+      <c r="A53" s="83"/>
       <c r="B53" s="38">
         <v>51</v>
       </c>
@@ -17163,7 +17207,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
+      <c r="A54" s="83"/>
       <c r="B54" s="38">
         <v>52</v>
       </c>
@@ -17223,7 +17267,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="81"/>
+      <c r="A55" s="83"/>
       <c r="B55" s="38">
         <v>53</v>
       </c>
@@ -17283,7 +17327,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="81"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="38">
         <v>54</v>
       </c>
@@ -17343,7 +17387,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="81"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="38">
         <v>55</v>
       </c>
@@ -17403,7 +17447,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="81"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="38">
         <v>56</v>
       </c>
@@ -17463,7 +17507,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="81"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="38">
         <v>57</v>
       </c>
@@ -17523,7 +17567,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="81"/>
+      <c r="A60" s="83"/>
       <c r="B60" s="38">
         <v>58</v>
       </c>
@@ -17583,7 +17627,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="81"/>
+      <c r="A61" s="83"/>
       <c r="B61" s="38">
         <v>59</v>
       </c>
@@ -17643,7 +17687,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="81"/>
+      <c r="A62" s="83"/>
       <c r="B62" s="38">
         <v>60</v>
       </c>
@@ -17703,7 +17747,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="81"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="38">
         <v>61</v>
       </c>
@@ -17763,7 +17807,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="81"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="38">
         <v>62</v>
       </c>
@@ -17823,7 +17867,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="81"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="38">
         <v>63</v>
       </c>
@@ -17883,7 +17927,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="81"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="38">
         <v>64</v>
       </c>
@@ -17943,7 +17987,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="81"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="38">
         <v>65</v>
       </c>
@@ -18003,7 +18047,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="81"/>
+      <c r="A68" s="83"/>
       <c r="B68" s="38">
         <v>66</v>
       </c>
@@ -18063,7 +18107,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="81"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="38">
         <v>67</v>
       </c>
@@ -18123,7 +18167,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="81"/>
+      <c r="A70" s="83"/>
       <c r="B70" s="38">
         <v>68</v>
       </c>
@@ -18183,7 +18227,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="81"/>
+      <c r="A71" s="83"/>
       <c r="B71" s="38">
         <v>69</v>
       </c>
@@ -18243,7 +18287,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="81"/>
+      <c r="A72" s="83"/>
       <c r="B72" s="38">
         <v>70</v>
       </c>
@@ -18303,7 +18347,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="81"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="38">
         <v>71</v>
       </c>
@@ -18363,7 +18407,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="38">
         <v>72</v>
       </c>
@@ -18423,7 +18467,7 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="81"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="38">
         <v>73</v>
       </c>
@@ -18483,7 +18527,7 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="81"/>
+      <c r="A76" s="83"/>
       <c r="B76" s="38">
         <v>74</v>
       </c>
@@ -18543,7 +18587,7 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="81"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="38">
         <v>75</v>
       </c>
@@ -18603,7 +18647,7 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="81"/>
+      <c r="A78" s="83"/>
       <c r="B78" s="38">
         <v>76</v>
       </c>
@@ -18663,7 +18707,7 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="81"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="38">
         <v>77</v>
       </c>
@@ -18723,7 +18767,7 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="81"/>
+      <c r="A80" s="83"/>
       <c r="B80" s="38">
         <v>78</v>
       </c>
@@ -18783,7 +18827,7 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="81"/>
+      <c r="A81" s="83"/>
       <c r="B81" s="38">
         <v>79</v>
       </c>
@@ -18843,7 +18887,7 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="81"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="38">
         <v>80</v>
       </c>
@@ -18903,7 +18947,7 @@
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="81"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="38">
         <v>81</v>
       </c>
@@ -18963,7 +19007,7 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="81"/>
+      <c r="A84" s="83"/>
       <c r="B84" s="38">
         <v>82</v>
       </c>
@@ -19023,7 +19067,7 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="81"/>
+      <c r="A85" s="83"/>
       <c r="B85" s="38">
         <v>83</v>
       </c>
@@ -19083,7 +19127,7 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="81"/>
+      <c r="A86" s="83"/>
       <c r="B86" s="38">
         <v>84</v>
       </c>
@@ -19143,7 +19187,7 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="81"/>
+      <c r="A87" s="83"/>
       <c r="B87" s="38">
         <v>85</v>
       </c>
@@ -19203,7 +19247,7 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="81"/>
+      <c r="A88" s="83"/>
       <c r="B88" s="38">
         <v>86</v>
       </c>
@@ -19263,7 +19307,7 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="81"/>
+      <c r="A89" s="83"/>
       <c r="B89" s="38">
         <v>87</v>
       </c>
@@ -19323,7 +19367,7 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="81"/>
+      <c r="A90" s="83"/>
       <c r="B90" s="38">
         <v>88</v>
       </c>
@@ -19383,7 +19427,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="81"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="38">
         <v>89</v>
       </c>
@@ -19443,7 +19487,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="81"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="38">
         <v>90</v>
       </c>
@@ -19503,7 +19547,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="81"/>
+      <c r="A93" s="83"/>
       <c r="B93" s="38">
         <v>91</v>
       </c>
@@ -19563,7 +19607,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="81"/>
+      <c r="A94" s="83"/>
       <c r="B94" s="38">
         <v>92</v>
       </c>
@@ -19623,7 +19667,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="81"/>
+      <c r="A95" s="83"/>
       <c r="B95" s="38">
         <v>93</v>
       </c>
@@ -19683,7 +19727,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="81"/>
+      <c r="A96" s="83"/>
       <c r="B96" s="38">
         <v>94</v>
       </c>
@@ -19743,7 +19787,7 @@
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="81"/>
+      <c r="A97" s="83"/>
       <c r="B97" s="38">
         <v>95</v>
       </c>
@@ -19803,7 +19847,7 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="81"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="38">
         <v>96</v>
       </c>
@@ -19863,7 +19907,7 @@
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="81"/>
+      <c r="A99" s="83"/>
       <c r="B99" s="38">
         <v>97</v>
       </c>
@@ -19923,7 +19967,7 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A100" s="81"/>
+      <c r="A100" s="83"/>
       <c r="B100" s="38">
         <v>98</v>
       </c>
@@ -19983,7 +20027,7 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="81"/>
+      <c r="A101" s="83"/>
       <c r="B101" s="38">
         <v>99</v>
       </c>
@@ -20043,7 +20087,7 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="82"/>
+      <c r="A102" s="84"/>
       <c r="B102" s="40">
         <v>100</v>
       </c>
@@ -20103,7 +20147,7 @@
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="80">
+      <c r="A103" s="82">
         <v>0.12</v>
       </c>
       <c r="B103" s="37">
@@ -20165,7 +20209,7 @@
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="81"/>
+      <c r="A104" s="83"/>
       <c r="B104" s="38">
         <v>2</v>
       </c>
@@ -20225,7 +20269,7 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="81"/>
+      <c r="A105" s="83"/>
       <c r="B105" s="38">
         <v>3</v>
       </c>
@@ -20285,7 +20329,7 @@
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="81"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="38">
         <v>4</v>
       </c>
@@ -20345,7 +20389,7 @@
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="81"/>
+      <c r="A107" s="83"/>
       <c r="B107" s="38">
         <v>5</v>
       </c>
@@ -20405,7 +20449,7 @@
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="81"/>
+      <c r="A108" s="83"/>
       <c r="B108" s="38">
         <v>6</v>
       </c>
@@ -20465,7 +20509,7 @@
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="81"/>
+      <c r="A109" s="83"/>
       <c r="B109" s="38">
         <v>7</v>
       </c>
@@ -20525,7 +20569,7 @@
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A110" s="81"/>
+      <c r="A110" s="83"/>
       <c r="B110" s="38">
         <v>8</v>
       </c>
@@ -20585,7 +20629,7 @@
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A111" s="81"/>
+      <c r="A111" s="83"/>
       <c r="B111" s="38">
         <v>9</v>
       </c>
@@ -20645,7 +20689,7 @@
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="81"/>
+      <c r="A112" s="83"/>
       <c r="B112" s="38">
         <v>10</v>
       </c>
@@ -20705,7 +20749,7 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="81"/>
+      <c r="A113" s="83"/>
       <c r="B113" s="38">
         <v>11</v>
       </c>
@@ -20765,7 +20809,7 @@
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="81"/>
+      <c r="A114" s="83"/>
       <c r="B114" s="38">
         <v>12</v>
       </c>
@@ -20825,7 +20869,7 @@
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="81"/>
+      <c r="A115" s="83"/>
       <c r="B115" s="38">
         <v>13</v>
       </c>
@@ -20885,7 +20929,7 @@
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A116" s="81"/>
+      <c r="A116" s="83"/>
       <c r="B116" s="38">
         <v>14</v>
       </c>
@@ -20945,7 +20989,7 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="81"/>
+      <c r="A117" s="83"/>
       <c r="B117" s="38">
         <v>15</v>
       </c>
@@ -21005,7 +21049,7 @@
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="81"/>
+      <c r="A118" s="83"/>
       <c r="B118" s="38">
         <v>16</v>
       </c>
@@ -21065,7 +21109,7 @@
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="81"/>
+      <c r="A119" s="83"/>
       <c r="B119" s="38">
         <v>17</v>
       </c>
@@ -21125,7 +21169,7 @@
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="81"/>
+      <c r="A120" s="83"/>
       <c r="B120" s="38">
         <v>18</v>
       </c>
@@ -21185,7 +21229,7 @@
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A121" s="81"/>
+      <c r="A121" s="83"/>
       <c r="B121" s="38">
         <v>19</v>
       </c>
@@ -21245,7 +21289,7 @@
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A122" s="81"/>
+      <c r="A122" s="83"/>
       <c r="B122" s="38">
         <v>20</v>
       </c>
@@ -21305,7 +21349,7 @@
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="81"/>
+      <c r="A123" s="83"/>
       <c r="B123" s="38">
         <v>21</v>
       </c>
@@ -21365,7 +21409,7 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="81"/>
+      <c r="A124" s="83"/>
       <c r="B124" s="38">
         <v>22</v>
       </c>
@@ -21425,7 +21469,7 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A125" s="81"/>
+      <c r="A125" s="83"/>
       <c r="B125" s="38">
         <v>23</v>
       </c>
@@ -21485,7 +21529,7 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A126" s="81"/>
+      <c r="A126" s="83"/>
       <c r="B126" s="38">
         <v>24</v>
       </c>
@@ -21545,7 +21589,7 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="81"/>
+      <c r="A127" s="83"/>
       <c r="B127" s="38">
         <v>25</v>
       </c>
@@ -21605,7 +21649,7 @@
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A128" s="81"/>
+      <c r="A128" s="83"/>
       <c r="B128" s="38">
         <v>26</v>
       </c>
@@ -21665,7 +21709,7 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="81"/>
+      <c r="A129" s="83"/>
       <c r="B129" s="38">
         <v>27</v>
       </c>
@@ -21725,7 +21769,7 @@
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="81"/>
+      <c r="A130" s="83"/>
       <c r="B130" s="38">
         <v>28</v>
       </c>
@@ -21785,7 +21829,7 @@
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="81"/>
+      <c r="A131" s="83"/>
       <c r="B131" s="38">
         <v>29</v>
       </c>
@@ -21845,7 +21889,7 @@
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="81"/>
+      <c r="A132" s="83"/>
       <c r="B132" s="38">
         <v>30</v>
       </c>
@@ -21905,7 +21949,7 @@
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="81"/>
+      <c r="A133" s="83"/>
       <c r="B133" s="38">
         <v>31</v>
       </c>
@@ -21965,7 +22009,7 @@
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A134" s="81"/>
+      <c r="A134" s="83"/>
       <c r="B134" s="38">
         <v>32</v>
       </c>
@@ -22025,7 +22069,7 @@
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A135" s="81"/>
+      <c r="A135" s="83"/>
       <c r="B135" s="38">
         <v>33</v>
       </c>
@@ -22085,7 +22129,7 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="81"/>
+      <c r="A136" s="83"/>
       <c r="B136" s="38">
         <v>34</v>
       </c>
@@ -22145,7 +22189,7 @@
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="81"/>
+      <c r="A137" s="83"/>
       <c r="B137" s="38">
         <v>35</v>
       </c>
@@ -22205,7 +22249,7 @@
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="81"/>
+      <c r="A138" s="83"/>
       <c r="B138" s="38">
         <v>36</v>
       </c>
@@ -22265,7 +22309,7 @@
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="81"/>
+      <c r="A139" s="83"/>
       <c r="B139" s="38">
         <v>37</v>
       </c>
@@ -22325,7 +22369,7 @@
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="81"/>
+      <c r="A140" s="83"/>
       <c r="B140" s="38">
         <v>38</v>
       </c>
@@ -22385,7 +22429,7 @@
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A141" s="81"/>
+      <c r="A141" s="83"/>
       <c r="B141" s="38">
         <v>39</v>
       </c>
@@ -22445,7 +22489,7 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="81"/>
+      <c r="A142" s="83"/>
       <c r="B142" s="38">
         <v>40</v>
       </c>
@@ -22505,7 +22549,7 @@
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="81"/>
+      <c r="A143" s="83"/>
       <c r="B143" s="38">
         <v>41</v>
       </c>
@@ -22565,7 +22609,7 @@
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="81"/>
+      <c r="A144" s="83"/>
       <c r="B144" s="38">
         <v>42</v>
       </c>
@@ -22625,7 +22669,7 @@
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="81"/>
+      <c r="A145" s="83"/>
       <c r="B145" s="38">
         <v>43</v>
       </c>
@@ -22685,7 +22729,7 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A146" s="81"/>
+      <c r="A146" s="83"/>
       <c r="B146" s="38">
         <v>44</v>
       </c>
@@ -22745,7 +22789,7 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A147" s="81"/>
+      <c r="A147" s="83"/>
       <c r="B147" s="38">
         <v>45</v>
       </c>
@@ -22805,7 +22849,7 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="81"/>
+      <c r="A148" s="83"/>
       <c r="B148" s="38">
         <v>46</v>
       </c>
@@ -22865,7 +22909,7 @@
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="81"/>
+      <c r="A149" s="83"/>
       <c r="B149" s="38">
         <v>47</v>
       </c>
@@ -22925,7 +22969,7 @@
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="81"/>
+      <c r="A150" s="83"/>
       <c r="B150" s="38">
         <v>48</v>
       </c>
@@ -22985,7 +23029,7 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="81"/>
+      <c r="A151" s="83"/>
       <c r="B151" s="38">
         <v>49</v>
       </c>
@@ -23045,7 +23089,7 @@
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="81"/>
+      <c r="A152" s="83"/>
       <c r="B152" s="38">
         <v>50</v>
       </c>
@@ -23105,7 +23149,7 @@
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="81"/>
+      <c r="A153" s="83"/>
       <c r="B153" s="38">
         <v>51</v>
       </c>
@@ -23165,7 +23209,7 @@
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="81"/>
+      <c r="A154" s="83"/>
       <c r="B154" s="38">
         <v>52</v>
       </c>
@@ -23225,7 +23269,7 @@
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="81"/>
+      <c r="A155" s="83"/>
       <c r="B155" s="38">
         <v>53</v>
       </c>
@@ -23285,7 +23329,7 @@
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="81"/>
+      <c r="A156" s="83"/>
       <c r="B156" s="38">
         <v>54</v>
       </c>
@@ -23345,7 +23389,7 @@
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A157" s="81"/>
+      <c r="A157" s="83"/>
       <c r="B157" s="38">
         <v>55</v>
       </c>
@@ -23405,7 +23449,7 @@
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A158" s="81"/>
+      <c r="A158" s="83"/>
       <c r="B158" s="38">
         <v>56</v>
       </c>
@@ -23465,7 +23509,7 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="81"/>
+      <c r="A159" s="83"/>
       <c r="B159" s="38">
         <v>57</v>
       </c>
@@ -23525,7 +23569,7 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="81"/>
+      <c r="A160" s="83"/>
       <c r="B160" s="38">
         <v>58</v>
       </c>
@@ -23585,7 +23629,7 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="81"/>
+      <c r="A161" s="83"/>
       <c r="B161" s="38">
         <v>59</v>
       </c>
@@ -23645,7 +23689,7 @@
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="81"/>
+      <c r="A162" s="83"/>
       <c r="B162" s="38">
         <v>60</v>
       </c>
@@ -23705,7 +23749,7 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A163" s="81"/>
+      <c r="A163" s="83"/>
       <c r="B163" s="38">
         <v>61</v>
       </c>
@@ -23765,7 +23809,7 @@
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A164" s="81"/>
+      <c r="A164" s="83"/>
       <c r="B164" s="38">
         <v>62</v>
       </c>
@@ -23825,7 +23869,7 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="81"/>
+      <c r="A165" s="83"/>
       <c r="B165" s="38">
         <v>63</v>
       </c>
@@ -23885,7 +23929,7 @@
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="81"/>
+      <c r="A166" s="83"/>
       <c r="B166" s="38">
         <v>64</v>
       </c>
@@ -23945,7 +23989,7 @@
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="81"/>
+      <c r="A167" s="83"/>
       <c r="B167" s="38">
         <v>65</v>
       </c>
@@ -24005,7 +24049,7 @@
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A168" s="81"/>
+      <c r="A168" s="83"/>
       <c r="B168" s="38">
         <v>66</v>
       </c>
@@ -24065,7 +24109,7 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A169" s="81"/>
+      <c r="A169" s="83"/>
       <c r="B169" s="38">
         <v>67</v>
       </c>
@@ -24125,7 +24169,7 @@
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="81"/>
+      <c r="A170" s="83"/>
       <c r="B170" s="38">
         <v>68</v>
       </c>
@@ -24185,7 +24229,7 @@
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="81"/>
+      <c r="A171" s="83"/>
       <c r="B171" s="38">
         <v>69</v>
       </c>
@@ -24245,7 +24289,7 @@
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="81"/>
+      <c r="A172" s="83"/>
       <c r="B172" s="38">
         <v>70</v>
       </c>
@@ -24305,7 +24349,7 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="81"/>
+      <c r="A173" s="83"/>
       <c r="B173" s="38">
         <v>71</v>
       </c>
@@ -24365,7 +24409,7 @@
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A174" s="81"/>
+      <c r="A174" s="83"/>
       <c r="B174" s="38">
         <v>72</v>
       </c>
@@ -24425,7 +24469,7 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A175" s="81"/>
+      <c r="A175" s="83"/>
       <c r="B175" s="38">
         <v>73</v>
       </c>
@@ -24485,7 +24529,7 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="81"/>
+      <c r="A176" s="83"/>
       <c r="B176" s="38">
         <v>74</v>
       </c>
@@ -24545,7 +24589,7 @@
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="81"/>
+      <c r="A177" s="83"/>
       <c r="B177" s="38">
         <v>75</v>
       </c>
@@ -24605,7 +24649,7 @@
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="81"/>
+      <c r="A178" s="83"/>
       <c r="B178" s="38">
         <v>76</v>
       </c>
@@ -24665,7 +24709,7 @@
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="81"/>
+      <c r="A179" s="83"/>
       <c r="B179" s="38">
         <v>77</v>
       </c>
@@ -24725,7 +24769,7 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="81"/>
+      <c r="A180" s="83"/>
       <c r="B180" s="38">
         <v>78</v>
       </c>
@@ -24785,7 +24829,7 @@
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A181" s="81"/>
+      <c r="A181" s="83"/>
       <c r="B181" s="38">
         <v>79</v>
       </c>
@@ -24845,7 +24889,7 @@
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A182" s="81"/>
+      <c r="A182" s="83"/>
       <c r="B182" s="38">
         <v>80</v>
       </c>
@@ -24905,7 +24949,7 @@
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A183" s="81"/>
+      <c r="A183" s="83"/>
       <c r="B183" s="38">
         <v>81</v>
       </c>
@@ -24965,7 +25009,7 @@
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A184" s="81"/>
+      <c r="A184" s="83"/>
       <c r="B184" s="38">
         <v>82</v>
       </c>
@@ -25025,7 +25069,7 @@
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A185" s="81"/>
+      <c r="A185" s="83"/>
       <c r="B185" s="38">
         <v>83</v>
       </c>
@@ -25085,7 +25129,7 @@
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="81"/>
+      <c r="A186" s="83"/>
       <c r="B186" s="38">
         <v>84</v>
       </c>
@@ -25145,7 +25189,7 @@
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="81"/>
+      <c r="A187" s="83"/>
       <c r="B187" s="38">
         <v>85</v>
       </c>
@@ -25205,7 +25249,7 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="81"/>
+      <c r="A188" s="83"/>
       <c r="B188" s="38">
         <v>86</v>
       </c>
@@ -25265,7 +25309,7 @@
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" s="81"/>
+      <c r="A189" s="83"/>
       <c r="B189" s="38">
         <v>87</v>
       </c>
@@ -25325,7 +25369,7 @@
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" s="81"/>
+      <c r="A190" s="83"/>
       <c r="B190" s="38">
         <v>88</v>
       </c>
@@ -25385,7 +25429,7 @@
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="81"/>
+      <c r="A191" s="83"/>
       <c r="B191" s="38">
         <v>89</v>
       </c>
@@ -25445,7 +25489,7 @@
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="81"/>
+      <c r="A192" s="83"/>
       <c r="B192" s="38">
         <v>90</v>
       </c>
@@ -25505,7 +25549,7 @@
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="81"/>
+      <c r="A193" s="83"/>
       <c r="B193" s="38">
         <v>91</v>
       </c>
@@ -25565,7 +25609,7 @@
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A194" s="81"/>
+      <c r="A194" s="83"/>
       <c r="B194" s="38">
         <v>92</v>
       </c>
@@ -25625,7 +25669,7 @@
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A195" s="81"/>
+      <c r="A195" s="83"/>
       <c r="B195" s="38">
         <v>93</v>
       </c>
@@ -25685,7 +25729,7 @@
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A196" s="81"/>
+      <c r="A196" s="83"/>
       <c r="B196" s="38">
         <v>94</v>
       </c>
@@ -25745,7 +25789,7 @@
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A197" s="81"/>
+      <c r="A197" s="83"/>
       <c r="B197" s="38">
         <v>95</v>
       </c>
@@ -25805,7 +25849,7 @@
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A198" s="81"/>
+      <c r="A198" s="83"/>
       <c r="B198" s="38">
         <v>96</v>
       </c>
@@ -25865,7 +25909,7 @@
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="81"/>
+      <c r="A199" s="83"/>
       <c r="B199" s="38">
         <v>97</v>
       </c>
@@ -25925,7 +25969,7 @@
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="81"/>
+      <c r="A200" s="83"/>
       <c r="B200" s="38">
         <v>98</v>
       </c>
@@ -25985,7 +26029,7 @@
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="81"/>
+      <c r="A201" s="83"/>
       <c r="B201" s="38">
         <v>99</v>
       </c>
@@ -26045,7 +26089,7 @@
       </c>
     </row>
     <row r="202" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="83"/>
+      <c r="A202" s="85"/>
       <c r="B202" s="39">
         <v>100</v>
       </c>
@@ -26105,7 +26149,7 @@
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A203" s="84" t="s">
+      <c r="A203" s="86" t="s">
         <v>13</v>
       </c>
       <c r="B203" s="45">
@@ -26167,7 +26211,7 @@
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="81"/>
+      <c r="A204" s="83"/>
       <c r="B204" s="38">
         <v>2</v>
       </c>
@@ -26227,7 +26271,7 @@
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="81"/>
+      <c r="A205" s="83"/>
       <c r="B205" s="38">
         <v>3</v>
       </c>
@@ -26287,7 +26331,7 @@
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="81"/>
+      <c r="A206" s="83"/>
       <c r="B206" s="38">
         <v>4</v>
       </c>
@@ -26347,7 +26391,7 @@
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A207" s="81"/>
+      <c r="A207" s="83"/>
       <c r="B207" s="38">
         <v>5</v>
       </c>
@@ -26407,7 +26451,7 @@
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A208" s="81"/>
+      <c r="A208" s="83"/>
       <c r="B208" s="38">
         <v>6</v>
       </c>
@@ -26467,7 +26511,7 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A209" s="81"/>
+      <c r="A209" s="83"/>
       <c r="B209" s="38">
         <v>7</v>
       </c>
@@ -26527,7 +26571,7 @@
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A210" s="81"/>
+      <c r="A210" s="83"/>
       <c r="B210" s="38">
         <v>8</v>
       </c>
@@ -26587,7 +26631,7 @@
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A211" s="81"/>
+      <c r="A211" s="83"/>
       <c r="B211" s="38">
         <v>9</v>
       </c>
@@ -26647,7 +26691,7 @@
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="81"/>
+      <c r="A212" s="83"/>
       <c r="B212" s="38">
         <v>10</v>
       </c>
@@ -26707,7 +26751,7 @@
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A213" s="81"/>
+      <c r="A213" s="83"/>
       <c r="B213" s="38">
         <v>11</v>
       </c>
@@ -26767,7 +26811,7 @@
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A214" s="81"/>
+      <c r="A214" s="83"/>
       <c r="B214" s="38">
         <v>12</v>
       </c>
@@ -26827,7 +26871,7 @@
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A215" s="81"/>
+      <c r="A215" s="83"/>
       <c r="B215" s="38">
         <v>13</v>
       </c>
@@ -26887,7 +26931,7 @@
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A216" s="81"/>
+      <c r="A216" s="83"/>
       <c r="B216" s="38">
         <v>14</v>
       </c>
@@ -26947,7 +26991,7 @@
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A217" s="81"/>
+      <c r="A217" s="83"/>
       <c r="B217" s="38">
         <v>15</v>
       </c>
@@ -27007,7 +27051,7 @@
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A218" s="81"/>
+      <c r="A218" s="83"/>
       <c r="B218" s="38">
         <v>16</v>
       </c>
@@ -27067,7 +27111,7 @@
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A219" s="81"/>
+      <c r="A219" s="83"/>
       <c r="B219" s="38">
         <v>17</v>
       </c>
@@ -27127,7 +27171,7 @@
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A220" s="81"/>
+      <c r="A220" s="83"/>
       <c r="B220" s="38">
         <v>18</v>
       </c>
@@ -27187,7 +27231,7 @@
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="81"/>
+      <c r="A221" s="83"/>
       <c r="B221" s="38">
         <v>19</v>
       </c>
@@ -27247,7 +27291,7 @@
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="81"/>
+      <c r="A222" s="83"/>
       <c r="B222" s="38">
         <v>20</v>
       </c>
@@ -27307,7 +27351,7 @@
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A223" s="81"/>
+      <c r="A223" s="83"/>
       <c r="B223" s="38">
         <v>21</v>
       </c>
@@ -27367,7 +27411,7 @@
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="81"/>
+      <c r="A224" s="83"/>
       <c r="B224" s="38">
         <v>22</v>
       </c>
@@ -27427,7 +27471,7 @@
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A225" s="81"/>
+      <c r="A225" s="83"/>
       <c r="B225" s="38">
         <v>23</v>
       </c>
@@ -27487,7 +27531,7 @@
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A226" s="81"/>
+      <c r="A226" s="83"/>
       <c r="B226" s="38">
         <v>24</v>
       </c>
@@ -27547,7 +27591,7 @@
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="81"/>
+      <c r="A227" s="83"/>
       <c r="B227" s="38">
         <v>25</v>
       </c>
@@ -27607,7 +27651,7 @@
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A228" s="81"/>
+      <c r="A228" s="83"/>
       <c r="B228" s="38">
         <v>26</v>
       </c>
@@ -27667,7 +27711,7 @@
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="81"/>
+      <c r="A229" s="83"/>
       <c r="B229" s="38">
         <v>27</v>
       </c>
@@ -27727,7 +27771,7 @@
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="81"/>
+      <c r="A230" s="83"/>
       <c r="B230" s="38">
         <v>28</v>
       </c>
@@ -27787,7 +27831,7 @@
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="81"/>
+      <c r="A231" s="83"/>
       <c r="B231" s="38">
         <v>29</v>
       </c>
@@ -27847,7 +27891,7 @@
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A232" s="81"/>
+      <c r="A232" s="83"/>
       <c r="B232" s="38">
         <v>30</v>
       </c>
@@ -27907,7 +27951,7 @@
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A233" s="81"/>
+      <c r="A233" s="83"/>
       <c r="B233" s="38">
         <v>31</v>
       </c>
@@ -27967,7 +28011,7 @@
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="81"/>
+      <c r="A234" s="83"/>
       <c r="B234" s="38">
         <v>32</v>
       </c>
@@ -28027,7 +28071,7 @@
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="81"/>
+      <c r="A235" s="83"/>
       <c r="B235" s="38">
         <v>33</v>
       </c>
@@ -28087,7 +28131,7 @@
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="81"/>
+      <c r="A236" s="83"/>
       <c r="B236" s="38">
         <v>34</v>
       </c>
@@ -28147,7 +28191,7 @@
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A237" s="81"/>
+      <c r="A237" s="83"/>
       <c r="B237" s="38">
         <v>35</v>
       </c>
@@ -28207,7 +28251,7 @@
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="81"/>
+      <c r="A238" s="83"/>
       <c r="B238" s="38">
         <v>36</v>
       </c>
@@ -28267,7 +28311,7 @@
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="81"/>
+      <c r="A239" s="83"/>
       <c r="B239" s="38">
         <v>37</v>
       </c>
@@ -28327,7 +28371,7 @@
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A240" s="81"/>
+      <c r="A240" s="83"/>
       <c r="B240" s="38">
         <v>38</v>
       </c>
@@ -28387,7 +28431,7 @@
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A241" s="81"/>
+      <c r="A241" s="83"/>
       <c r="B241" s="38">
         <v>39</v>
       </c>
@@ -28447,7 +28491,7 @@
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="81"/>
+      <c r="A242" s="83"/>
       <c r="B242" s="38">
         <v>40</v>
       </c>
@@ -28507,7 +28551,7 @@
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A243" s="81"/>
+      <c r="A243" s="83"/>
       <c r="B243" s="38">
         <v>41</v>
       </c>
@@ -28567,7 +28611,7 @@
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="81"/>
+      <c r="A244" s="83"/>
       <c r="B244" s="38">
         <v>42</v>
       </c>
@@ -28627,7 +28671,7 @@
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A245" s="81"/>
+      <c r="A245" s="83"/>
       <c r="B245" s="38">
         <v>43</v>
       </c>
@@ -28687,7 +28731,7 @@
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A246" s="81"/>
+      <c r="A246" s="83"/>
       <c r="B246" s="38">
         <v>44</v>
       </c>
@@ -28747,7 +28791,7 @@
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="81"/>
+      <c r="A247" s="83"/>
       <c r="B247" s="38">
         <v>45</v>
       </c>
@@ -28807,7 +28851,7 @@
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A248" s="81"/>
+      <c r="A248" s="83"/>
       <c r="B248" s="38">
         <v>46</v>
       </c>
@@ -28867,7 +28911,7 @@
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="81"/>
+      <c r="A249" s="83"/>
       <c r="B249" s="38">
         <v>47</v>
       </c>
@@ -28927,7 +28971,7 @@
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="81"/>
+      <c r="A250" s="83"/>
       <c r="B250" s="38">
         <v>48</v>
       </c>
@@ -28987,7 +29031,7 @@
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="81"/>
+      <c r="A251" s="83"/>
       <c r="B251" s="38">
         <v>49</v>
       </c>
@@ -29047,7 +29091,7 @@
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A252" s="81"/>
+      <c r="A252" s="83"/>
       <c r="B252" s="38">
         <v>50</v>
       </c>
@@ -29107,7 +29151,7 @@
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A253" s="81"/>
+      <c r="A253" s="83"/>
       <c r="B253" s="38">
         <v>51</v>
       </c>
@@ -29167,7 +29211,7 @@
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="81"/>
+      <c r="A254" s="83"/>
       <c r="B254" s="38">
         <v>52</v>
       </c>
@@ -29227,7 +29271,7 @@
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="81"/>
+      <c r="A255" s="83"/>
       <c r="B255" s="38">
         <v>53</v>
       </c>
@@ -29287,7 +29331,7 @@
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="81"/>
+      <c r="A256" s="83"/>
       <c r="B256" s="38">
         <v>54</v>
       </c>
@@ -29347,7 +29391,7 @@
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="81"/>
+      <c r="A257" s="83"/>
       <c r="B257" s="38">
         <v>55</v>
       </c>
@@ -29407,7 +29451,7 @@
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A258" s="81"/>
+      <c r="A258" s="83"/>
       <c r="B258" s="38">
         <v>56</v>
       </c>
@@ -29467,7 +29511,7 @@
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A259" s="81"/>
+      <c r="A259" s="83"/>
       <c r="B259" s="38">
         <v>57</v>
       </c>
@@ -29527,7 +29571,7 @@
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="81"/>
+      <c r="A260" s="83"/>
       <c r="B260" s="38">
         <v>58</v>
       </c>
@@ -29587,7 +29631,7 @@
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A261" s="81"/>
+      <c r="A261" s="83"/>
       <c r="B261" s="38">
         <v>59</v>
       </c>
@@ -29647,7 +29691,7 @@
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A262" s="81"/>
+      <c r="A262" s="83"/>
       <c r="B262" s="38">
         <v>60</v>
       </c>
@@ -29707,7 +29751,7 @@
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A263" s="81"/>
+      <c r="A263" s="83"/>
       <c r="B263" s="38">
         <v>61</v>
       </c>
@@ -29767,7 +29811,7 @@
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A264" s="81"/>
+      <c r="A264" s="83"/>
       <c r="B264" s="38">
         <v>62</v>
       </c>
@@ -29827,7 +29871,7 @@
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A265" s="81"/>
+      <c r="A265" s="83"/>
       <c r="B265" s="38">
         <v>63</v>
       </c>
@@ -29887,7 +29931,7 @@
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="81"/>
+      <c r="A266" s="83"/>
       <c r="B266" s="38">
         <v>64</v>
       </c>
@@ -29947,7 +29991,7 @@
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A267" s="81"/>
+      <c r="A267" s="83"/>
       <c r="B267" s="38">
         <v>65</v>
       </c>
@@ -30007,7 +30051,7 @@
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A268" s="81"/>
+      <c r="A268" s="83"/>
       <c r="B268" s="38">
         <v>66</v>
       </c>
@@ -30067,7 +30111,7 @@
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="81"/>
+      <c r="A269" s="83"/>
       <c r="B269" s="38">
         <v>67</v>
       </c>
@@ -30127,7 +30171,7 @@
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="81"/>
+      <c r="A270" s="83"/>
       <c r="B270" s="38">
         <v>68</v>
       </c>
@@ -30187,7 +30231,7 @@
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A271" s="81"/>
+      <c r="A271" s="83"/>
       <c r="B271" s="38">
         <v>69</v>
       </c>
@@ -30247,7 +30291,7 @@
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A272" s="81"/>
+      <c r="A272" s="83"/>
       <c r="B272" s="38">
         <v>70</v>
       </c>
@@ -30307,7 +30351,7 @@
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A273" s="81"/>
+      <c r="A273" s="83"/>
       <c r="B273" s="38">
         <v>71</v>
       </c>
@@ -30367,7 +30411,7 @@
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="81"/>
+      <c r="A274" s="83"/>
       <c r="B274" s="38">
         <v>72</v>
       </c>
@@ -30427,7 +30471,7 @@
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="81"/>
+      <c r="A275" s="83"/>
       <c r="B275" s="38">
         <v>73</v>
       </c>
@@ -30487,7 +30531,7 @@
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="81"/>
+      <c r="A276" s="83"/>
       <c r="B276" s="38">
         <v>74</v>
       </c>
@@ -30547,7 +30591,7 @@
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A277" s="81"/>
+      <c r="A277" s="83"/>
       <c r="B277" s="38">
         <v>75</v>
       </c>
@@ -30607,7 +30651,7 @@
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="81"/>
+      <c r="A278" s="83"/>
       <c r="B278" s="38">
         <v>76</v>
       </c>
@@ -30667,7 +30711,7 @@
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A279" s="81"/>
+      <c r="A279" s="83"/>
       <c r="B279" s="38">
         <v>77</v>
       </c>
@@ -30727,7 +30771,7 @@
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A280" s="81"/>
+      <c r="A280" s="83"/>
       <c r="B280" s="38">
         <v>78</v>
       </c>
@@ -30787,7 +30831,7 @@
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A281" s="81"/>
+      <c r="A281" s="83"/>
       <c r="B281" s="38">
         <v>79</v>
       </c>
@@ -30847,7 +30891,7 @@
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A282" s="81"/>
+      <c r="A282" s="83"/>
       <c r="B282" s="38">
         <v>80</v>
       </c>
@@ -30907,7 +30951,7 @@
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A283" s="81"/>
+      <c r="A283" s="83"/>
       <c r="B283" s="38">
         <v>81</v>
       </c>
@@ -30967,7 +31011,7 @@
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A284" s="81"/>
+      <c r="A284" s="83"/>
       <c r="B284" s="38">
         <v>82</v>
       </c>
@@ -31027,7 +31071,7 @@
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A285" s="81"/>
+      <c r="A285" s="83"/>
       <c r="B285" s="38">
         <v>83</v>
       </c>
@@ -31087,7 +31131,7 @@
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="81"/>
+      <c r="A286" s="83"/>
       <c r="B286" s="38">
         <v>84</v>
       </c>
@@ -31147,7 +31191,7 @@
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A287" s="81"/>
+      <c r="A287" s="83"/>
       <c r="B287" s="38">
         <v>85</v>
       </c>
@@ -31207,7 +31251,7 @@
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A288" s="81"/>
+      <c r="A288" s="83"/>
       <c r="B288" s="38">
         <v>86</v>
       </c>
@@ -31267,7 +31311,7 @@
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="81"/>
+      <c r="A289" s="83"/>
       <c r="B289" s="38">
         <v>87</v>
       </c>
@@ -31327,7 +31371,7 @@
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A290" s="81"/>
+      <c r="A290" s="83"/>
       <c r="B290" s="38">
         <v>88</v>
       </c>
@@ -31387,7 +31431,7 @@
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A291" s="81"/>
+      <c r="A291" s="83"/>
       <c r="B291" s="38">
         <v>89</v>
       </c>
@@ -31447,7 +31491,7 @@
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="81"/>
+      <c r="A292" s="83"/>
       <c r="B292" s="38">
         <v>90</v>
       </c>
@@ -31507,7 +31551,7 @@
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="81"/>
+      <c r="A293" s="83"/>
       <c r="B293" s="38">
         <v>91</v>
       </c>
@@ -31567,7 +31611,7 @@
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A294" s="81"/>
+      <c r="A294" s="83"/>
       <c r="B294" s="38">
         <v>92</v>
       </c>
@@ -31627,7 +31671,7 @@
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A295" s="81"/>
+      <c r="A295" s="83"/>
       <c r="B295" s="38">
         <v>93</v>
       </c>
@@ -31687,7 +31731,7 @@
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="81"/>
+      <c r="A296" s="83"/>
       <c r="B296" s="38">
         <v>94</v>
       </c>
@@ -31747,7 +31791,7 @@
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A297" s="81"/>
+      <c r="A297" s="83"/>
       <c r="B297" s="38">
         <v>95</v>
       </c>
@@ -31807,7 +31851,7 @@
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A298" s="81"/>
+      <c r="A298" s="83"/>
       <c r="B298" s="38">
         <v>96</v>
       </c>
@@ -31867,7 +31911,7 @@
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A299" s="81"/>
+      <c r="A299" s="83"/>
       <c r="B299" s="38">
         <v>97</v>
       </c>
@@ -31927,7 +31971,7 @@
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" s="81"/>
+      <c r="A300" s="83"/>
       <c r="B300" s="38">
         <v>98</v>
       </c>
@@ -31987,7 +32031,7 @@
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A301" s="81"/>
+      <c r="A301" s="83"/>
       <c r="B301" s="38">
         <v>99</v>
       </c>
@@ -32047,7 +32091,7 @@
       </c>
     </row>
     <row r="302" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="83"/>
+      <c r="A302" s="85"/>
       <c r="B302" s="39">
         <v>100</v>
       </c>
@@ -32144,34 +32188,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="90" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="87" t="s">
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="89"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
+      <c r="A2" s="95"/>
       <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
@@ -32455,75 +32499,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="104" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="98" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="100"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="102"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="101">
+      <c r="A2" s="83"/>
+      <c r="B2" s="103">
         <v>0.05</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104">
         <v>0.12</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="106">
+      <c r="G2" s="105"/>
+      <c r="H2" s="108">
         <v>0.05</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102">
+      <c r="I2" s="104"/>
+      <c r="J2" s="104">
         <v>0.12</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102" t="s">
+      <c r="K2" s="104"/>
+      <c r="L2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="107"/>
-      <c r="N2" s="101">
+      <c r="M2" s="109"/>
+      <c r="N2" s="103">
         <v>0.05</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102">
+      <c r="O2" s="104"/>
+      <c r="P2" s="104">
         <v>0.12</v>
       </c>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102" t="s">
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="103"/>
+      <c r="S2" s="105"/>
     </row>
     <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="52" t="s">
         <v>3</v>
       </c>
@@ -34792,10 +34836,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34803,23 +34847,27 @@
     <col min="1" max="1" width="8.6640625" style="26" customWidth="1"/>
     <col min="2" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="95"/>
       <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
@@ -34838,80 +34886,198 @@
       <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>0.01</v>
       </c>
       <c r="B3" s="20">
-        <v>-20.841100000000001</v>
+        <v>213702</v>
       </c>
       <c r="C3" s="18">
-        <v>0.180811</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.219887</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1.1992900000000001E-2</v>
+        <v>-980313</v>
+      </c>
+      <c r="D3" s="68">
+        <v>1852220</v>
+      </c>
+      <c r="E3" s="68">
+        <v>-1.1102199999999999E-15</v>
       </c>
       <c r="F3" s="18">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G3" s="19">
-        <v>41148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1000001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>1E-3</v>
       </c>
       <c r="B4" s="10">
-        <v>-3.54046E-4</v>
+        <v>-11.8209</v>
       </c>
       <c r="C4" s="1">
-        <v>7.1086200000000004E-3</v>
+        <v>0.10352</v>
       </c>
       <c r="D4" s="1">
-        <v>1.33004E-2</v>
+        <v>0.12735399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.23903199999999999</v>
+        <v>6.2585600000000005E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <v>1E-4</v>
       </c>
       <c r="B5" s="74">
+        <v>-11.819100000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.103504</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.127336</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.2605900000000006E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>84</v>
+      </c>
+      <c r="G5" s="4">
+        <v>62537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="95"/>
+      <c r="B11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="B12" s="20">
+        <v>-20.841100000000001</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.180811</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.219887</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1.1992900000000001E-2</v>
+      </c>
+      <c r="F12" s="18">
+        <v>84</v>
+      </c>
+      <c r="G12" s="19">
+        <v>41148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>-3.54046E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.1086200000000004E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.33004E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.23903199999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="B14" s="74">
         <v>7.5268500000000006E-5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C14" s="3">
         <v>8.1999499999999993E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D14" s="3">
         <v>9.5340400000000006E-3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E14" s="3">
         <v>0.283416</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F14" s="3">
         <v>70</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G14" s="4">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34922,11 +35088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -34939,19 +35108,19 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="109" t="s">
-        <v>26</v>
+      <c r="H1" t="s">
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -34959,8 +35128,8 @@
       <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="109" t="s">
-        <v>25</v>
+      <c r="K1" t="s">
+        <v>24</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -34980,17 +35149,17 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.98807900000000004</v>
+        <v>0.93931399999999998</v>
       </c>
       <c r="E2" s="110">
-        <v>-20.841100000000001</v>
-      </c>
-      <c r="F2" s="111">
+        <v>-11.819100000000001</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
         <f>-$E$2/$E$4-$E$3/$E$4*F2</f>
-        <v>93.958665132545363</v>
+        <v>92.005371615254134</v>
       </c>
       <c r="I2">
         <f>IF(C2=1,A2, #N/A)</f>
@@ -35001,11 +35170,11 @@
         <v>68</v>
       </c>
       <c r="L2" t="e">
-        <f>IF($C2=0,A2, #N/A)</f>
+        <f t="shared" ref="L2:L33" si="0">IF($C2=0,A2, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M2" t="e">
-        <f>IF($C2=0,B2, #N/A)</f>
+        <f t="shared" ref="M2:M33" si="1">IF($C2=0,B2, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35020,32 +35189,32 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="E3" s="110">
-        <v>0.180811</v>
-      </c>
-      <c r="F3" s="111">
+        <v>0.99971399999999999</v>
+      </c>
+      <c r="E3" s="111">
+        <v>0.103504</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">-$E$2/$E$4-$E$3/$E$4*F3</f>
-        <v>93.13637459240428</v>
+        <f t="shared" ref="G3:G66" si="2">-$E$2/$E$4-$E$3/$E$4*F3</f>
+        <v>91.192529999371743</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="1">IF(C3=1,A3, #N/A)</f>
+        <f t="shared" ref="I3:I66" si="3">IF(C3=1,A3, #N/A)</f>
         <v>86</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="2">IF($C3=1,B3, #N/A)</f>
+        <f t="shared" ref="J3:J66" si="4">IF($C3=1,B3, #N/A)</f>
         <v>87</v>
       </c>
       <c r="L3" t="e">
-        <f>IF($C3=0,A3, #N/A)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="M3" t="e">
-        <f>IF($C3=0,B3, #N/A)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -35060,32 +35229,32 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.99202500000000005</v>
-      </c>
-      <c r="E4" s="110">
-        <v>0.219887</v>
-      </c>
-      <c r="F4" s="111">
+        <v>0.94977199999999995</v>
+      </c>
+      <c r="E4" s="111">
+        <v>0.127336</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
+        <f t="shared" si="2"/>
+        <v>90.379688383489352</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="L4" t="e">
         <f t="shared" si="0"/>
-        <v>92.314084052263212</v>
-      </c>
-      <c r="I4">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="L4" t="e">
-        <f>IF($C4=0,A4, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M4" t="e">
-        <f>IF($C4=0,B4, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35100,29 +35269,29 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.5414300000000004E-2</v>
-      </c>
-      <c r="F5" s="111">
+        <v>0.21637000000000001</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
+        <f t="shared" si="2"/>
+        <v>89.566846767606961</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>91.491793512122143</v>
-      </c>
-      <c r="I5" t="e">
+        <v>71</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L5">
-        <f>IF($C5=0,A5, #N/A)</f>
-        <v>71</v>
-      </c>
-      <c r="M5">
-        <f>IF($C5=0,B5, #N/A)</f>
         <v>25</v>
       </c>
     </row>
@@ -35137,29 +35306,29 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.99993600000000005</v>
-      </c>
-      <c r="F6" s="111">
+        <v>0.99682300000000001</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
+        <f t="shared" si="2"/>
+        <v>88.75400515172457</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="L6" t="e">
         <f t="shared" si="0"/>
-        <v>90.669502971981075</v>
-      </c>
-      <c r="I6">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="L6" t="e">
-        <f>IF($C6=0,A6, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" t="e">
-        <f>IF($C6=0,B6, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35174,29 +35343,29 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.99753000000000003</v>
-      </c>
-      <c r="F7" s="111">
+        <v>0.97401700000000002</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
+        <v>87.941163535842179</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L7" t="e">
         <f t="shared" si="0"/>
-        <v>89.847212431839992</v>
-      </c>
-      <c r="I7">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="e">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="L7" t="e">
-        <f>IF($C7=0,A7, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" t="e">
-        <f>IF($C7=0,B7, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35211,29 +35380,29 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="111">
+        <v>0.99990199999999996</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
+        <v>87.128321919959802</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="L8" t="e">
         <f t="shared" si="0"/>
-        <v>89.024921891698924</v>
-      </c>
-      <c r="I8">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="e">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="L8" t="e">
-        <f>IF($C8=0,A8, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" t="e">
-        <f>IF($C8=0,B8, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35248,29 +35417,29 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.99999700000000002</v>
-      </c>
-      <c r="F9" s="111">
+        <v>0.99941500000000005</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
+        <v>86.315480304077411</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="L9" t="e">
         <f t="shared" si="0"/>
-        <v>88.202631351557855</v>
-      </c>
-      <c r="I9">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="L9" t="e">
-        <f>IF($C9=0,A9, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" t="e">
-        <f>IF($C9=0,B9, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35285,29 +35454,29 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.3068400000000001E-2</v>
-      </c>
-      <c r="F10" s="111">
+        <v>8.99287E-2</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
+        <v>85.50263868819502</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>87.380340811416772</v>
-      </c>
-      <c r="I10" t="e">
+        <v>50</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L10">
-        <f>IF($C10=0,A10, #N/A)</f>
-        <v>50</v>
-      </c>
-      <c r="M10">
-        <f>IF($C10=0,B10, #N/A)</f>
         <v>34</v>
       </c>
     </row>
@@ -35322,29 +35491,29 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="111">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
+        <v>84.689797072312629</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="L11" t="e">
         <f t="shared" si="0"/>
-        <v>86.558050271275704</v>
-      </c>
-      <c r="I11">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="L11" t="e">
-        <f>IF($C11=0,A11, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="e">
-        <f>IF($C11=0,B11, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35359,29 +35528,29 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.99961900000000004</v>
-      </c>
-      <c r="F12" s="111">
+        <v>0.99137799999999998</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
       <c r="G12">
+        <f t="shared" si="2"/>
+        <v>83.876955456430238</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="L12" t="e">
         <f t="shared" si="0"/>
-        <v>85.735759731134635</v>
-      </c>
-      <c r="I12">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="L12" t="e">
-        <f>IF($C12=0,A12, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" t="e">
-        <f>IF($C12=0,B12, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35396,29 +35565,29 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.5503299999999998E-2</v>
-      </c>
-      <c r="F13" s="111">
+        <v>0.19162100000000001</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
       <c r="G13">
+        <f t="shared" si="2"/>
+        <v>83.064113840547847</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>84.913469190993567</v>
-      </c>
-      <c r="I13" t="e">
+        <v>40</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13">
-        <f>IF($C13=0,A13, #N/A)</f>
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <f>IF($C13=0,B13, #N/A)</f>
         <v>49</v>
       </c>
     </row>
@@ -35433,29 +35602,29 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.79308900000000004</v>
-      </c>
-      <c r="F14" s="111">
+        <v>0.72708099999999998</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
       <c r="G14">
+        <f t="shared" si="2"/>
+        <v>82.251272224665456</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="L14" t="e">
         <f t="shared" si="0"/>
-        <v>84.091178650852484</v>
-      </c>
-      <c r="I14">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="e">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="L14" t="e">
-        <f>IF($C14=0,A14, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" t="e">
-        <f>IF($C14=0,B14, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35470,29 +35639,29 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.0332399999999999E-2</v>
-      </c>
-      <c r="F15" s="111">
+        <v>0.14304700000000001</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
       <c r="G15">
+        <f t="shared" si="2"/>
+        <v>81.438430608783065</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="0"/>
-        <v>83.268888110711416</v>
-      </c>
-      <c r="I15" t="e">
+        <v>28</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15">
-        <f>IF($C15=0,A15, #N/A)</f>
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <f>IF($C15=0,B15, #N/A)</f>
         <v>56</v>
       </c>
     </row>
@@ -35507,29 +35676,29 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="111">
+        <v>0.999919</v>
+      </c>
+      <c r="F16">
         <v>15</v>
       </c>
       <c r="G16">
+        <f t="shared" si="2"/>
+        <v>80.625588992900674</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="L16" t="e">
         <f t="shared" si="0"/>
-        <v>82.446597570570347</v>
-      </c>
-      <c r="I16">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="L16" t="e">
-        <f>IF($C16=0,A16, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" t="e">
-        <f>IF($C16=0,B16, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35544,29 +35713,29 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.0941499999999999E-3</v>
-      </c>
-      <c r="F17" s="111">
+        <v>2.32091E-2</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
       <c r="G17">
+        <f t="shared" si="2"/>
+        <v>79.812747377018283</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
-        <v>81.624307030429264</v>
-      </c>
-      <c r="I17" t="e">
+        <v>35</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17">
-        <f>IF($C17=0,A17, #N/A)</f>
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <f>IF($C17=0,B17, #N/A)</f>
         <v>35</v>
       </c>
     </row>
@@ -35581,29 +35750,29 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="F18" s="111">
+        <v>0.98873200000000006</v>
+      </c>
+      <c r="F18">
         <v>17</v>
       </c>
       <c r="G18">
+        <f t="shared" si="2"/>
+        <v>78.999905761135892</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="L18" t="e">
         <f t="shared" si="0"/>
-        <v>80.802016490288196</v>
-      </c>
-      <c r="I18">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="L18" t="e">
-        <f>IF($C18=0,A18, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="e">
-        <f>IF($C18=0,B18, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35618,29 +35787,29 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.70970100000000003</v>
-      </c>
-      <c r="F19" s="111">
+        <v>0.67539099999999996</v>
+      </c>
+      <c r="F19">
         <v>18</v>
       </c>
       <c r="G19">
+        <f t="shared" si="2"/>
+        <v>78.187064145253501</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
-        <v>79.979725950147127</v>
-      </c>
-      <c r="I19" t="e">
+        <v>29</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L19">
-        <f>IF($C19=0,A19, #N/A)</f>
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <f>IF($C19=0,B19, #N/A)</f>
         <v>75</v>
       </c>
     </row>
@@ -35655,29 +35824,29 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.8535100000000001E-3</v>
-      </c>
-      <c r="F20" s="111">
+        <v>3.09222E-2</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
       <c r="G20">
+        <f t="shared" si="2"/>
+        <v>77.37422252937111</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
-        <v>79.157435410006059</v>
-      </c>
-      <c r="I20" t="e">
+        <v>44</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L20">
-        <f>IF($C20=0,A20, #N/A)</f>
-        <v>44</v>
-      </c>
-      <c r="M20">
-        <f>IF($C20=0,B20, #N/A)</f>
         <v>30</v>
       </c>
     </row>
@@ -35692,29 +35861,29 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.99313499999999999</v>
-      </c>
-      <c r="F21" s="111">
+        <v>0.95545100000000005</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
       <c r="G21">
+        <f t="shared" si="2"/>
+        <v>76.561380913488733</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="L21" t="e">
         <f t="shared" si="0"/>
-        <v>78.33514486986499</v>
-      </c>
-      <c r="I21">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="e">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="L21" t="e">
-        <f>IF($C21=0,A21, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" t="e">
-        <f>IF($C21=0,B21, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35729,29 +35898,29 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="F22" s="111">
+        <v>0.56532800000000005</v>
+      </c>
+      <c r="F22">
         <v>21</v>
       </c>
       <c r="G22">
+        <f t="shared" si="2"/>
+        <v>75.748539297606342</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
-        <v>77.512854329723908</v>
-      </c>
-      <c r="I22" t="e">
+        <v>22</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L22">
-        <f>IF($C22=0,A22, #N/A)</f>
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <f>IF($C22=0,B22, #N/A)</f>
         <v>77</v>
       </c>
     </row>
@@ -35766,29 +35935,29 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.33102599999999999</v>
-      </c>
-      <c r="F23" s="111">
+        <v>0.44490099999999999</v>
+      </c>
+      <c r="F23">
         <v>22</v>
       </c>
       <c r="G23">
+        <f t="shared" si="2"/>
+        <v>74.935697681723951</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="L23" t="e">
         <f t="shared" si="0"/>
-        <v>76.690563789582839</v>
-      </c>
-      <c r="I23">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" t="e">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="L23" t="e">
-        <f>IF($C23=0,A23, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" t="e">
-        <f>IF($C23=0,B23, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35803,29 +35972,29 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.58119399999999999</v>
-      </c>
-      <c r="F24" s="111">
+        <v>0.58909900000000004</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
       <c r="G24">
+        <f t="shared" si="2"/>
+        <v>74.12285606584156</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="L24" t="e">
         <f t="shared" si="0"/>
-        <v>75.868273249441756</v>
-      </c>
-      <c r="I24">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="e">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="L24" t="e">
-        <f>IF($C24=0,A24, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" t="e">
-        <f>IF($C24=0,B24, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35840,29 +36009,29 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.95212699999999995</v>
-      </c>
-      <c r="F25" s="111">
+        <v>0.875467</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
       <c r="G25">
+        <f t="shared" si="2"/>
+        <v>73.310014449959169</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
-        <v>75.045982709300688</v>
-      </c>
-      <c r="I25" t="e">
+        <v>26</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L25">
-        <f>IF($C25=0,A25, #N/A)</f>
-        <v>26</v>
-      </c>
-      <c r="M25">
-        <f>IF($C25=0,B25, #N/A)</f>
         <v>87</v>
       </c>
     </row>
@@ -35877,29 +36046,29 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.84106800000000004</v>
-      </c>
-      <c r="F26" s="111">
+        <v>0.76188500000000003</v>
+      </c>
+      <c r="F26">
         <v>25</v>
       </c>
       <c r="G26">
+        <f t="shared" si="2"/>
+        <v>72.497172834076778</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="L26" t="e">
         <f t="shared" si="0"/>
-        <v>74.223692169159619</v>
-      </c>
-      <c r="I26">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" t="e">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="L26" t="e">
-        <f>IF($C26=0,A26, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="e">
-        <f>IF($C26=0,B26, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35914,29 +36083,29 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.99571600000000005</v>
-      </c>
-      <c r="F27" s="111">
+        <v>0.96514100000000003</v>
+      </c>
+      <c r="F27">
         <v>26</v>
       </c>
       <c r="G27">
+        <f t="shared" si="2"/>
+        <v>71.684331218194387</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="L27" t="e">
         <f t="shared" si="0"/>
-        <v>73.401401629018551</v>
-      </c>
-      <c r="I27">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" t="e">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="L27" t="e">
-        <f>IF($C27=0,A27, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M27" t="e">
-        <f>IF($C27=0,B27, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35951,29 +36120,29 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="111">
+        <v>0.99997899999999995</v>
+      </c>
+      <c r="F28">
         <v>27</v>
       </c>
       <c r="G28">
+        <f t="shared" si="2"/>
+        <v>70.871489602311996</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="L28" t="e">
         <f t="shared" si="0"/>
-        <v>72.579111088877482</v>
-      </c>
-      <c r="I28">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" t="e">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="L28" t="e">
-        <f>IF($C28=0,A28, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <f>IF($C28=0,B28, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35988,29 +36157,29 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.95454300000000003</v>
-      </c>
-      <c r="F29" s="111">
+        <v>0.87390400000000001</v>
+      </c>
+      <c r="F29">
         <v>28</v>
       </c>
       <c r="G29">
+        <f t="shared" si="2"/>
+        <v>70.058647986429605</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="L29" t="e">
         <f t="shared" si="0"/>
-        <v>71.7568205487364</v>
-      </c>
-      <c r="I29">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="e">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="L29" t="e">
-        <f>IF($C29=0,A29, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="e">
-        <f>IF($C29=0,B29, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36025,29 +36194,29 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="F30" s="111">
+        <v>0.99888699999999997</v>
+      </c>
+      <c r="F30">
         <v>29</v>
       </c>
       <c r="G30">
+        <f t="shared" si="2"/>
+        <v>69.245806370547214</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="L30" t="e">
         <f t="shared" si="0"/>
-        <v>70.934530008595331</v>
-      </c>
-      <c r="I30">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="e">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="L30" t="e">
-        <f>IF($C30=0,A30, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="e">
-        <f>IF($C30=0,B30, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36062,29 +36231,29 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.99960899999999997</v>
-      </c>
-      <c r="F31" s="111">
+        <v>0.99130799999999997</v>
+      </c>
+      <c r="F31">
         <v>30</v>
       </c>
       <c r="G31">
+        <f t="shared" si="2"/>
+        <v>68.432964754664823</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="L31" t="e">
         <f t="shared" si="0"/>
-        <v>70.112239468454248</v>
-      </c>
-      <c r="I31">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" t="e">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="L31" t="e">
-        <f>IF($C31=0,A31, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" t="e">
-        <f>IF($C31=0,B31, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36099,29 +36268,29 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.99998799999999999</v>
-      </c>
-      <c r="F32" s="111">
+        <v>0.99880400000000003</v>
+      </c>
+      <c r="F32">
         <v>31</v>
       </c>
       <c r="G32">
+        <f t="shared" si="2"/>
+        <v>67.620123138782446</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="L32" t="e">
         <f t="shared" si="0"/>
-        <v>69.28994892831318</v>
-      </c>
-      <c r="I32">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" t="e">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="L32" t="e">
-        <f>IF($C32=0,A32, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M32" t="e">
-        <f>IF($C32=0,B32, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36136,29 +36305,29 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.189801</v>
-      </c>
-      <c r="F33" s="111">
+        <v>0.34445799999999999</v>
+      </c>
+      <c r="F33">
         <v>32</v>
       </c>
       <c r="G33">
+        <f t="shared" si="2"/>
+        <v>66.807281522900041</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="L33" t="e">
         <f t="shared" si="0"/>
-        <v>68.467658388172111</v>
-      </c>
-      <c r="I33">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" t="e">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="L33" t="e">
-        <f>IF($C33=0,A33, #N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="e">
-        <f>IF($C33=0,B33, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36173,29 +36342,29 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.129471</v>
-      </c>
-      <c r="F34" s="111">
+        <v>0.28621999999999997</v>
+      </c>
+      <c r="F34">
         <v>33</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>67.645367848031043</v>
+        <f t="shared" si="2"/>
+        <v>65.994439907017664</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="L34" t="e">
-        <f>IF($C34=0,A34, #N/A)</f>
+        <f t="shared" ref="L34:L65" si="5">IF($C34=0,A34, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M34" t="e">
-        <f>IF($C34=0,B34, #N/A)</f>
+        <f t="shared" ref="M34:M65" si="6">IF($C34=0,B34, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36210,29 +36379,29 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.99966100000000002</v>
-      </c>
-      <c r="F35" s="111">
+        <v>0.99152899999999999</v>
+      </c>
+      <c r="F35">
         <v>34</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>66.823077307889974</v>
+        <f t="shared" si="2"/>
+        <v>65.181598291135273</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="L35" t="e">
-        <f>IF($C35=0,A35, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M35" t="e">
-        <f>IF($C35=0,B35, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36247,29 +36416,29 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2.7772999999999999E-3</v>
-      </c>
-      <c r="F36" s="111">
+        <v>3.9509700000000002E-2</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>66.000786767748892</v>
+        <f t="shared" si="2"/>
+        <v>64.368756675252882</v>
       </c>
       <c r="I36" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J36" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L36">
-        <f>IF($C36=0,A36, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="M36">
-        <f>IF($C36=0,B36, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -36284,29 +36453,29 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>3.03228E-3</v>
-      </c>
-      <c r="F37" s="111">
+        <v>4.1063200000000001E-2</v>
+      </c>
+      <c r="F37">
         <v>36</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>65.178496227607823</v>
+        <f t="shared" si="2"/>
+        <v>63.555915059370491</v>
       </c>
       <c r="I37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J37" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L37">
-        <f>IF($C37=0,A37, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="M37">
-        <f>IF($C37=0,B37, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
@@ -36321,29 +36490,29 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.99994499999999997</v>
-      </c>
-      <c r="F38" s="111">
+        <v>0.99711099999999997</v>
+      </c>
+      <c r="F38">
         <v>37</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>64.356205687466741</v>
+        <f t="shared" si="2"/>
+        <v>62.7430734434881</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="L38" t="e">
-        <f>IF($C38=0,A38, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M38" t="e">
-        <f>IF($C38=0,B38, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36358,29 +36527,29 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1.7268399999999999E-4</v>
-      </c>
-      <c r="F39" s="111">
+        <v>8.1739299999999994E-3</v>
+      </c>
+      <c r="F39">
         <v>38</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>63.533915147325672</v>
+        <f t="shared" si="2"/>
+        <v>61.930231827605709</v>
       </c>
       <c r="I39" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L39">
-        <f>IF($C39=0,A39, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="M39">
-        <f>IF($C39=0,B39, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -36395,29 +36564,29 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.989985</v>
-      </c>
-      <c r="F40" s="111">
+        <v>0.94373700000000005</v>
+      </c>
+      <c r="F40">
         <v>39</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>62.711624607184604</v>
+        <f t="shared" si="2"/>
+        <v>61.117390211723318</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="L40" t="e">
-        <f>IF($C40=0,A40, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M40" t="e">
-        <f>IF($C40=0,B40, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36432,29 +36601,29 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.99912100000000004</v>
-      </c>
-      <c r="F41" s="111">
+        <v>0.98637900000000001</v>
+      </c>
+      <c r="F41">
         <v>40</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>61.889334067043535</v>
+        <f t="shared" si="2"/>
+        <v>60.304548595840927</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="L41" t="e">
-        <f>IF($C41=0,A41, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M41" t="e">
-        <f>IF($C41=0,B41, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36469,29 +36638,29 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>2.71025E-3</v>
-      </c>
-      <c r="F42" s="111">
+        <v>3.9200499999999999E-2</v>
+      </c>
+      <c r="F42">
         <v>41</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>61.067043526902459</v>
+        <f t="shared" si="2"/>
+        <v>59.491706979958536</v>
       </c>
       <c r="I42" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J42" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L42">
-        <f>IF($C42=0,A42, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="M42">
-        <f>IF($C42=0,B42, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
@@ -36506,29 +36675,29 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="111">
+        <v>0.99994400000000006</v>
+      </c>
+      <c r="F43">
         <v>42</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
-        <v>60.244752986761384</v>
+        <f t="shared" si="2"/>
+        <v>58.678865364076152</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="L43" t="e">
-        <f>IF($C43=0,A43, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M43" t="e">
-        <f>IF($C43=0,B43, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36543,29 +36712,29 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.999996</v>
-      </c>
-      <c r="F44" s="111">
+        <v>0.99937699999999996</v>
+      </c>
+      <c r="F44">
         <v>43</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
-        <v>59.422462446620315</v>
+        <f t="shared" si="2"/>
+        <v>57.866023748193761</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="L44" t="e">
-        <f>IF($C44=0,A44, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M44" t="e">
-        <f>IF($C44=0,B44, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36580,29 +36749,29 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.811666</v>
-      </c>
-      <c r="F45" s="111">
+        <v>0.74103600000000003</v>
+      </c>
+      <c r="F45">
         <v>44</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
-        <v>58.60017190647924</v>
+        <f t="shared" si="2"/>
+        <v>57.05318213231137</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="L45" t="e">
-        <f>IF($C45=0,A45, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M45" t="e">
-        <f>IF($C45=0,B45, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36617,29 +36786,29 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.97253599999999996</v>
-      </c>
-      <c r="F46" s="111">
+        <v>0.90562900000000002</v>
+      </c>
+      <c r="F46">
         <v>45</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>57.777881366338171</v>
+        <f t="shared" si="2"/>
+        <v>56.240340516428979</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="L46" t="e">
-        <f>IF($C46=0,A46, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M46" t="e">
-        <f>IF($C46=0,B46, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36654,29 +36823,29 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.43199500000000002</v>
-      </c>
-      <c r="F47" s="111">
+        <v>0.510212</v>
+      </c>
+      <c r="F47">
         <v>46</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>56.955590826197096</v>
+        <f t="shared" si="2"/>
+        <v>55.427498900546588</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="L47" t="e">
-        <f>IF($C47=0,A47, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M47" t="e">
-        <f>IF($C47=0,B47, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36691,29 +36860,29 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>4.76795E-3</v>
-      </c>
-      <c r="F48" s="111">
+        <v>5.3131600000000001E-2</v>
+      </c>
+      <c r="F48">
         <v>47</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
-        <v>56.133300286056027</v>
+        <f t="shared" si="2"/>
+        <v>54.614657284664197</v>
       </c>
       <c r="I48" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L48">
-        <f>IF($C48=0,A48, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="M48">
-        <f>IF($C48=0,B48, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -36728,29 +36897,29 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.28723100000000001</v>
-      </c>
-      <c r="F49" s="111">
+        <v>0.417516</v>
+      </c>
+      <c r="F49">
         <v>48</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
-        <v>55.311009745914951</v>
+        <f t="shared" si="2"/>
+        <v>53.801815668781813</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="J49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="L49" t="e">
-        <f>IF($C49=0,A49, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M49" t="e">
-        <f>IF($C49=0,B49, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36765,29 +36934,29 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.997444</v>
-      </c>
-      <c r="F50" s="111">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F50">
         <v>49</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
-        <v>54.488719205773876</v>
+        <f t="shared" si="2"/>
+        <v>52.988974052899422</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="J50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="L50" t="e">
-        <f>IF($C50=0,A50, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M50" t="e">
-        <f>IF($C50=0,B50, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36802,29 +36971,29 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.97527699999999995</v>
-      </c>
-      <c r="F51" s="111">
+        <v>0.90776299999999999</v>
+      </c>
+      <c r="F51">
         <v>50</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>53.666428665632807</v>
+        <f t="shared" si="2"/>
+        <v>52.176132437017031</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="L51" t="e">
-        <f>IF($C51=0,A51, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M51" t="e">
-        <f>IF($C51=0,B51, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36839,29 +37008,29 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0.99733000000000005</v>
-      </c>
-      <c r="F52" s="111">
+        <v>0.97278299999999995</v>
+      </c>
+      <c r="F52">
         <v>51</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
-        <v>52.844138125491732</v>
+        <f t="shared" si="2"/>
+        <v>51.36329082113464</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="J52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="L52" t="e">
-        <f>IF($C52=0,A52, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M52" t="e">
-        <f>IF($C52=0,B52, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36876,29 +37045,29 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.99997100000000005</v>
-      </c>
-      <c r="F53" s="111">
+        <v>0.99804099999999996</v>
+      </c>
+      <c r="F53">
         <v>52</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>52.021847585350663</v>
+        <f t="shared" si="2"/>
+        <v>50.550449205252249</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="L53" t="e">
-        <f>IF($C53=0,A53, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f>IF($C53=0,B53, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36913,29 +37082,29 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.62661900000000004</v>
-      </c>
-      <c r="F54" s="111">
+        <v>0.62480899999999995</v>
+      </c>
+      <c r="F54">
         <v>53</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
-        <v>51.199557045209588</v>
+        <f t="shared" si="2"/>
+        <v>49.737607589369858</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L54">
-        <f>IF($C54=0,A54, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="M54">
-        <f>IF($C54=0,B54, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -36950,29 +37119,29 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>7.0444999999999994E-2</v>
-      </c>
-      <c r="F55" s="111">
+        <v>0.21224000000000001</v>
+      </c>
+      <c r="F55">
         <v>54</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
-        <v>50.377266505068519</v>
+        <f t="shared" si="2"/>
+        <v>48.924765973487467</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="L55" t="e">
-        <f>IF($C55=0,A55, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f>IF($C55=0,B55, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -36987,29 +37156,29 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.22431999999999999</v>
-      </c>
-      <c r="F56" s="111">
+        <v>0.36298799999999998</v>
+      </c>
+      <c r="F56">
         <v>55</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
-        <v>49.554975964927443</v>
+        <f t="shared" si="2"/>
+        <v>48.111924357605083</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L56">
-        <f>IF($C56=0,A56, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="M56">
-        <f>IF($C56=0,B56, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
@@ -37024,29 +37193,29 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.98187599999999997</v>
-      </c>
-      <c r="F57" s="111">
+        <v>0.92417099999999996</v>
+      </c>
+      <c r="F57">
         <v>56</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
-        <v>48.732685424786368</v>
+        <f t="shared" si="2"/>
+        <v>47.299082741722692</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="L57" t="e">
-        <f>IF($C57=0,A57, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M57" t="e">
-        <f>IF($C57=0,B57, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37061,29 +37230,29 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.99971399999999999</v>
-      </c>
-      <c r="F58" s="111">
+        <v>0.99280599999999997</v>
+      </c>
+      <c r="F58">
         <v>57</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
-        <v>47.910394884645299</v>
+        <f t="shared" si="2"/>
+        <v>46.486241125840301</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="L58" t="e">
-        <f>IF($C58=0,A58, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f>IF($C58=0,B58, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37098,29 +37267,29 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>9.6378099999999994E-2</v>
-      </c>
-      <c r="F59" s="111">
+        <v>0.25170999999999999</v>
+      </c>
+      <c r="F59">
         <v>58</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
-        <v>47.088104344504224</v>
+        <f t="shared" si="2"/>
+        <v>45.67339950995791</v>
       </c>
       <c r="I59" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L59">
-        <f>IF($C59=0,A59, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="M59">
-        <f>IF($C59=0,B59, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
     </row>
@@ -37135,29 +37304,29 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>3.6825499999999997E-2</v>
-      </c>
-      <c r="F60" s="111">
+        <v>0.154249</v>
+      </c>
+      <c r="F60">
         <v>59</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
-        <v>46.265813804363155</v>
+        <f t="shared" si="2"/>
+        <v>44.860557894075519</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="L60" t="e">
-        <f>IF($C60=0,A60, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f>IF($C60=0,B60, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37172,29 +37341,29 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.99992199999999998</v>
-      </c>
-      <c r="F61" s="111">
+        <v>0.996583</v>
+      </c>
+      <c r="F61">
         <v>60</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
-        <v>45.44352326422208</v>
+        <f t="shared" si="2"/>
+        <v>44.047716278193128</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="L61" t="e">
-        <f>IF($C61=0,A61, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f>IF($C61=0,B61, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37209,29 +37378,29 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2.77209E-2</v>
-      </c>
-      <c r="F62" s="111">
+        <v>0.135459</v>
+      </c>
+      <c r="F62">
         <v>61</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
-        <v>44.621232724081011</v>
+        <f t="shared" si="2"/>
+        <v>43.234874662310744</v>
       </c>
       <c r="I62" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L62">
-        <f>IF($C62=0,A62, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="M62">
-        <f>IF($C62=0,B62, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
@@ -37246,29 +37415,29 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.160216</v>
-      </c>
-      <c r="F63" s="111">
+        <v>0.31969599999999998</v>
+      </c>
+      <c r="F63">
         <v>62</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
-        <v>43.798942183939936</v>
+        <f t="shared" si="2"/>
+        <v>42.422033046428353</v>
       </c>
       <c r="I63" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L63">
-        <f>IF($C63=0,A63, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="M63">
-        <f>IF($C63=0,B63, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
     </row>
@@ -37283,29 +37452,29 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0.99868400000000002</v>
-      </c>
-      <c r="F64" s="111">
+        <v>0.98156100000000002</v>
+      </c>
+      <c r="F64">
         <v>63</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
-        <v>42.976651643798867</v>
+        <f t="shared" si="2"/>
+        <v>41.609191430545962</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="L64" t="e">
-        <f>IF($C64=0,A64, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f>IF($C64=0,B64, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37320,29 +37489,29 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.91793599999999997</v>
-      </c>
-      <c r="F65" s="111">
+        <v>0.82222399999999995</v>
+      </c>
+      <c r="F65">
         <v>64</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
-        <v>42.154361103657791</v>
+        <f t="shared" si="2"/>
+        <v>40.796349814663571</v>
       </c>
       <c r="I65" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L65">
-        <f>IF($C65=0,A65, #N/A)</f>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="M65">
-        <f>IF($C65=0,B65, #N/A)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -37357,29 +37526,29 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.72183399999999998</v>
-      </c>
-      <c r="F66" s="111">
+        <v>0.66547900000000004</v>
+      </c>
+      <c r="F66">
         <v>65</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
-        <v>41.332070563516716</v>
+        <f t="shared" si="2"/>
+        <v>39.98350819878118</v>
       </c>
       <c r="I66" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="L66">
-        <f>IF($C66=0,A66, #N/A)</f>
+        <f t="shared" ref="L66:L101" si="7">IF($C66=0,A66, #N/A)</f>
         <v>95</v>
       </c>
       <c r="M66">
-        <f>IF($C66=0,B66, #N/A)</f>
+        <f t="shared" ref="M66:M101" si="8">IF($C66=0,B66, #N/A)</f>
         <v>21</v>
       </c>
     </row>
@@ -37394,29 +37563,29 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2.6567E-2</v>
-      </c>
-      <c r="F67" s="111">
+        <v>0.130053</v>
+      </c>
+      <c r="F67">
         <v>66</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G101" si="3">-$E$2/$E$4-$E$3/$E$4*F67</f>
-        <v>40.509780023375647</v>
+        <f t="shared" ref="G67:G101" si="9">-$E$2/$E$4-$E$3/$E$4*F67</f>
+        <v>39.170666582898789</v>
       </c>
       <c r="I67" t="e">
-        <f t="shared" ref="I67:I101" si="4">IF(C67=1,A67, #N/A)</f>
+        <f t="shared" ref="I67:I101" si="10">IF(C67=1,A67, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f t="shared" ref="J67:J101" si="5">IF($C67=1,B67, #N/A)</f>
+        <f t="shared" ref="J67:J101" si="11">IF($C67=1,B67, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L67">
-        <f>IF($C67=0,A67, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="M67">
-        <f>IF($C67=0,B67, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>
@@ -37431,29 +37600,29 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.98830300000000004</v>
-      </c>
-      <c r="F68" s="111">
+        <v>0.94148699999999996</v>
+      </c>
+      <c r="F68">
         <v>67</v>
       </c>
       <c r="G68">
-        <f t="shared" si="3"/>
-        <v>39.687489483234572</v>
+        <f t="shared" si="9"/>
+        <v>38.357824967016398</v>
       </c>
       <c r="I68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="L68" t="e">
-        <f>IF($C68=0,A68, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f>IF($C68=0,B68, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37468,29 +37637,29 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.83920300000000003</v>
-      </c>
-      <c r="F69" s="111">
+        <v>0.74906700000000004</v>
+      </c>
+      <c r="F69">
         <v>68</v>
       </c>
       <c r="G69">
-        <f t="shared" si="3"/>
-        <v>38.865198943093503</v>
+        <f t="shared" si="9"/>
+        <v>37.544983351134015</v>
       </c>
       <c r="I69" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L69">
-        <f>IF($C69=0,A69, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="M69">
-        <f>IF($C69=0,B69, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -37505,29 +37674,29 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>4.1034500000000002E-2</v>
-      </c>
-      <c r="F70" s="111">
+        <v>0.160664</v>
+      </c>
+      <c r="F70">
         <v>69</v>
       </c>
       <c r="G70">
-        <f t="shared" si="3"/>
-        <v>38.042908402952428</v>
+        <f t="shared" si="9"/>
+        <v>36.732141735251624</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L70">
-        <f>IF($C70=0,A70, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="M70">
-        <f>IF($C70=0,B70, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
@@ -37542,29 +37711,29 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="111">
+        <v>0.99982700000000002</v>
+      </c>
+      <c r="F71">
         <v>70</v>
       </c>
       <c r="G71">
-        <f t="shared" si="3"/>
-        <v>37.220617862811359</v>
+        <f t="shared" si="9"/>
+        <v>35.919300119369233</v>
       </c>
       <c r="I71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="L71" t="e">
-        <f>IF($C71=0,A71, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f>IF($C71=0,B71, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37579,29 +37748,29 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.99995100000000003</v>
-      </c>
-      <c r="F72" s="111">
+        <v>0.99737100000000001</v>
+      </c>
+      <c r="F72">
         <v>71</v>
       </c>
       <c r="G72">
-        <f t="shared" si="3"/>
-        <v>36.398327322670283</v>
+        <f t="shared" si="9"/>
+        <v>35.106458503486841</v>
       </c>
       <c r="I72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="L72" t="e">
-        <f>IF($C72=0,A72, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f>IF($C72=0,B72, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37616,29 +37785,29 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.42599199999999998</v>
-      </c>
-      <c r="F73" s="111">
+        <v>0.50816799999999995</v>
+      </c>
+      <c r="F73">
         <v>72</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
-        <v>35.576036782529215</v>
+        <f t="shared" si="9"/>
+        <v>34.29361688760445</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L73">
-        <f>IF($C73=0,A73, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="M73">
-        <f>IF($C73=0,B73, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
     </row>
@@ -37653,29 +37822,29 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="F74" s="111">
+        <v>0.99966200000000005</v>
+      </c>
+      <c r="F74">
         <v>73</v>
       </c>
       <c r="G74">
-        <f t="shared" si="3"/>
-        <v>34.753746242388139</v>
+        <f t="shared" si="9"/>
+        <v>33.480775271722059</v>
       </c>
       <c r="I74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="L74" t="e">
-        <f>IF($C74=0,A74, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f>IF($C74=0,B74, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37690,29 +37859,29 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2.1841699999999999E-2</v>
-      </c>
-      <c r="F75" s="111">
+        <v>0.12035899999999999</v>
+      </c>
+      <c r="F75">
         <v>74</v>
       </c>
       <c r="G75">
-        <f t="shared" si="3"/>
-        <v>33.931455702247064</v>
+        <f t="shared" si="9"/>
+        <v>32.667933655839676</v>
       </c>
       <c r="I75" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L75">
-        <f>IF($C75=0,A75, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="M75">
-        <f>IF($C75=0,B75, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -37727,29 +37896,29 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0.95346799999999998</v>
-      </c>
-      <c r="F76" s="111">
+        <v>0.87300100000000003</v>
+      </c>
+      <c r="F76">
         <v>75</v>
       </c>
       <c r="G76">
-        <f t="shared" si="3"/>
-        <v>33.109165162105995</v>
+        <f t="shared" si="9"/>
+        <v>31.855092039957285</v>
       </c>
       <c r="I76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="L76" t="e">
-        <f>IF($C76=0,A76, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f>IF($C76=0,B76, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37764,29 +37933,29 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.78903800000000002</v>
-      </c>
-      <c r="F77" s="111">
+        <v>0.72545599999999999</v>
+      </c>
+      <c r="F77">
         <v>76</v>
       </c>
       <c r="G77">
-        <f t="shared" si="3"/>
-        <v>32.28687462196492</v>
+        <f t="shared" si="9"/>
+        <v>31.042250424074894</v>
       </c>
       <c r="I77" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L77">
-        <f>IF($C77=0,A77, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="M77">
-        <f>IF($C77=0,B77, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
     </row>
@@ -37801,29 +37970,29 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0.95434200000000002</v>
-      </c>
-      <c r="F78" s="111">
+        <v>0.87133300000000002</v>
+      </c>
+      <c r="F78">
         <v>77</v>
       </c>
       <c r="G78">
-        <f t="shared" si="3"/>
-        <v>31.464584081823851</v>
+        <f t="shared" si="9"/>
+        <v>30.229408808192503</v>
       </c>
       <c r="I78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="L78" t="e">
-        <f>IF($C78=0,A78, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f>IF($C78=0,B78, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37838,29 +38007,29 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.99986299999999995</v>
-      </c>
-      <c r="F79" s="111">
+        <v>0.99504899999999996</v>
+      </c>
+      <c r="F79">
         <v>78</v>
       </c>
       <c r="G79">
-        <f t="shared" si="3"/>
-        <v>30.642293541682776</v>
+        <f t="shared" si="9"/>
+        <v>29.416567192310112</v>
       </c>
       <c r="I79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="L79" t="e">
-        <f>IF($C79=0,A79, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f>IF($C79=0,B79, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37875,29 +38044,29 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.99992999999999999</v>
-      </c>
-      <c r="F80" s="111">
+        <v>0.996668</v>
+      </c>
+      <c r="F80">
         <v>79</v>
       </c>
       <c r="G80">
-        <f t="shared" si="3"/>
-        <v>29.820003001541707</v>
+        <f t="shared" si="9"/>
+        <v>28.603725576427721</v>
       </c>
       <c r="I80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="L80" t="e">
-        <f>IF($C80=0,A80, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M80" t="e">
-        <f>IF($C80=0,B80, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37911,30 +38080,30 @@
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81" s="108">
-        <v>1.8694599999999999E-5</v>
-      </c>
-      <c r="F81" s="111">
+      <c r="D81" s="80">
+        <v>2.2826600000000002E-3</v>
+      </c>
+      <c r="F81">
         <v>80</v>
       </c>
       <c r="G81">
-        <f t="shared" si="3"/>
-        <v>28.997712461400639</v>
+        <f t="shared" si="9"/>
+        <v>27.79088396054533</v>
       </c>
       <c r="I81" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L81">
-        <f>IF($C81=0,A81, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="M81">
-        <f>IF($C81=0,B81, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -37949,29 +38118,29 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0.99961299999999997</v>
-      </c>
-      <c r="F82" s="111">
+        <v>0.99124299999999999</v>
+      </c>
+      <c r="F82">
         <v>81</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
-        <v>28.175421921259556</v>
+        <f t="shared" si="9"/>
+        <v>26.978042344662938</v>
       </c>
       <c r="I82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="L82" t="e">
-        <f>IF($C82=0,A82, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f>IF($C82=0,B82, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -37986,29 +38155,29 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0.95579099999999995</v>
-      </c>
-      <c r="F83" s="111">
+        <v>0.87731400000000004</v>
+      </c>
+      <c r="F83">
         <v>82</v>
       </c>
       <c r="G83">
-        <f t="shared" si="3"/>
-        <v>27.353131381118487</v>
+        <f t="shared" si="9"/>
+        <v>26.165200728780547</v>
       </c>
       <c r="I83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="L83" t="e">
-        <f>IF($C83=0,A83, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f>IF($C83=0,B83, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38023,29 +38192,29 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="F84" s="111">
+        <v>0.99990599999999996</v>
+      </c>
+      <c r="F84">
         <v>83</v>
       </c>
       <c r="G84">
-        <f t="shared" si="3"/>
-        <v>26.530840840977419</v>
+        <f t="shared" si="9"/>
+        <v>25.352359112898156</v>
       </c>
       <c r="I84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="L84" t="e">
-        <f>IF($C84=0,A84, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f>IF($C84=0,B84, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38060,29 +38229,29 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5.0615500000000001E-2</v>
-      </c>
-      <c r="F85" s="111">
+        <v>0.17858499999999999</v>
+      </c>
+      <c r="F85">
         <v>84</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
-        <v>25.708550300836336</v>
+        <f t="shared" si="9"/>
+        <v>24.53951749701578</v>
       </c>
       <c r="I85" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L85">
-        <f>IF($C85=0,A85, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="M85">
-        <f>IF($C85=0,B85, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -38097,29 +38266,29 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.99749200000000005</v>
-      </c>
-      <c r="F86" s="111">
+        <v>0.97496400000000005</v>
+      </c>
+      <c r="F86">
         <v>85</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
-        <v>24.886259760695268</v>
+        <f t="shared" si="9"/>
+        <v>23.726675881133389</v>
       </c>
       <c r="I86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="L86" t="e">
-        <f>IF($C86=0,A86, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M86" t="e">
-        <f>IF($C86=0,B86, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38134,29 +38303,29 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.99999400000000005</v>
-      </c>
-      <c r="F87" s="111">
+        <v>0.99915699999999996</v>
+      </c>
+      <c r="F87">
         <v>86</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
-        <v>24.063969220554199</v>
+        <f t="shared" si="9"/>
+        <v>22.913834265250998</v>
       </c>
       <c r="I87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="L87" t="e">
-        <f>IF($C87=0,A87, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f>IF($C87=0,B87, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38171,29 +38340,29 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.86205200000000004</v>
-      </c>
-      <c r="F88" s="111">
+        <v>0.77745399999999998</v>
+      </c>
+      <c r="F88">
         <v>87</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
-        <v>23.241678680413131</v>
+        <f t="shared" si="9"/>
+        <v>22.100992649368607</v>
       </c>
       <c r="I88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="L88" t="e">
-        <f>IF($C88=0,A88, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M88" t="e">
-        <f>IF($C88=0,B88, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38208,29 +38377,29 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.99998699999999996</v>
-      </c>
-      <c r="F89" s="111">
+        <v>0.998695</v>
+      </c>
+      <c r="F89">
         <v>88</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
-        <v>22.419388140272048</v>
+        <f t="shared" si="9"/>
+        <v>21.288151033486216</v>
       </c>
       <c r="I89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="L89" t="e">
-        <f>IF($C89=0,A89, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M89" t="e">
-        <f>IF($C89=0,B89, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38245,29 +38414,29 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.82342300000000002</v>
-      </c>
-      <c r="F90" s="111">
+        <v>0.73986799999999997</v>
+      </c>
+      <c r="F90">
         <v>89</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
-        <v>21.597097600130979</v>
+        <f t="shared" si="9"/>
+        <v>20.475309417603825</v>
       </c>
       <c r="I90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="L90" t="e">
-        <f>IF($C90=0,A90, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M90" t="e">
-        <f>IF($C90=0,B90, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38282,29 +38451,29 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.99991600000000003</v>
-      </c>
-      <c r="F91" s="111">
+        <v>0.99621999999999999</v>
+      </c>
+      <c r="F91">
         <v>90</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
-        <v>20.774807059989911</v>
+        <f t="shared" si="9"/>
+        <v>19.662467801721434</v>
       </c>
       <c r="I91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="L91" t="e">
-        <f>IF($C91=0,A91, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M91" t="e">
-        <f>IF($C91=0,B91, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38319,29 +38488,29 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.89294899999999999</v>
-      </c>
-      <c r="F92" s="111">
+        <v>0.79893099999999995</v>
+      </c>
+      <c r="F92">
         <v>91</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
-        <v>19.952516519848828</v>
+        <f t="shared" si="9"/>
+        <v>18.849626185839043</v>
       </c>
       <c r="I92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="L92" t="e">
-        <f>IF($C92=0,A92, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M92" t="e">
-        <f>IF($C92=0,B92, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38356,29 +38525,29 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.98424400000000001</v>
-      </c>
-      <c r="F93" s="111">
+        <v>0.92596800000000001</v>
+      </c>
+      <c r="F93">
         <v>92</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
-        <v>19.13022597970776</v>
+        <f t="shared" si="9"/>
+        <v>18.036784569956652</v>
       </c>
       <c r="I93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="L93" t="e">
-        <f>IF($C93=0,A93, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M93" t="e">
-        <f>IF($C93=0,B93, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38393,29 +38562,29 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.36989300000000003</v>
-      </c>
-      <c r="F94" s="111">
+        <v>0.47244900000000001</v>
+      </c>
+      <c r="F94">
         <v>93</v>
       </c>
       <c r="G94">
-        <f t="shared" si="3"/>
-        <v>18.307935439566691</v>
+        <f t="shared" si="9"/>
+        <v>17.223942954074261</v>
       </c>
       <c r="I94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="L94" t="e">
-        <f>IF($C94=0,A94, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M94" t="e">
-        <f>IF($C94=0,B94, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38430,29 +38599,29 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.68181700000000001</v>
-      </c>
-      <c r="F95" s="111">
+        <v>0.65600099999999995</v>
+      </c>
+      <c r="F95">
         <v>94</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
-        <v>17.485644899425623</v>
+        <f t="shared" si="9"/>
+        <v>16.41110133819187</v>
       </c>
       <c r="I95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="L95" t="e">
-        <f>IF($C95=0,A95, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M95" t="e">
-        <f>IF($C95=0,B95, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38467,29 +38636,29 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>6.7019499999999999E-3</v>
-      </c>
-      <c r="F96" s="111">
+        <v>6.2259200000000001E-2</v>
+      </c>
+      <c r="F96">
         <v>95</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
-        <v>16.66335435928454</v>
+        <f t="shared" si="9"/>
+        <v>15.598259722309479</v>
       </c>
       <c r="I96" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="L96">
-        <f>IF($C96=0,A96, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="M96">
-        <f>IF($C96=0,B96, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -38504,29 +38673,29 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0.99987999999999999</v>
-      </c>
-      <c r="F97" s="111">
+        <v>0.99559699999999995</v>
+      </c>
+      <c r="F97">
         <v>96</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
-        <v>15.841063819143471</v>
+        <f t="shared" si="9"/>
+        <v>14.785418106427102</v>
       </c>
       <c r="I97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="L97" t="e">
-        <f>IF($C97=0,A97, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M97" t="e">
-        <f>IF($C97=0,B97, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38541,29 +38710,29 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.98546800000000001</v>
-      </c>
-      <c r="F98" s="111">
+        <v>0.93406500000000003</v>
+      </c>
+      <c r="F98">
         <v>97</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
-        <v>15.018773279002403</v>
+        <f t="shared" si="9"/>
+        <v>13.972576490544711</v>
       </c>
       <c r="I98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="L98" t="e">
-        <f>IF($C98=0,A98, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M98" t="e">
-        <f>IF($C98=0,B98, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38578,29 +38747,29 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.99984799999999996</v>
-      </c>
-      <c r="F99" s="111">
+        <v>0.994923</v>
+      </c>
+      <c r="F99">
         <v>98</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
-        <v>14.19648273886132</v>
+        <f t="shared" si="9"/>
+        <v>13.15973487466232</v>
       </c>
       <c r="I99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="L99" t="e">
-        <f>IF($C99=0,A99, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M99" t="e">
-        <f>IF($C99=0,B99, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38615,29 +38784,29 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="F100" s="111">
+        <v>0.99991699999999994</v>
+      </c>
+      <c r="F100">
         <v>99</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
-        <v>13.374192198720252</v>
+        <f t="shared" si="9"/>
+        <v>12.346893258779929</v>
       </c>
       <c r="I100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="L100" t="e">
-        <f>IF($C100=0,A100, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M100" t="e">
-        <f>IF($C100=0,B100, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -38652,29 +38821,29 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0.99999099999999996</v>
-      </c>
-      <c r="F101" s="111">
+        <v>0.99901200000000001</v>
+      </c>
+      <c r="F101">
         <v>100</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
-        <v>12.551901658579183</v>
+        <f t="shared" si="9"/>
+        <v>11.534051642897538</v>
       </c>
       <c r="I101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="L101" t="e">
-        <f>IF($C101=0,A101, #N/A)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="M101" t="e">
-        <f>IF($C101=0,B101, #N/A)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/Coursework Reports/4th assignment/xlsx4.xlsx
+++ b/Coursework Reports/4th assignment/xlsx4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF6EC82-480B-4953-8568-DD14171B19BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F13778-6A2D-4FF7-A39D-41F43DB32CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>Lp.</t>
   </si>
@@ -298,22 +298,7 @@
     <t>x2</t>
   </si>
   <si>
-    <t xml:space="preserve">epsilon </t>
-  </si>
-  <si>
-    <t>epsilon</t>
-  </si>
-  <si>
-    <t>1e-6</t>
-  </si>
-  <si>
     <t>h = 0.0001</t>
-  </si>
-  <si>
-    <t>1e-3/1e-4</t>
-  </si>
-  <si>
-    <t>brak zbieżności</t>
   </si>
 </sst>
 </file>
@@ -888,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1117,8 +1102,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -8937,304 +8937,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>92.005371615254134</c:v>
+                  <c:v>92.006094161071189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.192529999371743</c:v>
+                  <c:v>91.193246161699463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.379688383489352</c:v>
+                  <c:v>90.380398162327722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.566846767606961</c:v>
+                  <c:v>89.567550162955982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.75400515172457</c:v>
+                  <c:v>88.754702163584255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.941163535842179</c:v>
+                  <c:v>87.941854164212515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.128321919959802</c:v>
+                  <c:v>87.129006164840774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.315480304077411</c:v>
+                  <c:v>86.316158165469048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.50263868819502</c:v>
+                  <c:v>85.503310166097307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84.689797072312629</c:v>
+                  <c:v>84.690462166725567</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.876955456430238</c:v>
+                  <c:v>83.87761416735384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.064113840547847</c:v>
+                  <c:v>83.0647661679821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82.251272224665456</c:v>
+                  <c:v>82.251918168610359</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>81.438430608783065</c:v>
+                  <c:v>81.439070169238633</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80.625588992900674</c:v>
+                  <c:v>80.626222169866892</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.812747377018283</c:v>
+                  <c:v>79.813374170495152</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.999905761135892</c:v>
+                  <c:v>79.000526171123425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78.187064145253501</c:v>
+                  <c:v>78.187678171751685</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.37422252937111</c:v>
+                  <c:v>77.374830172379944</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.561380913488733</c:v>
+                  <c:v>76.561982173008204</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.748539297606342</c:v>
+                  <c:v>75.749134173636477</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.935697681723951</c:v>
+                  <c:v>74.936286174264737</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74.12285606584156</c:v>
+                  <c:v>74.12343817489301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>73.310014449959169</c:v>
+                  <c:v>73.31059017552127</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.497172834076778</c:v>
+                  <c:v>72.497742176149529</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>71.684331218194387</c:v>
+                  <c:v>71.684894176777789</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.871489602311996</c:v>
+                  <c:v>70.872046177406062</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.058647986429605</c:v>
+                  <c:v>70.059198178034322</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>69.245806370547214</c:v>
+                  <c:v>69.246350178662595</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.432964754664823</c:v>
+                  <c:v>68.433502179290855</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67.620123138782446</c:v>
+                  <c:v>67.620654179919114</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>66.807281522900041</c:v>
+                  <c:v>66.807806180547374</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65.994439907017664</c:v>
+                  <c:v>65.994958181175647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>65.181598291135273</c:v>
+                  <c:v>65.182110181803907</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.368756675252882</c:v>
+                  <c:v>64.36926218243218</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63.555915059370491</c:v>
+                  <c:v>63.55641418306044</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.7430734434881</c:v>
+                  <c:v>62.743566183688699</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>61.930231827605709</c:v>
+                  <c:v>61.930718184316966</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61.117390211723318</c:v>
+                  <c:v>61.117870184945232</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60.304548595840927</c:v>
+                  <c:v>60.305022185573492</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59.491706979958536</c:v>
+                  <c:v>59.492174186201758</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58.678865364076152</c:v>
+                  <c:v>58.679326186830025</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>57.866023748193761</c:v>
+                  <c:v>57.866478187458284</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57.05318213231137</c:v>
+                  <c:v>57.053630188086551</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>56.240340516428979</c:v>
+                  <c:v>56.240782188714817</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>55.427498900546588</c:v>
+                  <c:v>55.427934189343077</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.614657284664197</c:v>
+                  <c:v>54.615086189971343</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>53.801815668781813</c:v>
+                  <c:v>53.80223819059961</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>52.988974052899422</c:v>
+                  <c:v>52.989390191227869</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>52.176132437017031</c:v>
+                  <c:v>52.176542191856136</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51.36329082113464</c:v>
+                  <c:v>51.363694192484395</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50.550449205252249</c:v>
+                  <c:v>50.550846193112662</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.737607589369858</c:v>
+                  <c:v>49.737998193740928</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48.924765973487467</c:v>
+                  <c:v>48.925150194369188</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.111924357605083</c:v>
+                  <c:v>48.112302194997454</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>47.299082741722692</c:v>
+                  <c:v>47.299454195625721</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46.486241125840301</c:v>
+                  <c:v>46.48660619625398</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45.67339950995791</c:v>
+                  <c:v>45.673758196882247</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44.860557894075519</c:v>
+                  <c:v>44.860910197510513</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44.047716278193128</c:v>
+                  <c:v>44.048062198138773</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43.234874662310744</c:v>
+                  <c:v>43.235214198767039</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42.422033046428353</c:v>
+                  <c:v>42.422366199395306</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>41.609191430545962</c:v>
+                  <c:v>41.609518200023565</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>40.796349814663571</c:v>
+                  <c:v>40.796670200651832</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>39.98350819878118</c:v>
+                  <c:v>39.983822201280098</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39.170666582898789</c:v>
+                  <c:v>39.170974201908358</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>38.357824967016398</c:v>
+                  <c:v>38.358126202536624</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>37.544983351134015</c:v>
+                  <c:v>37.545278203164891</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>36.732141735251624</c:v>
+                  <c:v>36.73243020379315</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>35.919300119369233</c:v>
+                  <c:v>35.919582204421417</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35.106458503486841</c:v>
+                  <c:v>35.106734205049683</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>34.29361688760445</c:v>
+                  <c:v>34.293886205677943</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>33.480775271722059</c:v>
+                  <c:v>33.481038206306209</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>32.667933655839676</c:v>
+                  <c:v>32.668190206934476</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>31.855092039957285</c:v>
+                  <c:v>31.855342207562735</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>31.042250424074894</c:v>
+                  <c:v>31.042494208191002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>30.229408808192503</c:v>
+                  <c:v>30.229646208819268</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>29.416567192310112</c:v>
+                  <c:v>29.416798209447528</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>28.603725576427721</c:v>
+                  <c:v>28.603950210075794</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>27.79088396054533</c:v>
+                  <c:v>27.791102210704054</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>26.978042344662938</c:v>
+                  <c:v>26.978254211332327</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26.165200728780547</c:v>
+                  <c:v>26.165406211960587</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>25.352359112898156</c:v>
+                  <c:v>25.352558212588846</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>24.53951749701578</c:v>
+                  <c:v>24.53971021321712</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>23.726675881133389</c:v>
+                  <c:v>23.726862213845379</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>22.913834265250998</c:v>
+                  <c:v>22.914014214473639</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>22.100992649368607</c:v>
+                  <c:v>22.101166215101912</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>21.288151033486216</c:v>
+                  <c:v>21.288318215730172</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>20.475309417603825</c:v>
+                  <c:v>20.475470216358431</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>19.662467801721434</c:v>
+                  <c:v>19.662622216986705</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.849626185839043</c:v>
+                  <c:v>18.849774217614964</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18.036784569956652</c:v>
+                  <c:v>18.036926218243224</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.223942954074261</c:v>
+                  <c:v>17.224078218871497</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>16.41110133819187</c:v>
+                  <c:v>16.411230219499757</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>15.598259722309479</c:v>
+                  <c:v>15.598382220128016</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.785418106427102</c:v>
+                  <c:v>14.78553422075629</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13.972576490544711</c:v>
+                  <c:v>13.972686221384549</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>13.15973487466232</c:v>
+                  <c:v>13.159838222012809</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12.346893258779929</c:v>
+                  <c:v>12.346990222641068</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>11.534051642897538</c:v>
+                  <c:v>11.534142223269342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14036,8 +14036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T302"/>
   <sheetViews>
-    <sheetView topLeftCell="C217" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:T302"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32172,8 +32172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34839,7 +34839,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34862,9 +34862,6 @@
       <c r="E1" s="92"/>
       <c r="F1" s="90"/>
       <c r="G1" s="91"/>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="95"/>
@@ -34886,34 +34883,29 @@
       <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="81" t="s">
-        <v>31</v>
-      </c>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>0.01</v>
       </c>
       <c r="B3" s="20">
-        <v>213702</v>
+        <v>-20.656300000000002</v>
       </c>
       <c r="C3" s="18">
-        <v>-980313</v>
+        <v>7.91602E-2</v>
       </c>
       <c r="D3" s="68">
-        <v>1852220</v>
+        <v>0.120791</v>
       </c>
       <c r="E3" s="68">
-        <v>-1.1102199999999999E-15</v>
+        <v>4.7643800000000001</v>
       </c>
       <c r="F3" s="18">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G3" s="19">
-        <v>1000001</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
+        <v>100001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -34930,13 +34922,13 @@
         <v>0.12735399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>6.2585600000000005E-2</v>
+        <v>0.27119799999999999</v>
       </c>
       <c r="F4" s="1">
         <v>84</v>
       </c>
       <c r="G4" s="2">
-        <v>43752</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34950,127 +34942,67 @@
         <v>0.103504</v>
       </c>
       <c r="D5" s="3">
-        <v>0.127336</v>
+        <v>0.127335</v>
       </c>
       <c r="E5" s="3">
-        <v>6.2605900000000006E-2</v>
+        <v>0.27119799999999999</v>
       </c>
       <c r="F5" s="3">
         <v>84</v>
       </c>
       <c r="G5" s="4">
-        <v>62537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>23791</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
-      <c r="B11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="81" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="110"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="B12" s="20">
-        <v>-20.841100000000001</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.180811</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0.219887</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1.1992900000000001E-2</v>
-      </c>
-      <c r="F12" s="18">
-        <v>84</v>
-      </c>
-      <c r="G12" s="19">
-        <v>41148</v>
-      </c>
+      <c r="A12" s="115"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="B13" s="10">
-        <v>-3.54046E-4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7.1086200000000004E-3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.33004E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.23903199999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="B14" s="74">
-        <v>7.5268500000000006E-5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>8.1999499999999993E-3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9.5340400000000006E-3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.283416</v>
-      </c>
-      <c r="F14" s="3">
-        <v>70</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6</v>
-      </c>
+      <c r="A13" s="115"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -35088,8 +35020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35108,7 +35040,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -35138,7 +35070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>57</v>
       </c>
@@ -35149,9 +35081,9 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.93931399999999998</v>
-      </c>
-      <c r="E2" s="110">
+        <v>0.93931299999999995</v>
+      </c>
+      <c r="E2" s="74">
         <v>-11.819100000000001</v>
       </c>
       <c r="F2">
@@ -35159,7 +35091,7 @@
       </c>
       <c r="G2">
         <f>-$E$2/$E$4-$E$3/$E$4*F2</f>
-        <v>92.005371615254134</v>
+        <v>92.006094161071189</v>
       </c>
       <c r="I2">
         <f>IF(C2=1,A2, #N/A)</f>
@@ -35178,7 +35110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>86</v>
       </c>
@@ -35191,7 +35123,7 @@
       <c r="D3">
         <v>0.99971399999999999</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="3">
         <v>0.103504</v>
       </c>
       <c r="F3">
@@ -35199,7 +35131,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">-$E$2/$E$4-$E$3/$E$4*F3</f>
-        <v>91.192529999371743</v>
+        <v>91.193246161699463</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="3">IF(C3=1,A3, #N/A)</f>
@@ -35231,15 +35163,15 @@
       <c r="D4">
         <v>0.94977199999999995</v>
       </c>
-      <c r="E4" s="111">
-        <v>0.127336</v>
+      <c r="E4">
+        <v>0.127335</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>90.379688383489352</v>
+        <v>90.380398162327722</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
@@ -35269,14 +35201,14 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.21637000000000001</v>
+        <v>0.21637100000000001</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>89.566846767606961</v>
+        <v>89.567550162955982</v>
       </c>
       <c r="I5" t="e">
         <f t="shared" si="3"/>
@@ -35313,7 +35245,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>88.75400515172457</v>
+        <v>88.754702163584255</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
@@ -35350,7 +35282,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>87.941163535842179</v>
+        <v>87.941854164212515</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -35387,7 +35319,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>87.128321919959802</v>
+        <v>87.129006164840774</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -35424,7 +35356,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>86.315480304077411</v>
+        <v>86.316158165469048</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
@@ -35454,14 +35386,14 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.99287E-2</v>
+        <v>8.9929200000000001E-2</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>85.50263868819502</v>
+        <v>85.503310166097307</v>
       </c>
       <c r="I10" t="e">
         <f t="shared" si="3"/>
@@ -35498,7 +35430,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>84.689797072312629</v>
+        <v>84.690462166725567</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -35535,7 +35467,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>83.876955456430238</v>
+        <v>83.87761416735384</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
@@ -35565,14 +35497,14 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.19162100000000001</v>
+        <v>0.19162199999999999</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>83.064113840547847</v>
+        <v>83.0647661679821</v>
       </c>
       <c r="I13" t="e">
         <f t="shared" si="3"/>
@@ -35609,7 +35541,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>82.251272224665456</v>
+        <v>82.251918168610359</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
@@ -35639,14 +35571,14 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.14304700000000001</v>
+        <v>0.14304800000000001</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>81.438430608783065</v>
+        <v>81.439070169238633</v>
       </c>
       <c r="I15" t="e">
         <f t="shared" si="3"/>
@@ -35683,7 +35615,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>80.625588992900674</v>
+        <v>80.626222169866892</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
@@ -35713,14 +35645,14 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.32091E-2</v>
+        <v>2.3209299999999999E-2</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>79.812747377018283</v>
+        <v>79.813374170495152</v>
       </c>
       <c r="I17" t="e">
         <f t="shared" si="3"/>
@@ -35757,7 +35689,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>78.999905761135892</v>
+        <v>79.000526171123425</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -35794,7 +35726,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>78.187064145253501</v>
+        <v>78.187678171751685</v>
       </c>
       <c r="I19" t="e">
         <f t="shared" si="3"/>
@@ -35824,14 +35756,14 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.09222E-2</v>
+        <v>3.0922499999999999E-2</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>77.37422252937111</v>
+        <v>77.374830172379944</v>
       </c>
       <c r="I20" t="e">
         <f t="shared" si="3"/>
@@ -35868,7 +35800,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>76.561380913488733</v>
+        <v>76.561982173008204</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
@@ -35905,7 +35837,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>75.748539297606342</v>
+        <v>75.749134173636477</v>
       </c>
       <c r="I22" t="e">
         <f t="shared" si="3"/>
@@ -35942,7 +35874,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>74.935697681723951</v>
+        <v>74.936286174264737</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
@@ -35979,7 +35911,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>74.12285606584156</v>
+        <v>74.12343817489301</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
@@ -36016,7 +35948,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>73.310014449959169</v>
+        <v>73.31059017552127</v>
       </c>
       <c r="I25" t="e">
         <f t="shared" si="3"/>
@@ -36053,7 +35985,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>72.497172834076778</v>
+        <v>72.497742176149529</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
@@ -36090,7 +36022,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>71.684331218194387</v>
+        <v>71.684894176777789</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
@@ -36127,7 +36059,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>70.871489602311996</v>
+        <v>70.872046177406062</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
@@ -36164,7 +36096,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>70.058647986429605</v>
+        <v>70.059198178034322</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
@@ -36201,7 +36133,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>69.245806370547214</v>
+        <v>69.246350178662595</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
@@ -36238,7 +36170,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>68.432964754664823</v>
+        <v>68.433502179290855</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
@@ -36275,7 +36207,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>67.620123138782446</v>
+        <v>67.620654179919114</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
@@ -36305,14 +36237,14 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.34445799999999999</v>
+        <v>0.34445900000000002</v>
       </c>
       <c r="F33">
         <v>32</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>66.807281522900041</v>
+        <v>66.807806180547374</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
@@ -36342,14 +36274,14 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.28621999999999997</v>
+        <v>0.286221</v>
       </c>
       <c r="F34">
         <v>33</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>65.994439907017664</v>
+        <v>65.994958181175647</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
@@ -36379,14 +36311,14 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.99152899999999999</v>
+        <v>0.99152799999999996</v>
       </c>
       <c r="F35">
         <v>34</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>65.181598291135273</v>
+        <v>65.182110181803907</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
@@ -36416,14 +36348,14 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>3.9509700000000002E-2</v>
+        <v>3.9510000000000003E-2</v>
       </c>
       <c r="F36">
         <v>35</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>64.368756675252882</v>
+        <v>64.36926218243218</v>
       </c>
       <c r="I36" t="e">
         <f t="shared" si="3"/>
@@ -36453,14 +36385,14 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>4.1063200000000001E-2</v>
+        <v>4.1063500000000003E-2</v>
       </c>
       <c r="F37">
         <v>36</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>63.555915059370491</v>
+        <v>63.55641418306044</v>
       </c>
       <c r="I37" t="e">
         <f t="shared" si="3"/>
@@ -36497,7 +36429,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>62.7430734434881</v>
+        <v>62.743566183688699</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
@@ -36527,14 +36459,14 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>8.1739299999999994E-3</v>
+        <v>8.1740300000000005E-3</v>
       </c>
       <c r="F39">
         <v>38</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>61.930231827605709</v>
+        <v>61.930718184316966</v>
       </c>
       <c r="I39" t="e">
         <f t="shared" si="3"/>
@@ -36564,14 +36496,14 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.94373700000000005</v>
+        <v>0.94373600000000002</v>
       </c>
       <c r="F40">
         <v>39</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>61.117390211723318</v>
+        <v>61.117870184945232</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
@@ -36608,7 +36540,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>60.304548595840927</v>
+        <v>60.305022185573492</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
@@ -36638,14 +36570,14 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>3.9200499999999999E-2</v>
+        <v>3.9200800000000001E-2</v>
       </c>
       <c r="F42">
         <v>41</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>59.491706979958536</v>
+        <v>59.492174186201758</v>
       </c>
       <c r="I42" t="e">
         <f t="shared" si="3"/>
@@ -36682,7 +36614,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>58.678865364076152</v>
+        <v>58.679326186830025</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
@@ -36719,7 +36651,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>57.866023748193761</v>
+        <v>57.866478187458284</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
@@ -36756,7 +36688,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>57.05318213231137</v>
+        <v>57.053630188086551</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
@@ -36793,7 +36725,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>56.240340516428979</v>
+        <v>56.240782188714817</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
@@ -36830,7 +36762,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>55.427498900546588</v>
+        <v>55.427934189343077</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
@@ -36860,14 +36792,14 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>5.3131600000000001E-2</v>
+        <v>5.3131999999999999E-2</v>
       </c>
       <c r="F48">
         <v>47</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>54.614657284664197</v>
+        <v>54.615086189971343</v>
       </c>
       <c r="I48" t="e">
         <f t="shared" si="3"/>
@@ -36897,14 +36829,14 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.417516</v>
+        <v>0.41751700000000003</v>
       </c>
       <c r="F49">
         <v>48</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>53.801815668781813</v>
+        <v>53.80223819059961</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
@@ -36934,14 +36866,14 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.97399999999999998</v>
+        <v>0.97399899999999995</v>
       </c>
       <c r="F50">
         <v>49</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>52.988974052899422</v>
+        <v>52.989390191227869</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
@@ -36978,7 +36910,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>52.176132437017031</v>
+        <v>52.176542191856136</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
@@ -37015,7 +36947,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>51.36329082113464</v>
+        <v>51.363694192484395</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
@@ -37052,7 +36984,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>50.550449205252249</v>
+        <v>50.550846193112662</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
@@ -37089,7 +37021,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>49.737607589369858</v>
+        <v>49.737998193740928</v>
       </c>
       <c r="I54" t="e">
         <f t="shared" si="3"/>
@@ -37119,14 +37051,14 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.21224000000000001</v>
+        <v>0.21224100000000001</v>
       </c>
       <c r="F55">
         <v>54</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>48.924765973487467</v>
+        <v>48.925150194369188</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
@@ -37156,14 +37088,14 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.36298799999999998</v>
+        <v>0.36298900000000001</v>
       </c>
       <c r="F56">
         <v>55</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>48.111924357605083</v>
+        <v>48.112302194997454</v>
       </c>
       <c r="I56" t="e">
         <f t="shared" si="3"/>
@@ -37193,14 +37125,14 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.92417099999999996</v>
+        <v>0.92417000000000005</v>
       </c>
       <c r="F57">
         <v>56</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>47.299082741722692</v>
+        <v>47.299454195625721</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
@@ -37237,7 +37169,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>46.486241125840301</v>
+        <v>46.48660619625398</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
@@ -37267,14 +37199,14 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.25170999999999999</v>
+        <v>0.25171100000000002</v>
       </c>
       <c r="F59">
         <v>58</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>45.67339950995791</v>
+        <v>45.673758196882247</v>
       </c>
       <c r="I59" t="e">
         <f t="shared" si="3"/>
@@ -37311,7 +37243,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>44.860557894075519</v>
+        <v>44.860910197510513</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
@@ -37348,7 +37280,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>44.047716278193128</v>
+        <v>44.048062198138773</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
@@ -37378,14 +37310,14 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.135459</v>
+        <v>0.13546</v>
       </c>
       <c r="F62">
         <v>61</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>43.234874662310744</v>
+        <v>43.235214198767039</v>
       </c>
       <c r="I62" t="e">
         <f t="shared" si="3"/>
@@ -37415,14 +37347,14 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.31969599999999998</v>
+        <v>0.31969700000000001</v>
       </c>
       <c r="F63">
         <v>62</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>42.422033046428353</v>
+        <v>42.422366199395306</v>
       </c>
       <c r="I63" t="e">
         <f t="shared" si="3"/>
@@ -37459,7 +37391,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>41.609191430545962</v>
+        <v>41.609518200023565</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
@@ -37496,7 +37428,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
-        <v>40.796349814663571</v>
+        <v>40.796670200651832</v>
       </c>
       <c r="I65" t="e">
         <f t="shared" si="3"/>
@@ -37526,14 +37458,14 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.66547900000000004</v>
+        <v>0.66547800000000001</v>
       </c>
       <c r="F66">
         <v>65</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>39.98350819878118</v>
+        <v>39.983822201280098</v>
       </c>
       <c r="I66" t="e">
         <f t="shared" si="3"/>
@@ -37563,14 +37495,14 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.130053</v>
+        <v>0.130054</v>
       </c>
       <c r="F67">
         <v>66</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" si="9">-$E$2/$E$4-$E$3/$E$4*F67</f>
-        <v>39.170666582898789</v>
+        <v>39.170974201908358</v>
       </c>
       <c r="I67" t="e">
         <f t="shared" ref="I67:I101" si="10">IF(C67=1,A67, #N/A)</f>
@@ -37607,7 +37539,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="9"/>
-        <v>38.357824967016398</v>
+        <v>38.358126202536624</v>
       </c>
       <c r="I68">
         <f t="shared" si="10"/>
@@ -37644,7 +37576,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="9"/>
-        <v>37.544983351134015</v>
+        <v>37.545278203164891</v>
       </c>
       <c r="I69" t="e">
         <f t="shared" si="10"/>
@@ -37681,7 +37613,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="9"/>
-        <v>36.732141735251624</v>
+        <v>36.73243020379315</v>
       </c>
       <c r="I70" t="e">
         <f t="shared" si="10"/>
@@ -37718,7 +37650,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="9"/>
-        <v>35.919300119369233</v>
+        <v>35.919582204421417</v>
       </c>
       <c r="I71">
         <f t="shared" si="10"/>
@@ -37755,7 +37687,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="9"/>
-        <v>35.106458503486841</v>
+        <v>35.106734205049683</v>
       </c>
       <c r="I72">
         <f t="shared" si="10"/>
@@ -37792,7 +37724,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="9"/>
-        <v>34.29361688760445</v>
+        <v>34.293886205677943</v>
       </c>
       <c r="I73" t="e">
         <f t="shared" si="10"/>
@@ -37829,7 +37761,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="9"/>
-        <v>33.480775271722059</v>
+        <v>33.481038206306209</v>
       </c>
       <c r="I74">
         <f t="shared" si="10"/>
@@ -37866,7 +37798,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="9"/>
-        <v>32.667933655839676</v>
+        <v>32.668190206934476</v>
       </c>
       <c r="I75" t="e">
         <f t="shared" si="10"/>
@@ -37896,14 +37828,14 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0.87300100000000003</v>
+        <v>0.873</v>
       </c>
       <c r="F76">
         <v>75</v>
       </c>
       <c r="G76">
         <f t="shared" si="9"/>
-        <v>31.855092039957285</v>
+        <v>31.855342207562735</v>
       </c>
       <c r="I76">
         <f t="shared" si="10"/>
@@ -37940,7 +37872,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="9"/>
-        <v>31.042250424074894</v>
+        <v>31.042494208191002</v>
       </c>
       <c r="I77" t="e">
         <f t="shared" si="10"/>
@@ -37977,7 +37909,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="9"/>
-        <v>30.229408808192503</v>
+        <v>30.229646208819268</v>
       </c>
       <c r="I78">
         <f t="shared" si="10"/>
@@ -38014,7 +37946,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="9"/>
-        <v>29.416567192310112</v>
+        <v>29.416798209447528</v>
       </c>
       <c r="I79">
         <f t="shared" si="10"/>
@@ -38051,7 +37983,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="9"/>
-        <v>28.603725576427721</v>
+        <v>28.603950210075794</v>
       </c>
       <c r="I80">
         <f t="shared" si="10"/>
@@ -38081,14 +38013,14 @@
         <v>0</v>
       </c>
       <c r="D81" s="80">
-        <v>2.2826600000000002E-3</v>
+        <v>2.28269E-3</v>
       </c>
       <c r="F81">
         <v>80</v>
       </c>
       <c r="G81">
         <f t="shared" si="9"/>
-        <v>27.79088396054533</v>
+        <v>27.791102210704054</v>
       </c>
       <c r="I81" t="e">
         <f t="shared" si="10"/>
@@ -38125,7 +38057,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="9"/>
-        <v>26.978042344662938</v>
+        <v>26.978254211332327</v>
       </c>
       <c r="I82">
         <f t="shared" si="10"/>
@@ -38162,7 +38094,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="9"/>
-        <v>26.165200728780547</v>
+        <v>26.165406211960587</v>
       </c>
       <c r="I83">
         <f t="shared" si="10"/>
@@ -38199,7 +38131,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="9"/>
-        <v>25.352359112898156</v>
+        <v>25.352558212588846</v>
       </c>
       <c r="I84">
         <f t="shared" si="10"/>
@@ -38229,14 +38161,14 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.17858499999999999</v>
+        <v>0.17858599999999999</v>
       </c>
       <c r="F85">
         <v>84</v>
       </c>
       <c r="G85">
         <f t="shared" si="9"/>
-        <v>24.53951749701578</v>
+        <v>24.53971021321712</v>
       </c>
       <c r="I85" t="e">
         <f t="shared" si="10"/>
@@ -38273,7 +38205,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="9"/>
-        <v>23.726675881133389</v>
+        <v>23.726862213845379</v>
       </c>
       <c r="I86">
         <f t="shared" si="10"/>
@@ -38310,7 +38242,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="9"/>
-        <v>22.913834265250998</v>
+        <v>22.914014214473639</v>
       </c>
       <c r="I87">
         <f t="shared" si="10"/>
@@ -38347,7 +38279,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="9"/>
-        <v>22.100992649368607</v>
+        <v>22.101166215101912</v>
       </c>
       <c r="I88">
         <f t="shared" si="10"/>
@@ -38384,7 +38316,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="9"/>
-        <v>21.288151033486216</v>
+        <v>21.288318215730172</v>
       </c>
       <c r="I89">
         <f t="shared" si="10"/>
@@ -38414,14 +38346,14 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.73986799999999997</v>
+        <v>0.73986700000000005</v>
       </c>
       <c r="F90">
         <v>89</v>
       </c>
       <c r="G90">
         <f t="shared" si="9"/>
-        <v>20.475309417603825</v>
+        <v>20.475470216358431</v>
       </c>
       <c r="I90">
         <f t="shared" si="10"/>
@@ -38458,7 +38390,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="9"/>
-        <v>19.662467801721434</v>
+        <v>19.662622216986705</v>
       </c>
       <c r="I91">
         <f t="shared" si="10"/>
@@ -38488,14 +38420,14 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.79893099999999995</v>
+        <v>0.79893000000000003</v>
       </c>
       <c r="F92">
         <v>91</v>
       </c>
       <c r="G92">
         <f t="shared" si="9"/>
-        <v>18.849626185839043</v>
+        <v>18.849774217614964</v>
       </c>
       <c r="I92">
         <f t="shared" si="10"/>
@@ -38532,7 +38464,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="9"/>
-        <v>18.036784569956652</v>
+        <v>18.036926218243224</v>
       </c>
       <c r="I93">
         <f t="shared" si="10"/>
@@ -38562,14 +38494,14 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.47244900000000001</v>
+        <v>0.47244999999999998</v>
       </c>
       <c r="F94">
         <v>93</v>
       </c>
       <c r="G94">
         <f t="shared" si="9"/>
-        <v>17.223942954074261</v>
+        <v>17.224078218871497</v>
       </c>
       <c r="I94">
         <f t="shared" si="10"/>
@@ -38599,14 +38531,14 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.65600099999999995</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="F95">
         <v>94</v>
       </c>
       <c r="G95">
         <f t="shared" si="9"/>
-        <v>16.41110133819187</v>
+        <v>16.411230219499757</v>
       </c>
       <c r="I95">
         <f t="shared" si="10"/>
@@ -38636,14 +38568,14 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>6.2259200000000001E-2</v>
+        <v>6.2259599999999998E-2</v>
       </c>
       <c r="F96">
         <v>95</v>
       </c>
       <c r="G96">
         <f t="shared" si="9"/>
-        <v>15.598259722309479</v>
+        <v>15.598382220128016</v>
       </c>
       <c r="I96" t="e">
         <f t="shared" si="10"/>
@@ -38680,7 +38612,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="9"/>
-        <v>14.785418106427102</v>
+        <v>14.78553422075629</v>
       </c>
       <c r="I97">
         <f t="shared" si="10"/>
@@ -38717,7 +38649,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="9"/>
-        <v>13.972576490544711</v>
+        <v>13.972686221384549</v>
       </c>
       <c r="I98">
         <f t="shared" si="10"/>
@@ -38754,7 +38686,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="9"/>
-        <v>13.15973487466232</v>
+        <v>13.159838222012809</v>
       </c>
       <c r="I99">
         <f t="shared" si="10"/>
@@ -38791,7 +38723,7 @@
       </c>
       <c r="G100">
         <f t="shared" si="9"/>
-        <v>12.346893258779929</v>
+        <v>12.346990222641068</v>
       </c>
       <c r="I100">
         <f t="shared" si="10"/>
@@ -38828,7 +38760,7 @@
       </c>
       <c r="G101">
         <f t="shared" si="9"/>
-        <v>11.534051642897538</v>
+        <v>11.534142223269342</v>
       </c>
       <c r="I101">
         <f t="shared" si="10"/>

--- a/Coursework Reports/4th assignment/xlsx4.xlsx
+++ b/Coursework Reports/4th assignment/xlsx4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F13778-6A2D-4FF7-A39D-41F43DB32CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7AD4E-6056-458E-BF42-B4426F5720F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -34838,8 +34838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35020,7 +35020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/Coursework Reports/4th assignment/xlsx4.xlsx
+++ b/Coursework Reports/4th assignment/xlsx4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7AD4E-6056-458E-BF42-B4426F5720F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2022B-48B0-4069-ACAC-B629EF4EDBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -873,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1018,6 +1018,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,23 +1108,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -8600,331 +8595,29 @@
             <c:v>Linia Klasyfikacyjna h=0.0001</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Wykres!$F$2:$F$101</c:f>
+              <c:f>(Wykres!$F$2,Wykres!$F$101)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8932,308 +8625,14 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Wykres!$G$2:$G$101</c:f>
+              <c:f>(Wykres!$G$2,Wykres!$G$101)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>92.006094161071189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.193246161699463</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.380398162327722</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.567550162955982</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88.754702163584255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.941854164212515</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87.129006164840774</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86.316158165469048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85.503310166097307</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>84.690462166725567</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.87761416735384</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.0647661679821</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>82.251918168610359</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81.439070169238633</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80.626222169866892</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>79.813374170495152</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>79.000526171123425</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>78.187678171751685</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77.374830172379944</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76.561982173008204</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75.749134173636477</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>74.936286174264737</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>74.12343817489301</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>73.31059017552127</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>72.497742176149529</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>71.684894176777789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>70.872046177406062</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>70.059198178034322</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>69.246350178662595</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>68.433502179290855</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67.620654179919114</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>66.807806180547374</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65.994958181175647</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>65.182110181803907</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64.36926218243218</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>63.55641418306044</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>62.743566183688699</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>61.930718184316966</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>61.117870184945232</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>60.305022185573492</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>59.492174186201758</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>58.679326186830025</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>57.866478187458284</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>57.053630188086551</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>56.240782188714817</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55.427934189343077</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>54.615086189971343</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>53.80223819059961</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>52.989390191227869</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>52.176542191856136</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51.363694192484395</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50.550846193112662</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>49.737998193740928</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48.925150194369188</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>48.112302194997454</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>47.299454195625721</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>46.48660619625398</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45.673758196882247</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44.860910197510513</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44.048062198138773</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43.235214198767039</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>42.422366199395306</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>41.609518200023565</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>40.796670200651832</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>39.983822201280098</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>39.170974201908358</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>38.358126202536624</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>37.545278203164891</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>36.73243020379315</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>35.919582204421417</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>35.106734205049683</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>34.293886205677943</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>33.481038206306209</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>32.668190206934476</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>31.855342207562735</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>31.042494208191002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>30.229646208819268</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>29.416798209447528</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>28.603950210075794</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>27.791102210704054</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>26.978254211332327</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>26.165406211960587</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>25.352558212588846</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>24.53971021321712</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23.726862213845379</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>22.914014214473639</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22.101166215101912</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>21.288318215730172</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>20.475470216358431</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>19.662622216986705</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>18.849774217614964</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>18.036926218243224</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>17.224078218871497</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>16.411230219499757</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>15.598382220128016</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14.78553422075629</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>13.972686221384549</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>13.159838222012809</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>12.346990222641068</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>11.534142223269342</c:v>
                 </c:pt>
               </c:numCache>
@@ -13711,13 +13110,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -14055,46 +13454,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="92" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="89" t="s">
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="91"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="95"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="88"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
@@ -14145,7 +13544,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="82">
+      <c r="A3" s="84">
         <v>0.05</v>
       </c>
       <c r="B3" s="37">
@@ -14207,7 +13606,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="38">
         <v>2</v>
       </c>
@@ -14267,7 +13666,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="38">
         <v>3</v>
       </c>
@@ -14327,7 +13726,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="38">
         <v>4</v>
       </c>
@@ -14387,7 +13786,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="38">
         <v>5</v>
       </c>
@@ -14447,7 +13846,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="38">
         <v>6</v>
       </c>
@@ -14507,7 +13906,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="38">
         <v>7</v>
       </c>
@@ -14567,7 +13966,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="38">
         <v>8</v>
       </c>
@@ -14627,7 +14026,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="38">
         <v>9</v>
       </c>
@@ -14687,7 +14086,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="38">
         <v>10</v>
       </c>
@@ -14747,7 +14146,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="38">
         <v>11</v>
       </c>
@@ -14807,7 +14206,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="38">
         <v>12</v>
       </c>
@@ -14867,7 +14266,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="38">
         <v>13</v>
       </c>
@@ -14927,7 +14326,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="38">
         <v>14</v>
       </c>
@@ -14987,7 +14386,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="38">
         <v>15</v>
       </c>
@@ -15047,7 +14446,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="38">
         <v>16</v>
       </c>
@@ -15107,7 +14506,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="38">
         <v>17</v>
       </c>
@@ -15167,7 +14566,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="38">
         <v>18</v>
       </c>
@@ -15227,7 +14626,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="38">
         <v>19</v>
       </c>
@@ -15287,7 +14686,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="38">
         <v>20</v>
       </c>
@@ -15347,7 +14746,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="38">
         <v>21</v>
       </c>
@@ -15407,7 +14806,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="38">
         <v>22</v>
       </c>
@@ -15467,7 +14866,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="38">
         <v>23</v>
       </c>
@@ -15527,7 +14926,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="38">
         <v>24</v>
       </c>
@@ -15587,7 +14986,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="38">
         <v>25</v>
       </c>
@@ -15647,7 +15046,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="38">
         <v>26</v>
       </c>
@@ -15707,7 +15106,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="38">
         <v>27</v>
       </c>
@@ -15767,7 +15166,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="38">
         <v>28</v>
       </c>
@@ -15827,7 +15226,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="38">
         <v>29</v>
       </c>
@@ -15887,7 +15286,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="38">
         <v>30</v>
       </c>
@@ -15947,7 +15346,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="38">
         <v>31</v>
       </c>
@@ -16007,7 +15406,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="38">
         <v>32</v>
       </c>
@@ -16067,7 +15466,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="38">
         <v>33</v>
       </c>
@@ -16127,7 +15526,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="38">
         <v>34</v>
       </c>
@@ -16187,7 +15586,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="38">
         <v>35</v>
       </c>
@@ -16247,7 +15646,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="83"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="38">
         <v>36</v>
       </c>
@@ -16307,7 +15706,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="38">
         <v>37</v>
       </c>
@@ -16367,7 +15766,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="38">
         <v>38</v>
       </c>
@@ -16427,7 +15826,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="38">
         <v>39</v>
       </c>
@@ -16487,7 +15886,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="38">
         <v>40</v>
       </c>
@@ -16547,7 +15946,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="38">
         <v>41</v>
       </c>
@@ -16607,7 +16006,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="38">
         <v>42</v>
       </c>
@@ -16667,7 +16066,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="38">
         <v>43</v>
       </c>
@@ -16727,7 +16126,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="38">
         <v>44</v>
       </c>
@@ -16787,7 +16186,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="38">
         <v>45</v>
       </c>
@@ -16847,7 +16246,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="38">
         <v>46</v>
       </c>
@@ -16907,7 +16306,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="38">
         <v>47</v>
       </c>
@@ -16967,7 +16366,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="38">
         <v>48</v>
       </c>
@@ -17027,7 +16426,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="38">
         <v>49</v>
       </c>
@@ -17087,7 +16486,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="38">
         <v>50</v>
       </c>
@@ -17147,7 +16546,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="38">
         <v>51</v>
       </c>
@@ -17207,7 +16606,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="83"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="38">
         <v>52</v>
       </c>
@@ -17267,7 +16666,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="83"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="38">
         <v>53</v>
       </c>
@@ -17327,7 +16726,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="38">
         <v>54</v>
       </c>
@@ -17387,7 +16786,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="83"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="38">
         <v>55</v>
       </c>
@@ -17447,7 +16846,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="83"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="38">
         <v>56</v>
       </c>
@@ -17507,7 +16906,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="83"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="38">
         <v>57</v>
       </c>
@@ -17567,7 +16966,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="83"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="38">
         <v>58</v>
       </c>
@@ -17627,7 +17026,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="83"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="38">
         <v>59</v>
       </c>
@@ -17687,7 +17086,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="83"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="38">
         <v>60</v>
       </c>
@@ -17747,7 +17146,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="38">
         <v>61</v>
       </c>
@@ -17807,7 +17206,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="38">
         <v>62</v>
       </c>
@@ -17867,7 +17266,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="83"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="38">
         <v>63</v>
       </c>
@@ -17927,7 +17326,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="83"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="38">
         <v>64</v>
       </c>
@@ -17987,7 +17386,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="83"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="38">
         <v>65</v>
       </c>
@@ -18047,7 +17446,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="83"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="38">
         <v>66</v>
       </c>
@@ -18107,7 +17506,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="83"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="38">
         <v>67</v>
       </c>
@@ -18167,7 +17566,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="83"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="38">
         <v>68</v>
       </c>
@@ -18227,7 +17626,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="83"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="38">
         <v>69</v>
       </c>
@@ -18287,7 +17686,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="83"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="38">
         <v>70</v>
       </c>
@@ -18347,7 +17746,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="83"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="38">
         <v>71</v>
       </c>
@@ -18407,7 +17806,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="83"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="38">
         <v>72</v>
       </c>
@@ -18467,7 +17866,7 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="83"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="38">
         <v>73</v>
       </c>
@@ -18527,7 +17926,7 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="83"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="38">
         <v>74</v>
       </c>
@@ -18587,7 +17986,7 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="83"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="38">
         <v>75</v>
       </c>
@@ -18647,7 +18046,7 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="83"/>
+      <c r="A78" s="85"/>
       <c r="B78" s="38">
         <v>76</v>
       </c>
@@ -18707,7 +18106,7 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="83"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="38">
         <v>77</v>
       </c>
@@ -18767,7 +18166,7 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="83"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="38">
         <v>78</v>
       </c>
@@ -18827,7 +18226,7 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="83"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="38">
         <v>79</v>
       </c>
@@ -18887,7 +18286,7 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="83"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="38">
         <v>80</v>
       </c>
@@ -18947,7 +18346,7 @@
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="83"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="38">
         <v>81</v>
       </c>
@@ -19007,7 +18406,7 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="83"/>
+      <c r="A84" s="85"/>
       <c r="B84" s="38">
         <v>82</v>
       </c>
@@ -19067,7 +18466,7 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="83"/>
+      <c r="A85" s="85"/>
       <c r="B85" s="38">
         <v>83</v>
       </c>
@@ -19127,7 +18526,7 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="83"/>
+      <c r="A86" s="85"/>
       <c r="B86" s="38">
         <v>84</v>
       </c>
@@ -19187,7 +18586,7 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
+      <c r="A87" s="85"/>
       <c r="B87" s="38">
         <v>85</v>
       </c>
@@ -19247,7 +18646,7 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="83"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="38">
         <v>86</v>
       </c>
@@ -19307,7 +18706,7 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="83"/>
+      <c r="A89" s="85"/>
       <c r="B89" s="38">
         <v>87</v>
       </c>
@@ -19367,7 +18766,7 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="83"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="38">
         <v>88</v>
       </c>
@@ -19427,7 +18826,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="38">
         <v>89</v>
       </c>
@@ -19487,7 +18886,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="38">
         <v>90</v>
       </c>
@@ -19547,7 +18946,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="83"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="38">
         <v>91</v>
       </c>
@@ -19607,7 +19006,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="83"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="38">
         <v>92</v>
       </c>
@@ -19667,7 +19066,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="83"/>
+      <c r="A95" s="85"/>
       <c r="B95" s="38">
         <v>93</v>
       </c>
@@ -19727,7 +19126,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="83"/>
+      <c r="A96" s="85"/>
       <c r="B96" s="38">
         <v>94</v>
       </c>
@@ -19787,7 +19186,7 @@
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="83"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="38">
         <v>95</v>
       </c>
@@ -19847,7 +19246,7 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="83"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="38">
         <v>96</v>
       </c>
@@ -19907,7 +19306,7 @@
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="83"/>
+      <c r="A99" s="85"/>
       <c r="B99" s="38">
         <v>97</v>
       </c>
@@ -19967,7 +19366,7 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A100" s="83"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="38">
         <v>98</v>
       </c>
@@ -20027,7 +19426,7 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="83"/>
+      <c r="A101" s="85"/>
       <c r="B101" s="38">
         <v>99</v>
       </c>
@@ -20087,7 +19486,7 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="84"/>
+      <c r="A102" s="86"/>
       <c r="B102" s="40">
         <v>100</v>
       </c>
@@ -20147,7 +19546,7 @@
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="82">
+      <c r="A103" s="84">
         <v>0.12</v>
       </c>
       <c r="B103" s="37">
@@ -20209,7 +19608,7 @@
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="83"/>
+      <c r="A104" s="85"/>
       <c r="B104" s="38">
         <v>2</v>
       </c>
@@ -20269,7 +19668,7 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="83"/>
+      <c r="A105" s="85"/>
       <c r="B105" s="38">
         <v>3</v>
       </c>
@@ -20329,7 +19728,7 @@
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="83"/>
+      <c r="A106" s="85"/>
       <c r="B106" s="38">
         <v>4</v>
       </c>
@@ -20389,7 +19788,7 @@
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="83"/>
+      <c r="A107" s="85"/>
       <c r="B107" s="38">
         <v>5</v>
       </c>
@@ -20449,7 +19848,7 @@
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="83"/>
+      <c r="A108" s="85"/>
       <c r="B108" s="38">
         <v>6</v>
       </c>
@@ -20509,7 +19908,7 @@
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="83"/>
+      <c r="A109" s="85"/>
       <c r="B109" s="38">
         <v>7</v>
       </c>
@@ -20569,7 +19968,7 @@
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A110" s="83"/>
+      <c r="A110" s="85"/>
       <c r="B110" s="38">
         <v>8</v>
       </c>
@@ -20629,7 +20028,7 @@
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A111" s="83"/>
+      <c r="A111" s="85"/>
       <c r="B111" s="38">
         <v>9</v>
       </c>
@@ -20689,7 +20088,7 @@
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="83"/>
+      <c r="A112" s="85"/>
       <c r="B112" s="38">
         <v>10</v>
       </c>
@@ -20749,7 +20148,7 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="83"/>
+      <c r="A113" s="85"/>
       <c r="B113" s="38">
         <v>11</v>
       </c>
@@ -20809,7 +20208,7 @@
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="83"/>
+      <c r="A114" s="85"/>
       <c r="B114" s="38">
         <v>12</v>
       </c>
@@ -20869,7 +20268,7 @@
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="83"/>
+      <c r="A115" s="85"/>
       <c r="B115" s="38">
         <v>13</v>
       </c>
@@ -20929,7 +20328,7 @@
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A116" s="83"/>
+      <c r="A116" s="85"/>
       <c r="B116" s="38">
         <v>14</v>
       </c>
@@ -20989,7 +20388,7 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="83"/>
+      <c r="A117" s="85"/>
       <c r="B117" s="38">
         <v>15</v>
       </c>
@@ -21049,7 +20448,7 @@
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="83"/>
+      <c r="A118" s="85"/>
       <c r="B118" s="38">
         <v>16</v>
       </c>
@@ -21109,7 +20508,7 @@
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="83"/>
+      <c r="A119" s="85"/>
       <c r="B119" s="38">
         <v>17</v>
       </c>
@@ -21169,7 +20568,7 @@
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="83"/>
+      <c r="A120" s="85"/>
       <c r="B120" s="38">
         <v>18</v>
       </c>
@@ -21229,7 +20628,7 @@
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A121" s="83"/>
+      <c r="A121" s="85"/>
       <c r="B121" s="38">
         <v>19</v>
       </c>
@@ -21289,7 +20688,7 @@
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A122" s="83"/>
+      <c r="A122" s="85"/>
       <c r="B122" s="38">
         <v>20</v>
       </c>
@@ -21349,7 +20748,7 @@
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="83"/>
+      <c r="A123" s="85"/>
       <c r="B123" s="38">
         <v>21</v>
       </c>
@@ -21409,7 +20808,7 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="83"/>
+      <c r="A124" s="85"/>
       <c r="B124" s="38">
         <v>22</v>
       </c>
@@ -21469,7 +20868,7 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A125" s="83"/>
+      <c r="A125" s="85"/>
       <c r="B125" s="38">
         <v>23</v>
       </c>
@@ -21529,7 +20928,7 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A126" s="83"/>
+      <c r="A126" s="85"/>
       <c r="B126" s="38">
         <v>24</v>
       </c>
@@ -21589,7 +20988,7 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="83"/>
+      <c r="A127" s="85"/>
       <c r="B127" s="38">
         <v>25</v>
       </c>
@@ -21649,7 +21048,7 @@
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A128" s="83"/>
+      <c r="A128" s="85"/>
       <c r="B128" s="38">
         <v>26</v>
       </c>
@@ -21709,7 +21108,7 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="83"/>
+      <c r="A129" s="85"/>
       <c r="B129" s="38">
         <v>27</v>
       </c>
@@ -21769,7 +21168,7 @@
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="83"/>
+      <c r="A130" s="85"/>
       <c r="B130" s="38">
         <v>28</v>
       </c>
@@ -21829,7 +21228,7 @@
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="83"/>
+      <c r="A131" s="85"/>
       <c r="B131" s="38">
         <v>29</v>
       </c>
@@ -21889,7 +21288,7 @@
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="83"/>
+      <c r="A132" s="85"/>
       <c r="B132" s="38">
         <v>30</v>
       </c>
@@ -21949,7 +21348,7 @@
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="83"/>
+      <c r="A133" s="85"/>
       <c r="B133" s="38">
         <v>31</v>
       </c>
@@ -22009,7 +21408,7 @@
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A134" s="83"/>
+      <c r="A134" s="85"/>
       <c r="B134" s="38">
         <v>32</v>
       </c>
@@ -22069,7 +21468,7 @@
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A135" s="83"/>
+      <c r="A135" s="85"/>
       <c r="B135" s="38">
         <v>33</v>
       </c>
@@ -22129,7 +21528,7 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="83"/>
+      <c r="A136" s="85"/>
       <c r="B136" s="38">
         <v>34</v>
       </c>
@@ -22189,7 +21588,7 @@
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="83"/>
+      <c r="A137" s="85"/>
       <c r="B137" s="38">
         <v>35</v>
       </c>
@@ -22249,7 +21648,7 @@
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="83"/>
+      <c r="A138" s="85"/>
       <c r="B138" s="38">
         <v>36</v>
       </c>
@@ -22309,7 +21708,7 @@
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="83"/>
+      <c r="A139" s="85"/>
       <c r="B139" s="38">
         <v>37</v>
       </c>
@@ -22369,7 +21768,7 @@
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="83"/>
+      <c r="A140" s="85"/>
       <c r="B140" s="38">
         <v>38</v>
       </c>
@@ -22429,7 +21828,7 @@
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A141" s="83"/>
+      <c r="A141" s="85"/>
       <c r="B141" s="38">
         <v>39</v>
       </c>
@@ -22489,7 +21888,7 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="83"/>
+      <c r="A142" s="85"/>
       <c r="B142" s="38">
         <v>40</v>
       </c>
@@ -22549,7 +21948,7 @@
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="83"/>
+      <c r="A143" s="85"/>
       <c r="B143" s="38">
         <v>41</v>
       </c>
@@ -22609,7 +22008,7 @@
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="83"/>
+      <c r="A144" s="85"/>
       <c r="B144" s="38">
         <v>42</v>
       </c>
@@ -22669,7 +22068,7 @@
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="83"/>
+      <c r="A145" s="85"/>
       <c r="B145" s="38">
         <v>43</v>
       </c>
@@ -22729,7 +22128,7 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A146" s="83"/>
+      <c r="A146" s="85"/>
       <c r="B146" s="38">
         <v>44</v>
       </c>
@@ -22789,7 +22188,7 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A147" s="83"/>
+      <c r="A147" s="85"/>
       <c r="B147" s="38">
         <v>45</v>
       </c>
@@ -22849,7 +22248,7 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="83"/>
+      <c r="A148" s="85"/>
       <c r="B148" s="38">
         <v>46</v>
       </c>
@@ -22909,7 +22308,7 @@
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="83"/>
+      <c r="A149" s="85"/>
       <c r="B149" s="38">
         <v>47</v>
       </c>
@@ -22969,7 +22368,7 @@
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="83"/>
+      <c r="A150" s="85"/>
       <c r="B150" s="38">
         <v>48</v>
       </c>
@@ -23029,7 +22428,7 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="83"/>
+      <c r="A151" s="85"/>
       <c r="B151" s="38">
         <v>49</v>
       </c>
@@ -23089,7 +22488,7 @@
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="83"/>
+      <c r="A152" s="85"/>
       <c r="B152" s="38">
         <v>50</v>
       </c>
@@ -23149,7 +22548,7 @@
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="83"/>
+      <c r="A153" s="85"/>
       <c r="B153" s="38">
         <v>51</v>
       </c>
@@ -23209,7 +22608,7 @@
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="83"/>
+      <c r="A154" s="85"/>
       <c r="B154" s="38">
         <v>52</v>
       </c>
@@ -23269,7 +22668,7 @@
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="83"/>
+      <c r="A155" s="85"/>
       <c r="B155" s="38">
         <v>53</v>
       </c>
@@ -23329,7 +22728,7 @@
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="83"/>
+      <c r="A156" s="85"/>
       <c r="B156" s="38">
         <v>54</v>
       </c>
@@ -23389,7 +22788,7 @@
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A157" s="83"/>
+      <c r="A157" s="85"/>
       <c r="B157" s="38">
         <v>55</v>
       </c>
@@ -23449,7 +22848,7 @@
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A158" s="83"/>
+      <c r="A158" s="85"/>
       <c r="B158" s="38">
         <v>56</v>
       </c>
@@ -23509,7 +22908,7 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="83"/>
+      <c r="A159" s="85"/>
       <c r="B159" s="38">
         <v>57</v>
       </c>
@@ -23569,7 +22968,7 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="83"/>
+      <c r="A160" s="85"/>
       <c r="B160" s="38">
         <v>58</v>
       </c>
@@ -23629,7 +23028,7 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="83"/>
+      <c r="A161" s="85"/>
       <c r="B161" s="38">
         <v>59</v>
       </c>
@@ -23689,7 +23088,7 @@
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="83"/>
+      <c r="A162" s="85"/>
       <c r="B162" s="38">
         <v>60</v>
       </c>
@@ -23749,7 +23148,7 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A163" s="83"/>
+      <c r="A163" s="85"/>
       <c r="B163" s="38">
         <v>61</v>
       </c>
@@ -23809,7 +23208,7 @@
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A164" s="83"/>
+      <c r="A164" s="85"/>
       <c r="B164" s="38">
         <v>62</v>
       </c>
@@ -23869,7 +23268,7 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="83"/>
+      <c r="A165" s="85"/>
       <c r="B165" s="38">
         <v>63</v>
       </c>
@@ -23929,7 +23328,7 @@
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="83"/>
+      <c r="A166" s="85"/>
       <c r="B166" s="38">
         <v>64</v>
       </c>
@@ -23989,7 +23388,7 @@
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="83"/>
+      <c r="A167" s="85"/>
       <c r="B167" s="38">
         <v>65</v>
       </c>
@@ -24049,7 +23448,7 @@
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A168" s="83"/>
+      <c r="A168" s="85"/>
       <c r="B168" s="38">
         <v>66</v>
       </c>
@@ -24109,7 +23508,7 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A169" s="83"/>
+      <c r="A169" s="85"/>
       <c r="B169" s="38">
         <v>67</v>
       </c>
@@ -24169,7 +23568,7 @@
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="83"/>
+      <c r="A170" s="85"/>
       <c r="B170" s="38">
         <v>68</v>
       </c>
@@ -24229,7 +23628,7 @@
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="83"/>
+      <c r="A171" s="85"/>
       <c r="B171" s="38">
         <v>69</v>
       </c>
@@ -24289,7 +23688,7 @@
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="83"/>
+      <c r="A172" s="85"/>
       <c r="B172" s="38">
         <v>70</v>
       </c>
@@ -24349,7 +23748,7 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="83"/>
+      <c r="A173" s="85"/>
       <c r="B173" s="38">
         <v>71</v>
       </c>
@@ -24409,7 +23808,7 @@
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A174" s="83"/>
+      <c r="A174" s="85"/>
       <c r="B174" s="38">
         <v>72</v>
       </c>
@@ -24469,7 +23868,7 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A175" s="83"/>
+      <c r="A175" s="85"/>
       <c r="B175" s="38">
         <v>73</v>
       </c>
@@ -24529,7 +23928,7 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="83"/>
+      <c r="A176" s="85"/>
       <c r="B176" s="38">
         <v>74</v>
       </c>
@@ -24589,7 +23988,7 @@
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="83"/>
+      <c r="A177" s="85"/>
       <c r="B177" s="38">
         <v>75</v>
       </c>
@@ -24649,7 +24048,7 @@
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="83"/>
+      <c r="A178" s="85"/>
       <c r="B178" s="38">
         <v>76</v>
       </c>
@@ -24709,7 +24108,7 @@
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="83"/>
+      <c r="A179" s="85"/>
       <c r="B179" s="38">
         <v>77</v>
       </c>
@@ -24769,7 +24168,7 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="83"/>
+      <c r="A180" s="85"/>
       <c r="B180" s="38">
         <v>78</v>
       </c>
@@ -24829,7 +24228,7 @@
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A181" s="83"/>
+      <c r="A181" s="85"/>
       <c r="B181" s="38">
         <v>79</v>
       </c>
@@ -24889,7 +24288,7 @@
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A182" s="83"/>
+      <c r="A182" s="85"/>
       <c r="B182" s="38">
         <v>80</v>
       </c>
@@ -24949,7 +24348,7 @@
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A183" s="83"/>
+      <c r="A183" s="85"/>
       <c r="B183" s="38">
         <v>81</v>
       </c>
@@ -25009,7 +24408,7 @@
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A184" s="83"/>
+      <c r="A184" s="85"/>
       <c r="B184" s="38">
         <v>82</v>
       </c>
@@ -25069,7 +24468,7 @@
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A185" s="83"/>
+      <c r="A185" s="85"/>
       <c r="B185" s="38">
         <v>83</v>
       </c>
@@ -25129,7 +24528,7 @@
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="83"/>
+      <c r="A186" s="85"/>
       <c r="B186" s="38">
         <v>84</v>
       </c>
@@ -25189,7 +24588,7 @@
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="83"/>
+      <c r="A187" s="85"/>
       <c r="B187" s="38">
         <v>85</v>
       </c>
@@ -25249,7 +24648,7 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="83"/>
+      <c r="A188" s="85"/>
       <c r="B188" s="38">
         <v>86</v>
       </c>
@@ -25309,7 +24708,7 @@
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" s="83"/>
+      <c r="A189" s="85"/>
       <c r="B189" s="38">
         <v>87</v>
       </c>
@@ -25369,7 +24768,7 @@
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" s="83"/>
+      <c r="A190" s="85"/>
       <c r="B190" s="38">
         <v>88</v>
       </c>
@@ -25429,7 +24828,7 @@
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="83"/>
+      <c r="A191" s="85"/>
       <c r="B191" s="38">
         <v>89</v>
       </c>
@@ -25489,7 +24888,7 @@
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="83"/>
+      <c r="A192" s="85"/>
       <c r="B192" s="38">
         <v>90</v>
       </c>
@@ -25549,7 +24948,7 @@
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="83"/>
+      <c r="A193" s="85"/>
       <c r="B193" s="38">
         <v>91</v>
       </c>
@@ -25609,7 +25008,7 @@
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A194" s="83"/>
+      <c r="A194" s="85"/>
       <c r="B194" s="38">
         <v>92</v>
       </c>
@@ -25669,7 +25068,7 @@
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A195" s="83"/>
+      <c r="A195" s="85"/>
       <c r="B195" s="38">
         <v>93</v>
       </c>
@@ -25729,7 +25128,7 @@
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A196" s="83"/>
+      <c r="A196" s="85"/>
       <c r="B196" s="38">
         <v>94</v>
       </c>
@@ -25789,7 +25188,7 @@
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A197" s="83"/>
+      <c r="A197" s="85"/>
       <c r="B197" s="38">
         <v>95</v>
       </c>
@@ -25849,7 +25248,7 @@
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A198" s="83"/>
+      <c r="A198" s="85"/>
       <c r="B198" s="38">
         <v>96</v>
       </c>
@@ -25909,7 +25308,7 @@
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="83"/>
+      <c r="A199" s="85"/>
       <c r="B199" s="38">
         <v>97</v>
       </c>
@@ -25969,7 +25368,7 @@
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="83"/>
+      <c r="A200" s="85"/>
       <c r="B200" s="38">
         <v>98</v>
       </c>
@@ -26029,7 +25428,7 @@
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="83"/>
+      <c r="A201" s="85"/>
       <c r="B201" s="38">
         <v>99</v>
       </c>
@@ -26089,7 +25488,7 @@
       </c>
     </row>
     <row r="202" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="85"/>
+      <c r="A202" s="87"/>
       <c r="B202" s="39">
         <v>100</v>
       </c>
@@ -26149,7 +25548,7 @@
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A203" s="86" t="s">
+      <c r="A203" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B203" s="45">
@@ -26211,7 +25610,7 @@
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="83"/>
+      <c r="A204" s="85"/>
       <c r="B204" s="38">
         <v>2</v>
       </c>
@@ -26271,7 +25670,7 @@
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="83"/>
+      <c r="A205" s="85"/>
       <c r="B205" s="38">
         <v>3</v>
       </c>
@@ -26331,7 +25730,7 @@
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="83"/>
+      <c r="A206" s="85"/>
       <c r="B206" s="38">
         <v>4</v>
       </c>
@@ -26391,7 +25790,7 @@
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A207" s="83"/>
+      <c r="A207" s="85"/>
       <c r="B207" s="38">
         <v>5</v>
       </c>
@@ -26451,7 +25850,7 @@
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A208" s="83"/>
+      <c r="A208" s="85"/>
       <c r="B208" s="38">
         <v>6</v>
       </c>
@@ -26511,7 +25910,7 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A209" s="83"/>
+      <c r="A209" s="85"/>
       <c r="B209" s="38">
         <v>7</v>
       </c>
@@ -26571,7 +25970,7 @@
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A210" s="83"/>
+      <c r="A210" s="85"/>
       <c r="B210" s="38">
         <v>8</v>
       </c>
@@ -26631,7 +26030,7 @@
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A211" s="83"/>
+      <c r="A211" s="85"/>
       <c r="B211" s="38">
         <v>9</v>
       </c>
@@ -26691,7 +26090,7 @@
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="83"/>
+      <c r="A212" s="85"/>
       <c r="B212" s="38">
         <v>10</v>
       </c>
@@ -26751,7 +26150,7 @@
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A213" s="83"/>
+      <c r="A213" s="85"/>
       <c r="B213" s="38">
         <v>11</v>
       </c>
@@ -26811,7 +26210,7 @@
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A214" s="83"/>
+      <c r="A214" s="85"/>
       <c r="B214" s="38">
         <v>12</v>
       </c>
@@ -26871,7 +26270,7 @@
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A215" s="83"/>
+      <c r="A215" s="85"/>
       <c r="B215" s="38">
         <v>13</v>
       </c>
@@ -26931,7 +26330,7 @@
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A216" s="83"/>
+      <c r="A216" s="85"/>
       <c r="B216" s="38">
         <v>14</v>
       </c>
@@ -26991,7 +26390,7 @@
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A217" s="83"/>
+      <c r="A217" s="85"/>
       <c r="B217" s="38">
         <v>15</v>
       </c>
@@ -27051,7 +26450,7 @@
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A218" s="83"/>
+      <c r="A218" s="85"/>
       <c r="B218" s="38">
         <v>16</v>
       </c>
@@ -27111,7 +26510,7 @@
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A219" s="83"/>
+      <c r="A219" s="85"/>
       <c r="B219" s="38">
         <v>17</v>
       </c>
@@ -27171,7 +26570,7 @@
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A220" s="83"/>
+      <c r="A220" s="85"/>
       <c r="B220" s="38">
         <v>18</v>
       </c>
@@ -27231,7 +26630,7 @@
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="83"/>
+      <c r="A221" s="85"/>
       <c r="B221" s="38">
         <v>19</v>
       </c>
@@ -27291,7 +26690,7 @@
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="83"/>
+      <c r="A222" s="85"/>
       <c r="B222" s="38">
         <v>20</v>
       </c>
@@ -27351,7 +26750,7 @@
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A223" s="83"/>
+      <c r="A223" s="85"/>
       <c r="B223" s="38">
         <v>21</v>
       </c>
@@ -27411,7 +26810,7 @@
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="83"/>
+      <c r="A224" s="85"/>
       <c r="B224" s="38">
         <v>22</v>
       </c>
@@ -27471,7 +26870,7 @@
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A225" s="83"/>
+      <c r="A225" s="85"/>
       <c r="B225" s="38">
         <v>23</v>
       </c>
@@ -27531,7 +26930,7 @@
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A226" s="83"/>
+      <c r="A226" s="85"/>
       <c r="B226" s="38">
         <v>24</v>
       </c>
@@ -27591,7 +26990,7 @@
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="83"/>
+      <c r="A227" s="85"/>
       <c r="B227" s="38">
         <v>25</v>
       </c>
@@ -27651,7 +27050,7 @@
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A228" s="83"/>
+      <c r="A228" s="85"/>
       <c r="B228" s="38">
         <v>26</v>
       </c>
@@ -27711,7 +27110,7 @@
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="83"/>
+      <c r="A229" s="85"/>
       <c r="B229" s="38">
         <v>27</v>
       </c>
@@ -27771,7 +27170,7 @@
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="83"/>
+      <c r="A230" s="85"/>
       <c r="B230" s="38">
         <v>28</v>
       </c>
@@ -27831,7 +27230,7 @@
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="83"/>
+      <c r="A231" s="85"/>
       <c r="B231" s="38">
         <v>29</v>
       </c>
@@ -27891,7 +27290,7 @@
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A232" s="83"/>
+      <c r="A232" s="85"/>
       <c r="B232" s="38">
         <v>30</v>
       </c>
@@ -27951,7 +27350,7 @@
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A233" s="83"/>
+      <c r="A233" s="85"/>
       <c r="B233" s="38">
         <v>31</v>
       </c>
@@ -28011,7 +27410,7 @@
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="83"/>
+      <c r="A234" s="85"/>
       <c r="B234" s="38">
         <v>32</v>
       </c>
@@ -28071,7 +27470,7 @@
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="83"/>
+      <c r="A235" s="85"/>
       <c r="B235" s="38">
         <v>33</v>
       </c>
@@ -28131,7 +27530,7 @@
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="83"/>
+      <c r="A236" s="85"/>
       <c r="B236" s="38">
         <v>34</v>
       </c>
@@ -28191,7 +27590,7 @@
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A237" s="83"/>
+      <c r="A237" s="85"/>
       <c r="B237" s="38">
         <v>35</v>
       </c>
@@ -28251,7 +27650,7 @@
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="83"/>
+      <c r="A238" s="85"/>
       <c r="B238" s="38">
         <v>36</v>
       </c>
@@ -28311,7 +27710,7 @@
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="83"/>
+      <c r="A239" s="85"/>
       <c r="B239" s="38">
         <v>37</v>
       </c>
@@ -28371,7 +27770,7 @@
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A240" s="83"/>
+      <c r="A240" s="85"/>
       <c r="B240" s="38">
         <v>38</v>
       </c>
@@ -28431,7 +27830,7 @@
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A241" s="83"/>
+      <c r="A241" s="85"/>
       <c r="B241" s="38">
         <v>39</v>
       </c>
@@ -28491,7 +27890,7 @@
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="83"/>
+      <c r="A242" s="85"/>
       <c r="B242" s="38">
         <v>40</v>
       </c>
@@ -28551,7 +27950,7 @@
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A243" s="83"/>
+      <c r="A243" s="85"/>
       <c r="B243" s="38">
         <v>41</v>
       </c>
@@ -28611,7 +28010,7 @@
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="83"/>
+      <c r="A244" s="85"/>
       <c r="B244" s="38">
         <v>42</v>
       </c>
@@ -28671,7 +28070,7 @@
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A245" s="83"/>
+      <c r="A245" s="85"/>
       <c r="B245" s="38">
         <v>43</v>
       </c>
@@ -28731,7 +28130,7 @@
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A246" s="83"/>
+      <c r="A246" s="85"/>
       <c r="B246" s="38">
         <v>44</v>
       </c>
@@ -28791,7 +28190,7 @@
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="83"/>
+      <c r="A247" s="85"/>
       <c r="B247" s="38">
         <v>45</v>
       </c>
@@ -28851,7 +28250,7 @@
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A248" s="83"/>
+      <c r="A248" s="85"/>
       <c r="B248" s="38">
         <v>46</v>
       </c>
@@ -28911,7 +28310,7 @@
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="83"/>
+      <c r="A249" s="85"/>
       <c r="B249" s="38">
         <v>47</v>
       </c>
@@ -28971,7 +28370,7 @@
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="83"/>
+      <c r="A250" s="85"/>
       <c r="B250" s="38">
         <v>48</v>
       </c>
@@ -29031,7 +28430,7 @@
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="83"/>
+      <c r="A251" s="85"/>
       <c r="B251" s="38">
         <v>49</v>
       </c>
@@ -29091,7 +28490,7 @@
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A252" s="83"/>
+      <c r="A252" s="85"/>
       <c r="B252" s="38">
         <v>50</v>
       </c>
@@ -29151,7 +28550,7 @@
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A253" s="83"/>
+      <c r="A253" s="85"/>
       <c r="B253" s="38">
         <v>51</v>
       </c>
@@ -29211,7 +28610,7 @@
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="83"/>
+      <c r="A254" s="85"/>
       <c r="B254" s="38">
         <v>52</v>
       </c>
@@ -29271,7 +28670,7 @@
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="83"/>
+      <c r="A255" s="85"/>
       <c r="B255" s="38">
         <v>53</v>
       </c>
@@ -29331,7 +28730,7 @@
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="83"/>
+      <c r="A256" s="85"/>
       <c r="B256" s="38">
         <v>54</v>
       </c>
@@ -29391,7 +28790,7 @@
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="83"/>
+      <c r="A257" s="85"/>
       <c r="B257" s="38">
         <v>55</v>
       </c>
@@ -29451,7 +28850,7 @@
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A258" s="83"/>
+      <c r="A258" s="85"/>
       <c r="B258" s="38">
         <v>56</v>
       </c>
@@ -29511,7 +28910,7 @@
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A259" s="83"/>
+      <c r="A259" s="85"/>
       <c r="B259" s="38">
         <v>57</v>
       </c>
@@ -29571,7 +28970,7 @@
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="83"/>
+      <c r="A260" s="85"/>
       <c r="B260" s="38">
         <v>58</v>
       </c>
@@ -29631,7 +29030,7 @@
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A261" s="83"/>
+      <c r="A261" s="85"/>
       <c r="B261" s="38">
         <v>59</v>
       </c>
@@ -29691,7 +29090,7 @@
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A262" s="83"/>
+      <c r="A262" s="85"/>
       <c r="B262" s="38">
         <v>60</v>
       </c>
@@ -29751,7 +29150,7 @@
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A263" s="83"/>
+      <c r="A263" s="85"/>
       <c r="B263" s="38">
         <v>61</v>
       </c>
@@ -29811,7 +29210,7 @@
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A264" s="83"/>
+      <c r="A264" s="85"/>
       <c r="B264" s="38">
         <v>62</v>
       </c>
@@ -29871,7 +29270,7 @@
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A265" s="83"/>
+      <c r="A265" s="85"/>
       <c r="B265" s="38">
         <v>63</v>
       </c>
@@ -29931,7 +29330,7 @@
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="83"/>
+      <c r="A266" s="85"/>
       <c r="B266" s="38">
         <v>64</v>
       </c>
@@ -29991,7 +29390,7 @@
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A267" s="83"/>
+      <c r="A267" s="85"/>
       <c r="B267" s="38">
         <v>65</v>
       </c>
@@ -30051,7 +29450,7 @@
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A268" s="83"/>
+      <c r="A268" s="85"/>
       <c r="B268" s="38">
         <v>66</v>
       </c>
@@ -30111,7 +29510,7 @@
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="83"/>
+      <c r="A269" s="85"/>
       <c r="B269" s="38">
         <v>67</v>
       </c>
@@ -30171,7 +29570,7 @@
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="83"/>
+      <c r="A270" s="85"/>
       <c r="B270" s="38">
         <v>68</v>
       </c>
@@ -30231,7 +29630,7 @@
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A271" s="83"/>
+      <c r="A271" s="85"/>
       <c r="B271" s="38">
         <v>69</v>
       </c>
@@ -30291,7 +29690,7 @@
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A272" s="83"/>
+      <c r="A272" s="85"/>
       <c r="B272" s="38">
         <v>70</v>
       </c>
@@ -30351,7 +29750,7 @@
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A273" s="83"/>
+      <c r="A273" s="85"/>
       <c r="B273" s="38">
         <v>71</v>
       </c>
@@ -30411,7 +29810,7 @@
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="83"/>
+      <c r="A274" s="85"/>
       <c r="B274" s="38">
         <v>72</v>
       </c>
@@ -30471,7 +29870,7 @@
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="83"/>
+      <c r="A275" s="85"/>
       <c r="B275" s="38">
         <v>73</v>
       </c>
@@ -30531,7 +29930,7 @@
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="83"/>
+      <c r="A276" s="85"/>
       <c r="B276" s="38">
         <v>74</v>
       </c>
@@ -30591,7 +29990,7 @@
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A277" s="83"/>
+      <c r="A277" s="85"/>
       <c r="B277" s="38">
         <v>75</v>
       </c>
@@ -30651,7 +30050,7 @@
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="83"/>
+      <c r="A278" s="85"/>
       <c r="B278" s="38">
         <v>76</v>
       </c>
@@ -30711,7 +30110,7 @@
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A279" s="83"/>
+      <c r="A279" s="85"/>
       <c r="B279" s="38">
         <v>77</v>
       </c>
@@ -30771,7 +30170,7 @@
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A280" s="83"/>
+      <c r="A280" s="85"/>
       <c r="B280" s="38">
         <v>78</v>
       </c>
@@ -30831,7 +30230,7 @@
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A281" s="83"/>
+      <c r="A281" s="85"/>
       <c r="B281" s="38">
         <v>79</v>
       </c>
@@ -30891,7 +30290,7 @@
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A282" s="83"/>
+      <c r="A282" s="85"/>
       <c r="B282" s="38">
         <v>80</v>
       </c>
@@ -30951,7 +30350,7 @@
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A283" s="83"/>
+      <c r="A283" s="85"/>
       <c r="B283" s="38">
         <v>81</v>
       </c>
@@ -31011,7 +30410,7 @@
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A284" s="83"/>
+      <c r="A284" s="85"/>
       <c r="B284" s="38">
         <v>82</v>
       </c>
@@ -31071,7 +30470,7 @@
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A285" s="83"/>
+      <c r="A285" s="85"/>
       <c r="B285" s="38">
         <v>83</v>
       </c>
@@ -31131,7 +30530,7 @@
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="83"/>
+      <c r="A286" s="85"/>
       <c r="B286" s="38">
         <v>84</v>
       </c>
@@ -31191,7 +30590,7 @@
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A287" s="83"/>
+      <c r="A287" s="85"/>
       <c r="B287" s="38">
         <v>85</v>
       </c>
@@ -31251,7 +30650,7 @@
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A288" s="83"/>
+      <c r="A288" s="85"/>
       <c r="B288" s="38">
         <v>86</v>
       </c>
@@ -31311,7 +30710,7 @@
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="83"/>
+      <c r="A289" s="85"/>
       <c r="B289" s="38">
         <v>87</v>
       </c>
@@ -31371,7 +30770,7 @@
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A290" s="83"/>
+      <c r="A290" s="85"/>
       <c r="B290" s="38">
         <v>88</v>
       </c>
@@ -31431,7 +30830,7 @@
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A291" s="83"/>
+      <c r="A291" s="85"/>
       <c r="B291" s="38">
         <v>89</v>
       </c>
@@ -31491,7 +30890,7 @@
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="83"/>
+      <c r="A292" s="85"/>
       <c r="B292" s="38">
         <v>90</v>
       </c>
@@ -31551,7 +30950,7 @@
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="83"/>
+      <c r="A293" s="85"/>
       <c r="B293" s="38">
         <v>91</v>
       </c>
@@ -31611,7 +31010,7 @@
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A294" s="83"/>
+      <c r="A294" s="85"/>
       <c r="B294" s="38">
         <v>92</v>
       </c>
@@ -31671,7 +31070,7 @@
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A295" s="83"/>
+      <c r="A295" s="85"/>
       <c r="B295" s="38">
         <v>93</v>
       </c>
@@ -31731,7 +31130,7 @@
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="83"/>
+      <c r="A296" s="85"/>
       <c r="B296" s="38">
         <v>94</v>
       </c>
@@ -31791,7 +31190,7 @@
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A297" s="83"/>
+      <c r="A297" s="85"/>
       <c r="B297" s="38">
         <v>95</v>
       </c>
@@ -31851,7 +31250,7 @@
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A298" s="83"/>
+      <c r="A298" s="85"/>
       <c r="B298" s="38">
         <v>96</v>
       </c>
@@ -31911,7 +31310,7 @@
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A299" s="83"/>
+      <c r="A299" s="85"/>
       <c r="B299" s="38">
         <v>97</v>
       </c>
@@ -31971,7 +31370,7 @@
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" s="83"/>
+      <c r="A300" s="85"/>
       <c r="B300" s="38">
         <v>98</v>
       </c>
@@ -32031,7 +31430,7 @@
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A301" s="83"/>
+      <c r="A301" s="85"/>
       <c r="B301" s="38">
         <v>99</v>
       </c>
@@ -32091,7 +31490,7 @@
       </c>
     </row>
     <row r="302" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="85"/>
+      <c r="A302" s="87"/>
       <c r="B302" s="39">
         <v>100</v>
       </c>
@@ -32188,34 +31587,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="92" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="89" t="s">
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="91"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="95"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
@@ -32499,75 +31898,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="106" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="100" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="102"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="104"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="103">
+      <c r="A2" s="85"/>
+      <c r="B2" s="105">
         <v>0.05</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106">
         <v>0.12</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="108">
+      <c r="G2" s="107"/>
+      <c r="H2" s="110">
         <v>0.05</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104">
+      <c r="I2" s="106"/>
+      <c r="J2" s="106">
         <v>0.12</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="103">
+      <c r="M2" s="111"/>
+      <c r="N2" s="105">
         <v>0.05</v>
       </c>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104">
+      <c r="O2" s="106"/>
+      <c r="P2" s="106">
         <v>0.12</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104" t="s">
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="105"/>
+      <c r="S2" s="107"/>
     </row>
     <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="52" t="s">
         <v>3</v>
       </c>
@@ -34838,7 +34237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -34851,20 +34250,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="95"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
@@ -34955,54 +34354,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="110"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
+      <c r="B14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -35020,8 +34391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Coursework Reports/4th assignment/xlsx4.xlsx
+++ b/Coursework Reports/4th assignment/xlsx4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2022B-48B0-4069-ACAC-B629EF4EDBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E8B0E-039E-42FA-A075-CB5F3FFC1EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -2499,7 +2499,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1251542256"/>
@@ -2560,7 +2560,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1164849071"/>
@@ -2618,7 +2618,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3589,7 +3589,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1251542256"/>
@@ -3650,7 +3650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1164849071"/>
@@ -3708,7 +3708,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4043,7 +4043,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1251542256"/>
@@ -4104,7 +4104,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1164849071"/>
@@ -4162,7 +4162,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4809,7 +4809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1251542256"/>
@@ -4870,7 +4870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1164849071"/>
@@ -4928,7 +4928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5682,7 +5682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1251542256"/>
@@ -5743,7 +5743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1164849071"/>
@@ -5801,7 +5801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7077,7 +7077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1251542256"/>
@@ -7138,7 +7138,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1164849071"/>
@@ -7196,7 +7196,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7272,13 +7272,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10436300422508704"/>
+          <c:y val="0.12359641738412952"/>
+          <c:w val="0.85820124738462134"/>
+          <c:h val="0.81167701536749204"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -8729,7 +8739,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8767,7 +8777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1401010159"/>
@@ -8852,7 +8862,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8890,7 +8900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1401008719"/>
@@ -8932,7 +8942,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8969,7 +8979,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13110,15 +13120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>259072</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>260078</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62271</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13129,7 +13139,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13439,21 +13451,21 @@
       <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="51" customWidth="1"/>
-    <col min="5" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="20" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="51" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
@@ -13489,7 +13501,7 @@
       <c r="S1" s="92"/>
       <c r="T1" s="93"/>
     </row>
-    <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97"/>
       <c r="B2" s="101"/>
       <c r="C2" s="100"/>
@@ -13543,7 +13555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="84">
         <v>0.05</v>
       </c>
@@ -13605,7 +13617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
       <c r="B4" s="38">
         <v>2</v>
@@ -13665,7 +13677,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="85"/>
       <c r="B5" s="38">
         <v>3</v>
@@ -13725,7 +13737,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="85"/>
       <c r="B6" s="38">
         <v>4</v>
@@ -13785,7 +13797,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="85"/>
       <c r="B7" s="38">
         <v>5</v>
@@ -13845,7 +13857,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="38">
         <v>6</v>
@@ -13905,7 +13917,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="85"/>
       <c r="B9" s="38">
         <v>7</v>
@@ -13965,7 +13977,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="85"/>
       <c r="B10" s="38">
         <v>8</v>
@@ -14025,7 +14037,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="85"/>
       <c r="B11" s="38">
         <v>9</v>
@@ -14085,7 +14097,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="85"/>
       <c r="B12" s="38">
         <v>10</v>
@@ -14145,7 +14157,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="85"/>
       <c r="B13" s="38">
         <v>11</v>
@@ -14205,7 +14217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="85"/>
       <c r="B14" s="38">
         <v>12</v>
@@ -14265,7 +14277,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="38">
         <v>13</v>
@@ -14325,7 +14337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="38">
         <v>14</v>
@@ -14385,7 +14397,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="85"/>
       <c r="B17" s="38">
         <v>15</v>
@@ -14445,7 +14457,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="85"/>
       <c r="B18" s="38">
         <v>16</v>
@@ -14505,7 +14517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="85"/>
       <c r="B19" s="38">
         <v>17</v>
@@ -14565,7 +14577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
       <c r="B20" s="38">
         <v>18</v>
@@ -14625,7 +14637,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="38">
         <v>19</v>
@@ -14685,7 +14697,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="38">
         <v>20</v>
@@ -14745,7 +14757,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="85"/>
       <c r="B23" s="38">
         <v>21</v>
@@ -14805,7 +14817,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
       <c r="B24" s="38">
         <v>22</v>
@@ -14865,7 +14877,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
       <c r="B25" s="38">
         <v>23</v>
@@ -14925,7 +14937,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="85"/>
       <c r="B26" s="38">
         <v>24</v>
@@ -14985,7 +14997,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="85"/>
       <c r="B27" s="38">
         <v>25</v>
@@ -15045,7 +15057,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="85"/>
       <c r="B28" s="38">
         <v>26</v>
@@ -15105,7 +15117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
       <c r="B29" s="38">
         <v>27</v>
@@ -15165,7 +15177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="85"/>
       <c r="B30" s="38">
         <v>28</v>
@@ -15225,7 +15237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="85"/>
       <c r="B31" s="38">
         <v>29</v>
@@ -15285,7 +15297,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="85"/>
       <c r="B32" s="38">
         <v>30</v>
@@ -15345,7 +15357,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="85"/>
       <c r="B33" s="38">
         <v>31</v>
@@ -15405,7 +15417,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="85"/>
       <c r="B34" s="38">
         <v>32</v>
@@ -15465,7 +15477,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="85"/>
       <c r="B35" s="38">
         <v>33</v>
@@ -15525,7 +15537,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="85"/>
       <c r="B36" s="38">
         <v>34</v>
@@ -15585,7 +15597,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="85"/>
       <c r="B37" s="38">
         <v>35</v>
@@ -15645,7 +15657,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="85"/>
       <c r="B38" s="38">
         <v>36</v>
@@ -15705,7 +15717,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="85"/>
       <c r="B39" s="38">
         <v>37</v>
@@ -15765,7 +15777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="85"/>
       <c r="B40" s="38">
         <v>38</v>
@@ -15825,7 +15837,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="85"/>
       <c r="B41" s="38">
         <v>39</v>
@@ -15885,7 +15897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="85"/>
       <c r="B42" s="38">
         <v>40</v>
@@ -15945,7 +15957,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="85"/>
       <c r="B43" s="38">
         <v>41</v>
@@ -16005,7 +16017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="85"/>
       <c r="B44" s="38">
         <v>42</v>
@@ -16065,7 +16077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="85"/>
       <c r="B45" s="38">
         <v>43</v>
@@ -16125,7 +16137,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="85"/>
       <c r="B46" s="38">
         <v>44</v>
@@ -16185,7 +16197,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="85"/>
       <c r="B47" s="38">
         <v>45</v>
@@ -16245,7 +16257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="85"/>
       <c r="B48" s="38">
         <v>46</v>
@@ -16305,7 +16317,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="85"/>
       <c r="B49" s="38">
         <v>47</v>
@@ -16365,7 +16377,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="85"/>
       <c r="B50" s="38">
         <v>48</v>
@@ -16425,7 +16437,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="85"/>
       <c r="B51" s="38">
         <v>49</v>
@@ -16485,7 +16497,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="85"/>
       <c r="B52" s="38">
         <v>50</v>
@@ -16545,7 +16557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="85"/>
       <c r="B53" s="38">
         <v>51</v>
@@ -16605,7 +16617,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="85"/>
       <c r="B54" s="38">
         <v>52</v>
@@ -16665,7 +16677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="85"/>
       <c r="B55" s="38">
         <v>53</v>
@@ -16725,7 +16737,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="85"/>
       <c r="B56" s="38">
         <v>54</v>
@@ -16785,7 +16797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="85"/>
       <c r="B57" s="38">
         <v>55</v>
@@ -16845,7 +16857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="85"/>
       <c r="B58" s="38">
         <v>56</v>
@@ -16905,7 +16917,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="85"/>
       <c r="B59" s="38">
         <v>57</v>
@@ -16965,7 +16977,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="85"/>
       <c r="B60" s="38">
         <v>58</v>
@@ -17025,7 +17037,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="85"/>
       <c r="B61" s="38">
         <v>59</v>
@@ -17085,7 +17097,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="85"/>
       <c r="B62" s="38">
         <v>60</v>
@@ -17145,7 +17157,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="85"/>
       <c r="B63" s="38">
         <v>61</v>
@@ -17205,7 +17217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="85"/>
       <c r="B64" s="38">
         <v>62</v>
@@ -17265,7 +17277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="85"/>
       <c r="B65" s="38">
         <v>63</v>
@@ -17325,7 +17337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="85"/>
       <c r="B66" s="38">
         <v>64</v>
@@ -17385,7 +17397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="85"/>
       <c r="B67" s="38">
         <v>65</v>
@@ -17445,7 +17457,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="85"/>
       <c r="B68" s="38">
         <v>66</v>
@@ -17505,7 +17517,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="85"/>
       <c r="B69" s="38">
         <v>67</v>
@@ -17565,7 +17577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="85"/>
       <c r="B70" s="38">
         <v>68</v>
@@ -17625,7 +17637,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="85"/>
       <c r="B71" s="38">
         <v>69</v>
@@ -17685,7 +17697,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="85"/>
       <c r="B72" s="38">
         <v>70</v>
@@ -17745,7 +17757,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="85"/>
       <c r="B73" s="38">
         <v>71</v>
@@ -17805,7 +17817,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="85"/>
       <c r="B74" s="38">
         <v>72</v>
@@ -17865,7 +17877,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="85"/>
       <c r="B75" s="38">
         <v>73</v>
@@ -17925,7 +17937,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="85"/>
       <c r="B76" s="38">
         <v>74</v>
@@ -17985,7 +17997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="85"/>
       <c r="B77" s="38">
         <v>75</v>
@@ -18045,7 +18057,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="85"/>
       <c r="B78" s="38">
         <v>76</v>
@@ -18105,7 +18117,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="85"/>
       <c r="B79" s="38">
         <v>77</v>
@@ -18165,7 +18177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="85"/>
       <c r="B80" s="38">
         <v>78</v>
@@ -18225,7 +18237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="85"/>
       <c r="B81" s="38">
         <v>79</v>
@@ -18285,7 +18297,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="85"/>
       <c r="B82" s="38">
         <v>80</v>
@@ -18345,7 +18357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="85"/>
       <c r="B83" s="38">
         <v>81</v>
@@ -18405,7 +18417,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="85"/>
       <c r="B84" s="38">
         <v>82</v>
@@ -18465,7 +18477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="85"/>
       <c r="B85" s="38">
         <v>83</v>
@@ -18525,7 +18537,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="85"/>
       <c r="B86" s="38">
         <v>84</v>
@@ -18585,7 +18597,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="85"/>
       <c r="B87" s="38">
         <v>85</v>
@@ -18645,7 +18657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="85"/>
       <c r="B88" s="38">
         <v>86</v>
@@ -18705,7 +18717,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="85"/>
       <c r="B89" s="38">
         <v>87</v>
@@ -18765,7 +18777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="85"/>
       <c r="B90" s="38">
         <v>88</v>
@@ -18825,7 +18837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="85"/>
       <c r="B91" s="38">
         <v>89</v>
@@ -18885,7 +18897,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="85"/>
       <c r="B92" s="38">
         <v>90</v>
@@ -18945,7 +18957,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="85"/>
       <c r="B93" s="38">
         <v>91</v>
@@ -19005,7 +19017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="85"/>
       <c r="B94" s="38">
         <v>92</v>
@@ -19065,7 +19077,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="85"/>
       <c r="B95" s="38">
         <v>93</v>
@@ -19125,7 +19137,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="85"/>
       <c r="B96" s="38">
         <v>94</v>
@@ -19185,7 +19197,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="85"/>
       <c r="B97" s="38">
         <v>95</v>
@@ -19245,7 +19257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="85"/>
       <c r="B98" s="38">
         <v>96</v>
@@ -19305,7 +19317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="85"/>
       <c r="B99" s="38">
         <v>97</v>
@@ -19365,7 +19377,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="85"/>
       <c r="B100" s="38">
         <v>98</v>
@@ -19425,7 +19437,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="85"/>
       <c r="B101" s="38">
         <v>99</v>
@@ -19485,7 +19497,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="86"/>
       <c r="B102" s="40">
         <v>100</v>
@@ -19545,7 +19557,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="84">
         <v>0.12</v>
       </c>
@@ -19607,7 +19619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="85"/>
       <c r="B104" s="38">
         <v>2</v>
@@ -19667,7 +19679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="85"/>
       <c r="B105" s="38">
         <v>3</v>
@@ -19727,7 +19739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="85"/>
       <c r="B106" s="38">
         <v>4</v>
@@ -19787,7 +19799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="85"/>
       <c r="B107" s="38">
         <v>5</v>
@@ -19847,7 +19859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="85"/>
       <c r="B108" s="38">
         <v>6</v>
@@ -19907,7 +19919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="85"/>
       <c r="B109" s="38">
         <v>7</v>
@@ -19967,7 +19979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="85"/>
       <c r="B110" s="38">
         <v>8</v>
@@ -20027,7 +20039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="85"/>
       <c r="B111" s="38">
         <v>9</v>
@@ -20087,7 +20099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="85"/>
       <c r="B112" s="38">
         <v>10</v>
@@ -20147,7 +20159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="85"/>
       <c r="B113" s="38">
         <v>11</v>
@@ -20207,7 +20219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="85"/>
       <c r="B114" s="38">
         <v>12</v>
@@ -20267,7 +20279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="85"/>
       <c r="B115" s="38">
         <v>13</v>
@@ -20327,7 +20339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="85"/>
       <c r="B116" s="38">
         <v>14</v>
@@ -20387,7 +20399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="85"/>
       <c r="B117" s="38">
         <v>15</v>
@@ -20447,7 +20459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="85"/>
       <c r="B118" s="38">
         <v>16</v>
@@ -20507,7 +20519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="85"/>
       <c r="B119" s="38">
         <v>17</v>
@@ -20567,7 +20579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="85"/>
       <c r="B120" s="38">
         <v>18</v>
@@ -20627,7 +20639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="85"/>
       <c r="B121" s="38">
         <v>19</v>
@@ -20687,7 +20699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="85"/>
       <c r="B122" s="38">
         <v>20</v>
@@ -20747,7 +20759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="85"/>
       <c r="B123" s="38">
         <v>21</v>
@@ -20807,7 +20819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="85"/>
       <c r="B124" s="38">
         <v>22</v>
@@ -20867,7 +20879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="85"/>
       <c r="B125" s="38">
         <v>23</v>
@@ -20927,7 +20939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="85"/>
       <c r="B126" s="38">
         <v>24</v>
@@ -20987,7 +20999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="85"/>
       <c r="B127" s="38">
         <v>25</v>
@@ -21047,7 +21059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="85"/>
       <c r="B128" s="38">
         <v>26</v>
@@ -21107,7 +21119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="85"/>
       <c r="B129" s="38">
         <v>27</v>
@@ -21167,7 +21179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="85"/>
       <c r="B130" s="38">
         <v>28</v>
@@ -21227,7 +21239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="85"/>
       <c r="B131" s="38">
         <v>29</v>
@@ -21287,7 +21299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="85"/>
       <c r="B132" s="38">
         <v>30</v>
@@ -21347,7 +21359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="85"/>
       <c r="B133" s="38">
         <v>31</v>
@@ -21407,7 +21419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="85"/>
       <c r="B134" s="38">
         <v>32</v>
@@ -21467,7 +21479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="85"/>
       <c r="B135" s="38">
         <v>33</v>
@@ -21527,7 +21539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="85"/>
       <c r="B136" s="38">
         <v>34</v>
@@ -21587,7 +21599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="85"/>
       <c r="B137" s="38">
         <v>35</v>
@@ -21647,7 +21659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="85"/>
       <c r="B138" s="38">
         <v>36</v>
@@ -21707,7 +21719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="85"/>
       <c r="B139" s="38">
         <v>37</v>
@@ -21767,7 +21779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="85"/>
       <c r="B140" s="38">
         <v>38</v>
@@ -21827,7 +21839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="85"/>
       <c r="B141" s="38">
         <v>39</v>
@@ -21887,7 +21899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="85"/>
       <c r="B142" s="38">
         <v>40</v>
@@ -21947,7 +21959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="85"/>
       <c r="B143" s="38">
         <v>41</v>
@@ -22007,7 +22019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="85"/>
       <c r="B144" s="38">
         <v>42</v>
@@ -22067,7 +22079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="85"/>
       <c r="B145" s="38">
         <v>43</v>
@@ -22127,7 +22139,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="85"/>
       <c r="B146" s="38">
         <v>44</v>
@@ -22187,7 +22199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="85"/>
       <c r="B147" s="38">
         <v>45</v>
@@ -22247,7 +22259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="85"/>
       <c r="B148" s="38">
         <v>46</v>
@@ -22307,7 +22319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="85"/>
       <c r="B149" s="38">
         <v>47</v>
@@ -22367,7 +22379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="85"/>
       <c r="B150" s="38">
         <v>48</v>
@@ -22427,7 +22439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="85"/>
       <c r="B151" s="38">
         <v>49</v>
@@ -22487,7 +22499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="85"/>
       <c r="B152" s="38">
         <v>50</v>
@@ -22547,7 +22559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="85"/>
       <c r="B153" s="38">
         <v>51</v>
@@ -22607,7 +22619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="85"/>
       <c r="B154" s="38">
         <v>52</v>
@@ -22667,7 +22679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="85"/>
       <c r="B155" s="38">
         <v>53</v>
@@ -22727,7 +22739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="85"/>
       <c r="B156" s="38">
         <v>54</v>
@@ -22787,7 +22799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="85"/>
       <c r="B157" s="38">
         <v>55</v>
@@ -22847,7 +22859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="85"/>
       <c r="B158" s="38">
         <v>56</v>
@@ -22907,7 +22919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="85"/>
       <c r="B159" s="38">
         <v>57</v>
@@ -22967,7 +22979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="85"/>
       <c r="B160" s="38">
         <v>58</v>
@@ -23027,7 +23039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="85"/>
       <c r="B161" s="38">
         <v>59</v>
@@ -23087,7 +23099,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="85"/>
       <c r="B162" s="38">
         <v>60</v>
@@ -23147,7 +23159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="85"/>
       <c r="B163" s="38">
         <v>61</v>
@@ -23207,7 +23219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="85"/>
       <c r="B164" s="38">
         <v>62</v>
@@ -23267,7 +23279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="85"/>
       <c r="B165" s="38">
         <v>63</v>
@@ -23327,7 +23339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="85"/>
       <c r="B166" s="38">
         <v>64</v>
@@ -23387,7 +23399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="85"/>
       <c r="B167" s="38">
         <v>65</v>
@@ -23447,7 +23459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="85"/>
       <c r="B168" s="38">
         <v>66</v>
@@ -23507,7 +23519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="85"/>
       <c r="B169" s="38">
         <v>67</v>
@@ -23567,7 +23579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="85"/>
       <c r="B170" s="38">
         <v>68</v>
@@ -23627,7 +23639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="85"/>
       <c r="B171" s="38">
         <v>69</v>
@@ -23687,7 +23699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="85"/>
       <c r="B172" s="38">
         <v>70</v>
@@ -23747,7 +23759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="85"/>
       <c r="B173" s="38">
         <v>71</v>
@@ -23807,7 +23819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="85"/>
       <c r="B174" s="38">
         <v>72</v>
@@ -23867,7 +23879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="85"/>
       <c r="B175" s="38">
         <v>73</v>
@@ -23927,7 +23939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="85"/>
       <c r="B176" s="38">
         <v>74</v>
@@ -23987,7 +23999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="85"/>
       <c r="B177" s="38">
         <v>75</v>
@@ -24047,7 +24059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="85"/>
       <c r="B178" s="38">
         <v>76</v>
@@ -24107,7 +24119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="85"/>
       <c r="B179" s="38">
         <v>77</v>
@@ -24167,7 +24179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="85"/>
       <c r="B180" s="38">
         <v>78</v>
@@ -24227,7 +24239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="85"/>
       <c r="B181" s="38">
         <v>79</v>
@@ -24287,7 +24299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="85"/>
       <c r="B182" s="38">
         <v>80</v>
@@ -24347,7 +24359,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="85"/>
       <c r="B183" s="38">
         <v>81</v>
@@ -24407,7 +24419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="85"/>
       <c r="B184" s="38">
         <v>82</v>
@@ -24467,7 +24479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="85"/>
       <c r="B185" s="38">
         <v>83</v>
@@ -24527,7 +24539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="85"/>
       <c r="B186" s="38">
         <v>84</v>
@@ -24587,7 +24599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="85"/>
       <c r="B187" s="38">
         <v>85</v>
@@ -24647,7 +24659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="85"/>
       <c r="B188" s="38">
         <v>86</v>
@@ -24707,7 +24719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="85"/>
       <c r="B189" s="38">
         <v>87</v>
@@ -24767,7 +24779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="85"/>
       <c r="B190" s="38">
         <v>88</v>
@@ -24827,7 +24839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="85"/>
       <c r="B191" s="38">
         <v>89</v>
@@ -24887,7 +24899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
       <c r="B192" s="38">
         <v>90</v>
@@ -24947,7 +24959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="85"/>
       <c r="B193" s="38">
         <v>91</v>
@@ -25007,7 +25019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="85"/>
       <c r="B194" s="38">
         <v>92</v>
@@ -25067,7 +25079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
       <c r="B195" s="38">
         <v>93</v>
@@ -25127,7 +25139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="85"/>
       <c r="B196" s="38">
         <v>94</v>
@@ -25187,7 +25199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="85"/>
       <c r="B197" s="38">
         <v>95</v>
@@ -25247,7 +25259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="85"/>
       <c r="B198" s="38">
         <v>96</v>
@@ -25307,7 +25319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="85"/>
       <c r="B199" s="38">
         <v>97</v>
@@ -25367,7 +25379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="85"/>
       <c r="B200" s="38">
         <v>98</v>
@@ -25427,7 +25439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="85"/>
       <c r="B201" s="38">
         <v>99</v>
@@ -25487,7 +25499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="87"/>
       <c r="B202" s="39">
         <v>100</v>
@@ -25547,7 +25559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="88" t="s">
         <v>13</v>
       </c>
@@ -25609,7 +25621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="85"/>
       <c r="B204" s="38">
         <v>2</v>
@@ -25669,7 +25681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
       <c r="B205" s="38">
         <v>3</v>
@@ -25729,7 +25741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="85"/>
       <c r="B206" s="38">
         <v>4</v>
@@ -25789,7 +25801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="85"/>
       <c r="B207" s="38">
         <v>5</v>
@@ -25849,7 +25861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="85"/>
       <c r="B208" s="38">
         <v>6</v>
@@ -25909,7 +25921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="85"/>
       <c r="B209" s="38">
         <v>7</v>
@@ -25969,7 +25981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="85"/>
       <c r="B210" s="38">
         <v>8</v>
@@ -26029,7 +26041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="85"/>
       <c r="B211" s="38">
         <v>9</v>
@@ -26089,7 +26101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
       <c r="B212" s="38">
         <v>10</v>
@@ -26149,7 +26161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="85"/>
       <c r="B213" s="38">
         <v>11</v>
@@ -26209,7 +26221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="85"/>
       <c r="B214" s="38">
         <v>12</v>
@@ -26269,7 +26281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="85"/>
       <c r="B215" s="38">
         <v>13</v>
@@ -26329,7 +26341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="85"/>
       <c r="B216" s="38">
         <v>14</v>
@@ -26389,7 +26401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
       <c r="B217" s="38">
         <v>15</v>
@@ -26449,7 +26461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="85"/>
       <c r="B218" s="38">
         <v>16</v>
@@ -26509,7 +26521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="85"/>
       <c r="B219" s="38">
         <v>17</v>
@@ -26569,7 +26581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="85"/>
       <c r="B220" s="38">
         <v>18</v>
@@ -26629,7 +26641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="85"/>
       <c r="B221" s="38">
         <v>19</v>
@@ -26689,7 +26701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="85"/>
       <c r="B222" s="38">
         <v>20</v>
@@ -26749,7 +26761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="85"/>
       <c r="B223" s="38">
         <v>21</v>
@@ -26809,7 +26821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
       <c r="B224" s="38">
         <v>22</v>
@@ -26869,7 +26881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="85"/>
       <c r="B225" s="38">
         <v>23</v>
@@ -26929,7 +26941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="85"/>
       <c r="B226" s="38">
         <v>24</v>
@@ -26989,7 +27001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="85"/>
       <c r="B227" s="38">
         <v>25</v>
@@ -27049,7 +27061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="85"/>
       <c r="B228" s="38">
         <v>26</v>
@@ -27109,7 +27121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="85"/>
       <c r="B229" s="38">
         <v>27</v>
@@ -27169,7 +27181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="85"/>
       <c r="B230" s="38">
         <v>28</v>
@@ -27229,7 +27241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="85"/>
       <c r="B231" s="38">
         <v>29</v>
@@ -27289,7 +27301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="85"/>
       <c r="B232" s="38">
         <v>30</v>
@@ -27349,7 +27361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="85"/>
       <c r="B233" s="38">
         <v>31</v>
@@ -27409,7 +27421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="85"/>
       <c r="B234" s="38">
         <v>32</v>
@@ -27469,7 +27481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="85"/>
       <c r="B235" s="38">
         <v>33</v>
@@ -27529,7 +27541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="85"/>
       <c r="B236" s="38">
         <v>34</v>
@@ -27589,7 +27601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="85"/>
       <c r="B237" s="38">
         <v>35</v>
@@ -27649,7 +27661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="85"/>
       <c r="B238" s="38">
         <v>36</v>
@@ -27709,7 +27721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="85"/>
       <c r="B239" s="38">
         <v>37</v>
@@ -27769,7 +27781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="85"/>
       <c r="B240" s="38">
         <v>38</v>
@@ -27829,7 +27841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="85"/>
       <c r="B241" s="38">
         <v>39</v>
@@ -27889,7 +27901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="85"/>
       <c r="B242" s="38">
         <v>40</v>
@@ -27949,7 +27961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="85"/>
       <c r="B243" s="38">
         <v>41</v>
@@ -28009,7 +28021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="85"/>
       <c r="B244" s="38">
         <v>42</v>
@@ -28069,7 +28081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="85"/>
       <c r="B245" s="38">
         <v>43</v>
@@ -28129,7 +28141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="85"/>
       <c r="B246" s="38">
         <v>44</v>
@@ -28189,7 +28201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="85"/>
       <c r="B247" s="38">
         <v>45</v>
@@ -28249,7 +28261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="85"/>
       <c r="B248" s="38">
         <v>46</v>
@@ -28309,7 +28321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="85"/>
       <c r="B249" s="38">
         <v>47</v>
@@ -28369,7 +28381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="85"/>
       <c r="B250" s="38">
         <v>48</v>
@@ -28429,7 +28441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="85"/>
       <c r="B251" s="38">
         <v>49</v>
@@ -28489,7 +28501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="85"/>
       <c r="B252" s="38">
         <v>50</v>
@@ -28549,7 +28561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="85"/>
       <c r="B253" s="38">
         <v>51</v>
@@ -28609,7 +28621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="85"/>
       <c r="B254" s="38">
         <v>52</v>
@@ -28669,7 +28681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="85"/>
       <c r="B255" s="38">
         <v>53</v>
@@ -28729,7 +28741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="85"/>
       <c r="B256" s="38">
         <v>54</v>
@@ -28789,7 +28801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="85"/>
       <c r="B257" s="38">
         <v>55</v>
@@ -28849,7 +28861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="85"/>
       <c r="B258" s="38">
         <v>56</v>
@@ -28909,7 +28921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="85"/>
       <c r="B259" s="38">
         <v>57</v>
@@ -28969,7 +28981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="85"/>
       <c r="B260" s="38">
         <v>58</v>
@@ -29029,7 +29041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="85"/>
       <c r="B261" s="38">
         <v>59</v>
@@ -29089,7 +29101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="85"/>
       <c r="B262" s="38">
         <v>60</v>
@@ -29149,7 +29161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="85"/>
       <c r="B263" s="38">
         <v>61</v>
@@ -29209,7 +29221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="85"/>
       <c r="B264" s="38">
         <v>62</v>
@@ -29269,7 +29281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="85"/>
       <c r="B265" s="38">
         <v>63</v>
@@ -29329,7 +29341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="85"/>
       <c r="B266" s="38">
         <v>64</v>
@@ -29389,7 +29401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="85"/>
       <c r="B267" s="38">
         <v>65</v>
@@ -29449,7 +29461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="85"/>
       <c r="B268" s="38">
         <v>66</v>
@@ -29509,7 +29521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="85"/>
       <c r="B269" s="38">
         <v>67</v>
@@ -29569,7 +29581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="85"/>
       <c r="B270" s="38">
         <v>68</v>
@@ -29629,7 +29641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="85"/>
       <c r="B271" s="38">
         <v>69</v>
@@ -29689,7 +29701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="85"/>
       <c r="B272" s="38">
         <v>70</v>
@@ -29749,7 +29761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="85"/>
       <c r="B273" s="38">
         <v>71</v>
@@ -29809,7 +29821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="85"/>
       <c r="B274" s="38">
         <v>72</v>
@@ -29869,7 +29881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="85"/>
       <c r="B275" s="38">
         <v>73</v>
@@ -29929,7 +29941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="85"/>
       <c r="B276" s="38">
         <v>74</v>
@@ -29989,7 +30001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="85"/>
       <c r="B277" s="38">
         <v>75</v>
@@ -30049,7 +30061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="85"/>
       <c r="B278" s="38">
         <v>76</v>
@@ -30109,7 +30121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="85"/>
       <c r="B279" s="38">
         <v>77</v>
@@ -30169,7 +30181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="85"/>
       <c r="B280" s="38">
         <v>78</v>
@@ -30229,7 +30241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="85"/>
       <c r="B281" s="38">
         <v>79</v>
@@ -30289,7 +30301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="85"/>
       <c r="B282" s="38">
         <v>80</v>
@@ -30349,7 +30361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="85"/>
       <c r="B283" s="38">
         <v>81</v>
@@ -30409,7 +30421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="85"/>
       <c r="B284" s="38">
         <v>82</v>
@@ -30469,7 +30481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="85"/>
       <c r="B285" s="38">
         <v>83</v>
@@ -30529,7 +30541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="85"/>
       <c r="B286" s="38">
         <v>84</v>
@@ -30589,7 +30601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="85"/>
       <c r="B287" s="38">
         <v>85</v>
@@ -30649,7 +30661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="85"/>
       <c r="B288" s="38">
         <v>86</v>
@@ -30709,7 +30721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="85"/>
       <c r="B289" s="38">
         <v>87</v>
@@ -30769,7 +30781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="85"/>
       <c r="B290" s="38">
         <v>88</v>
@@ -30829,7 +30841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="85"/>
       <c r="B291" s="38">
         <v>89</v>
@@ -30889,7 +30901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="85"/>
       <c r="B292" s="38">
         <v>90</v>
@@ -30949,7 +30961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="85"/>
       <c r="B293" s="38">
         <v>91</v>
@@ -31009,7 +31021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="85"/>
       <c r="B294" s="38">
         <v>92</v>
@@ -31069,7 +31081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="85"/>
       <c r="B295" s="38">
         <v>93</v>
@@ -31129,7 +31141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="85"/>
       <c r="B296" s="38">
         <v>94</v>
@@ -31189,7 +31201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="85"/>
       <c r="B297" s="38">
         <v>95</v>
@@ -31249,7 +31261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="85"/>
       <c r="B298" s="38">
         <v>96</v>
@@ -31309,7 +31321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="85"/>
       <c r="B299" s="38">
         <v>97</v>
@@ -31369,7 +31381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="85"/>
       <c r="B300" s="38">
         <v>98</v>
@@ -31429,7 +31441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="85"/>
       <c r="B301" s="38">
         <v>99</v>
@@ -31489,7 +31501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="87"/>
       <c r="B302" s="39">
         <v>100</v>
@@ -31575,18 +31587,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="26" customWidth="1"/>
-    <col min="2" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="17" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
@@ -31613,7 +31625,7 @@
       <c r="P1" s="92"/>
       <c r="Q1" s="93"/>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97"/>
       <c r="B2" s="23" t="s">
         <v>3</v>
@@ -31664,7 +31676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>0.05</v>
       </c>
@@ -31733,7 +31745,7 @@
         <v>117.94</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>0.12</v>
       </c>
@@ -31802,7 +31814,7 @@
         <v>55.23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>13</v>
       </c>
@@ -31887,17 +31899,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P114" sqref="P114"/>
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="19" width="10.6640625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="19" width="10.7109375" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>15</v>
       </c>
@@ -31926,7 +31938,7 @@
       <c r="R1" s="103"/>
       <c r="S1" s="104"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="85"/>
       <c r="B2" s="105">
         <v>0.05</v>
@@ -31965,7 +31977,7 @@
       </c>
       <c r="S2" s="107"/>
     </row>
-    <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
       <c r="B3" s="52" t="s">
         <v>3</v>
@@ -32022,7 +32034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>0</v>
       </c>
@@ -32081,7 +32093,7 @@
         <v>5.9916999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -32140,7 +32152,7 @@
         <v>2.99959</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -32199,7 +32211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -32254,7 +32266,7 @@
       <c r="R7" s="63"/>
       <c r="S7" s="64"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
@@ -32309,7 +32321,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -32360,7 +32372,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>14</v>
       </c>
@@ -32407,7 +32419,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="67">
         <v>1.5533300000000001</v>
       </c>
@@ -32445,7 +32457,7 @@
         <v>4.2226299999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="67">
         <v>1.4979899999999999</v>
       </c>
@@ -32483,7 +32495,7 @@
         <v>4.07592</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="67">
         <v>1.4481900000000001</v>
       </c>
@@ -32515,7 +32527,7 @@
         <v>3.9468100000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="67">
         <v>1.40337</v>
       </c>
@@ -32547,7 +32559,7 @@
         <v>3.8331900000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="67">
         <v>1.36304</v>
       </c>
@@ -32579,7 +32591,7 @@
         <v>3.7332100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="67">
         <v>1.32673</v>
       </c>
@@ -32611,7 +32623,7 @@
         <v>3.6452200000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="67">
         <v>1.29406</v>
       </c>
@@ -32643,7 +32655,7 @@
         <v>3.5678000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="67">
         <v>1.2646500000000001</v>
       </c>
@@ -32675,7 +32687,7 @@
         <v>3.49966</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="67">
         <v>1.2381899999999999</v>
       </c>
@@ -32707,7 +32719,7 @@
         <v>3.4397000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="67">
         <v>1.2143699999999999</v>
       </c>
@@ -32739,7 +32751,7 @@
         <v>3.3869400000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="67">
         <v>1.19293</v>
       </c>
@@ -32771,7 +32783,7 @@
         <v>3.3405</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="67">
         <v>1.17364</v>
       </c>
@@ -32803,7 +32815,7 @@
         <v>3.2996400000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="67">
         <v>1.15628</v>
       </c>
@@ -32835,7 +32847,7 @@
         <v>3.26369</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="67">
         <v>1.1406499999999999</v>
       </c>
@@ -32867,7 +32879,7 @@
         <v>3.23204</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="67">
         <v>1.1265799999999999</v>
       </c>
@@ -32899,7 +32911,7 @@
         <v>3.2042000000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="67">
         <v>1.11392</v>
       </c>
@@ -32925,7 +32937,7 @@
         <v>3.1797</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="67">
         <v>1.10253</v>
       </c>
@@ -32951,7 +32963,7 @@
         <v>3.1581299999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="67">
         <v>1.0922799999999999</v>
       </c>
@@ -32977,7 +32989,7 @@
         <v>3.13916</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="67">
         <v>1.0830500000000001</v>
       </c>
@@ -33003,7 +33015,7 @@
         <v>3.1224599999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="67">
         <v>1.0747500000000001</v>
       </c>
@@ -33029,7 +33041,7 @@
         <v>3.1077599999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="67">
         <v>1.0672699999999999</v>
       </c>
@@ -33055,7 +33067,7 @@
         <v>3.09483</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="67">
         <v>1.06054</v>
       </c>
@@ -33081,7 +33093,7 @@
         <v>3.08345</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="67">
         <v>1.0544899999999999</v>
       </c>
@@ -33107,7 +33119,7 @@
         <v>3.0734400000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="67">
         <v>1.04904</v>
       </c>
@@ -33133,7 +33145,7 @@
         <v>3.0646200000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="67">
         <v>1.0441400000000001</v>
       </c>
@@ -33159,7 +33171,7 @@
         <v>3.05687</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="67">
         <v>1.03972</v>
       </c>
@@ -33185,7 +33197,7 @@
         <v>3.0500500000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="67">
         <v>1.0357499999999999</v>
       </c>
@@ -33211,7 +33223,7 @@
         <v>3.0440399999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="67">
         <v>1.0321800000000001</v>
       </c>
@@ -33237,7 +33249,7 @@
         <v>3.0387599999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="67">
         <v>1.0289600000000001</v>
       </c>
@@ -33263,7 +33275,7 @@
         <v>3.0341</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="67">
         <v>1.02606</v>
       </c>
@@ -33289,7 +33301,7 @@
         <v>3.0300099999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="67">
         <v>1.02346</v>
       </c>
@@ -33315,7 +33327,7 @@
         <v>3.0264099999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="67">
         <v>1.02111</v>
       </c>
@@ -33341,7 +33353,7 @@
         <v>3.0232399999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="67">
         <v>1.0189999999999999</v>
       </c>
@@ -33367,7 +33379,7 @@
         <v>3.0204499999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="67">
         <v>1.0170999999999999</v>
       </c>
@@ -33393,7 +33405,7 @@
         <v>3.0179999999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="67">
         <v>1.01539</v>
       </c>
@@ -33419,7 +33431,7 @@
         <v>3.0158399999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="67">
         <v>1.0138499999999999</v>
       </c>
@@ -33445,7 +33457,7 @@
         <v>3.0139399999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="67">
         <v>1.01247</v>
       </c>
@@ -33471,7 +33483,7 @@
         <v>3.01227</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="67">
         <v>1.01122</v>
       </c>
@@ -33497,7 +33509,7 @@
         <v>3.0107900000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="67">
         <v>1.0101</v>
       </c>
@@ -33523,7 +33535,7 @@
         <v>3.0095000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="67">
         <v>1.00909</v>
       </c>
@@ -33549,7 +33561,7 @@
         <v>3.0083600000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="67">
         <v>1.0081800000000001</v>
       </c>
@@ -33575,7 +33587,7 @@
         <v>3.0073599999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="67">
         <v>1.00736</v>
       </c>
@@ -33601,7 +33613,7 @@
         <v>3.0064700000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="67">
         <v>1.0066200000000001</v>
       </c>
@@ -33627,7 +33639,7 @@
         <v>3.0057</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="67">
         <v>1.00596</v>
       </c>
@@ -33653,7 +33665,7 @@
         <v>3.00501</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J55" s="67">
         <v>0.999498</v>
       </c>
@@ -33673,7 +33685,7 @@
         <v>3.00441</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J56" s="67">
         <v>1.0006600000000001</v>
       </c>
@@ -33693,7 +33705,7 @@
         <v>3.0038800000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J57" s="67">
         <v>1.0017400000000001</v>
       </c>
@@ -33713,7 +33725,7 @@
         <v>3.0034200000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J58" s="67">
         <v>1.0003200000000001</v>
       </c>
@@ -33727,7 +33739,7 @@
         <v>3.1875</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J59" s="67">
         <v>0.999579</v>
       </c>
@@ -33741,7 +33753,7 @@
         <v>3.1781199999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J60" s="67">
         <v>0.99888500000000002</v>
       </c>
@@ -33755,7 +33767,7 @@
         <v>3.1692200000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N61" s="67">
         <v>1.28508</v>
       </c>
@@ -33763,7 +33775,7 @@
         <v>3.1607500000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N62" s="67">
         <v>1.2708299999999999</v>
       </c>
@@ -33771,7 +33783,7 @@
         <v>3.15272</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N63" s="67">
         <v>1.25728</v>
       </c>
@@ -33779,7 +33791,7 @@
         <v>3.1450800000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N64" s="67">
         <v>1.2444200000000001</v>
       </c>
@@ -33787,7 +33799,7 @@
         <v>3.1378300000000001</v>
       </c>
     </row>
-    <row r="65" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N65" s="67">
         <v>1.2322</v>
       </c>
@@ -33795,7 +33807,7 @@
         <v>3.1309399999999998</v>
       </c>
     </row>
-    <row r="66" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N66" s="67">
         <v>1.2205900000000001</v>
       </c>
@@ -33803,7 +33815,7 @@
         <v>3.12439</v>
       </c>
     </row>
-    <row r="67" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N67" s="67">
         <v>1.20956</v>
       </c>
@@ -33811,7 +33823,7 @@
         <v>3.1181700000000001</v>
       </c>
     </row>
-    <row r="68" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N68" s="67">
         <v>1.1990799999999999</v>
       </c>
@@ -33819,7 +33831,7 @@
         <v>3.11226</v>
       </c>
     </row>
-    <row r="69" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N69" s="67">
         <v>1.18913</v>
       </c>
@@ -33827,7 +33839,7 @@
         <v>3.1066500000000001</v>
       </c>
     </row>
-    <row r="70" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N70" s="67">
         <v>1.17967</v>
       </c>
@@ -33835,7 +33847,7 @@
         <v>3.1013199999999999</v>
       </c>
     </row>
-    <row r="71" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N71" s="67">
         <v>1.17069</v>
       </c>
@@ -33843,7 +33855,7 @@
         <v>3.0962499999999999</v>
       </c>
     </row>
-    <row r="72" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N72" s="67">
         <v>1.16215</v>
       </c>
@@ -33851,7 +33863,7 @@
         <v>3.09144</v>
       </c>
     </row>
-    <row r="73" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N73" s="67">
         <v>1.15405</v>
       </c>
@@ -33859,7 +33871,7 @@
         <v>3.0868699999999998</v>
       </c>
     </row>
-    <row r="74" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N74" s="67">
         <v>1.1463399999999999</v>
       </c>
@@ -33867,7 +33879,7 @@
         <v>3.0825200000000001</v>
       </c>
     </row>
-    <row r="75" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N75" s="67">
         <v>1.13903</v>
       </c>
@@ -33875,7 +33887,7 @@
         <v>3.0783999999999998</v>
       </c>
     </row>
-    <row r="76" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N76" s="67">
         <v>1.1320699999999999</v>
       </c>
@@ -33883,7 +33895,7 @@
         <v>3.0744799999999999</v>
       </c>
     </row>
-    <row r="77" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N77" s="67">
         <v>1.12547</v>
       </c>
@@ -33891,7 +33903,7 @@
         <v>3.0707499999999999</v>
       </c>
     </row>
-    <row r="78" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N78" s="67">
         <v>1.1192</v>
       </c>
@@ -33899,7 +33911,7 @@
         <v>3.0672100000000002</v>
       </c>
     </row>
-    <row r="79" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N79" s="67">
         <v>1.11324</v>
       </c>
@@ -33907,7 +33919,7 @@
         <v>3.06385</v>
       </c>
     </row>
-    <row r="80" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N80" s="67">
         <v>1.10758</v>
       </c>
@@ -33915,7 +33927,7 @@
         <v>3.0606599999999999</v>
       </c>
     </row>
-    <row r="81" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N81" s="67">
         <v>1.1022000000000001</v>
       </c>
@@ -33923,7 +33935,7 @@
         <v>3.0576300000000001</v>
       </c>
     </row>
-    <row r="82" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N82" s="67">
         <v>1.0970899999999999</v>
       </c>
@@ -33931,7 +33943,7 @@
         <v>3.0547499999999999</v>
       </c>
     </row>
-    <row r="83" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N83" s="67">
         <v>1.09223</v>
       </c>
@@ -33939,7 +33951,7 @@
         <v>3.0520100000000001</v>
       </c>
     </row>
-    <row r="84" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N84" s="67">
         <v>1.08762</v>
       </c>
@@ -33947,7 +33959,7 @@
         <v>3.04941</v>
       </c>
     </row>
-    <row r="85" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N85" s="67">
         <v>1.08324</v>
       </c>
@@ -33955,7 +33967,7 @@
         <v>3.0469400000000002</v>
       </c>
     </row>
-    <row r="86" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N86" s="67">
         <v>1.07908</v>
       </c>
@@ -33963,7 +33975,7 @@
         <v>3.0445899999999999</v>
       </c>
     </row>
-    <row r="87" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N87" s="67">
         <v>1.0751200000000001</v>
       </c>
@@ -33971,7 +33983,7 @@
         <v>3.04236</v>
       </c>
     </row>
-    <row r="88" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N88" s="67">
         <v>1.0713699999999999</v>
       </c>
@@ -33979,7 +33991,7 @@
         <v>3.0402399999999998</v>
       </c>
     </row>
-    <row r="89" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N89" s="67">
         <v>1.0678000000000001</v>
       </c>
@@ -33987,7 +33999,7 @@
         <v>3.03823</v>
       </c>
     </row>
-    <row r="90" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N90" s="67">
         <v>1.0644100000000001</v>
       </c>
@@ -33995,7 +34007,7 @@
         <v>3.0363199999999999</v>
       </c>
     </row>
-    <row r="91" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N91" s="67">
         <v>1.0611900000000001</v>
       </c>
@@ -34003,7 +34015,7 @@
         <v>3.0345</v>
       </c>
     </row>
-    <row r="92" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N92" s="67">
         <v>1.05813</v>
       </c>
@@ -34011,7 +34023,7 @@
         <v>3.0327799999999998</v>
       </c>
     </row>
-    <row r="93" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N93" s="67">
         <v>1.05522</v>
       </c>
@@ -34019,7 +34031,7 @@
         <v>3.0311400000000002</v>
       </c>
     </row>
-    <row r="94" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N94" s="67">
         <v>1.05246</v>
       </c>
@@ -34027,7 +34039,7 @@
         <v>3.0295800000000002</v>
       </c>
     </row>
-    <row r="95" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N95" s="67">
         <v>1.0498400000000001</v>
       </c>
@@ -34035,7 +34047,7 @@
         <v>3.0280999999999998</v>
       </c>
     </row>
-    <row r="96" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N96" s="67">
         <v>1.04735</v>
       </c>
@@ -34043,7 +34055,7 @@
         <v>3.0266999999999999</v>
       </c>
     </row>
-    <row r="97" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N97" s="67">
         <v>1.04498</v>
       </c>
@@ -34051,7 +34063,7 @@
         <v>3.02536</v>
       </c>
     </row>
-    <row r="98" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N98" s="67">
         <v>1.0427299999999999</v>
       </c>
@@ -34059,7 +34071,7 @@
         <v>3.0240999999999998</v>
       </c>
     </row>
-    <row r="99" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N99" s="67">
         <v>1.0405899999999999</v>
       </c>
@@ -34067,7 +34079,7 @@
         <v>3.0228899999999999</v>
       </c>
     </row>
-    <row r="100" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N100" s="67">
         <v>1.0385599999999999</v>
       </c>
@@ -34075,7 +34087,7 @@
         <v>3.0217499999999999</v>
       </c>
     </row>
-    <row r="101" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N101" s="67">
         <v>1.03664</v>
       </c>
@@ -34083,7 +34095,7 @@
         <v>3.0206599999999999</v>
       </c>
     </row>
-    <row r="102" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N102" s="67">
         <v>1.0347999999999999</v>
       </c>
@@ -34091,7 +34103,7 @@
         <v>3.0196299999999998</v>
       </c>
     </row>
-    <row r="103" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N103" s="67">
         <v>1.0330600000000001</v>
       </c>
@@ -34099,7 +34111,7 @@
         <v>3.01864</v>
       </c>
     </row>
-    <row r="104" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N104" s="67">
         <v>1.0314099999999999</v>
       </c>
@@ -34107,7 +34119,7 @@
         <v>3.0177100000000001</v>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N105" s="67">
         <v>1.0298400000000001</v>
       </c>
@@ -34115,7 +34127,7 @@
         <v>3.0168300000000001</v>
       </c>
     </row>
-    <row r="106" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N106" s="67">
         <v>1.0283500000000001</v>
       </c>
@@ -34123,7 +34135,7 @@
         <v>3.0159899999999999</v>
       </c>
     </row>
-    <row r="107" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N107" s="67">
         <v>1.0269299999999999</v>
       </c>
@@ -34131,7 +34143,7 @@
         <v>3.01519</v>
       </c>
     </row>
-    <row r="108" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N108" s="67">
         <v>1.0255799999999999</v>
       </c>
@@ -34139,7 +34151,7 @@
         <v>3.0144299999999999</v>
       </c>
     </row>
-    <row r="109" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N109" s="67">
         <v>1.0243100000000001</v>
       </c>
@@ -34147,7 +34159,7 @@
         <v>3.0137100000000001</v>
       </c>
     </row>
-    <row r="110" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N110" s="67">
         <v>1.0230900000000001</v>
       </c>
@@ -34155,7 +34167,7 @@
         <v>3.01302</v>
       </c>
     </row>
-    <row r="111" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N111" s="67">
         <v>1.0219400000000001</v>
       </c>
@@ -34163,7 +34175,7 @@
         <v>3.0123700000000002</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N112" s="67">
         <v>1.02084</v>
       </c>
@@ -34171,7 +34183,7 @@
         <v>3.0117500000000001</v>
       </c>
     </row>
-    <row r="113" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N113" s="67">
         <v>1.0198</v>
       </c>
@@ -34179,7 +34191,7 @@
         <v>3.0111599999999998</v>
       </c>
     </row>
-    <row r="114" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N114" s="67">
         <v>1.01881</v>
       </c>
@@ -34187,7 +34199,7 @@
         <v>3.0106099999999998</v>
       </c>
     </row>
-    <row r="115" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N115" s="67">
         <v>1.0178700000000001</v>
       </c>
@@ -34195,7 +34207,7 @@
         <v>3.0100699999999998</v>
       </c>
     </row>
-    <row r="116" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N116" s="67">
         <v>1.0169699999999999</v>
       </c>
@@ -34203,7 +34215,7 @@
         <v>3.0095700000000001</v>
       </c>
     </row>
-    <row r="117" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N117" s="67">
         <v>1.0161199999999999</v>
       </c>
@@ -34241,15 +34253,15 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="26" customWidth="1"/>
-    <col min="2" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" customWidth="1"/>
+    <col min="2" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
@@ -34262,7 +34274,7 @@
       <c r="F1" s="92"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97"/>
       <c r="B2" s="23" t="s">
         <v>16</v>
@@ -34284,7 +34296,7 @@
       </c>
       <c r="H2" s="81"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>0.01</v>
       </c>
@@ -34307,7 +34319,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>1E-3</v>
       </c>
@@ -34330,7 +34342,7 @@
         <v>8480</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>1E-4</v>
       </c>
@@ -34353,7 +34365,7 @@
         <v>23791</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="112"/>
       <c r="B10" s="113"/>
       <c r="C10" s="113"/>
@@ -34362,7 +34374,7 @@
       <c r="F10" s="113"/>
       <c r="G10" s="113"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="112"/>
       <c r="B11" s="82"/>
       <c r="C11" s="82"/>
@@ -34372,7 +34384,7 @@
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="80"/>
     </row>
   </sheetData>
@@ -34391,16 +34403,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -34441,7 +34454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>57</v>
       </c>
@@ -34481,7 +34494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>86</v>
       </c>
@@ -34521,7 +34534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>86</v>
       </c>
@@ -34561,7 +34574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>71</v>
       </c>
@@ -34598,7 +34611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>75</v>
       </c>
@@ -34635,7 +34648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>84</v>
       </c>
@@ -34672,7 +34685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>89</v>
       </c>
@@ -34709,7 +34722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68</v>
       </c>
@@ -34746,7 +34759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50</v>
       </c>
@@ -34783,7 +34796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -34820,7 +34833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53</v>
       </c>
@@ -34857,7 +34870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
@@ -34894,7 +34907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40</v>
       </c>
@@ -34931,7 +34944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -34968,7 +34981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>97</v>
       </c>
@@ -35005,7 +35018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>35</v>
       </c>
@@ -35042,7 +35055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>59</v>
       </c>
@@ -35079,7 +35092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29</v>
       </c>
@@ -35116,7 +35129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -35153,7 +35166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>54</v>
       </c>
@@ -35190,7 +35203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -35227,7 +35240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>53</v>
       </c>
@@ -35264,7 +35277,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>66</v>
       </c>
@@ -35301,7 +35314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -35338,7 +35351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>43</v>
       </c>
@@ -35375,7 +35388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>70</v>
       </c>
@@ -35412,7 +35425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -35449,7 +35462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>64</v>
       </c>
@@ -35486,7 +35499,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>79</v>
       </c>
@@ -35523,7 +35536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
@@ -35560,7 +35573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>82</v>
       </c>
@@ -35597,7 +35610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -35634,7 +35647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50</v>
       </c>
@@ -35671,7 +35684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>95</v>
       </c>
@@ -35708,7 +35721,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -35745,7 +35758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -35782,7 +35795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71</v>
       </c>
@@ -35819,7 +35832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>26</v>
       </c>
@@ -35856,7 +35869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>75</v>
       </c>
@@ -35893,7 +35906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
@@ -35930,7 +35943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>23</v>
       </c>
@@ -35967,7 +35980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>87</v>
       </c>
@@ -36004,7 +36017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>92</v>
       </c>
@@ -36041,7 +36054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -36078,7 +36091,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -36115,7 +36128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -36152,7 +36165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>31</v>
       </c>
@@ -36189,7 +36202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -36226,7 +36239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>68</v>
       </c>
@@ -36263,7 +36276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>76</v>
       </c>
@@ -36300,7 +36313,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>86</v>
       </c>
@@ -36337,7 +36350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>60</v>
       </c>
@@ -36374,7 +36387,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>33</v>
       </c>
@@ -36411,7 +36424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
@@ -36448,7 +36461,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>78</v>
       </c>
@@ -36485,7 +36498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>51</v>
       </c>
@@ -36522,7 +36535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>40</v>
       </c>
@@ -36559,7 +36572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>36</v>
       </c>
@@ -36596,7 +36609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>51</v>
       </c>
@@ -36633,7 +36646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>46</v>
       </c>
@@ -36670,7 +36683,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>36</v>
       </c>
@@ -36707,7 +36720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>38</v>
       </c>
@@ -36744,7 +36757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>96</v>
       </c>
@@ -36781,7 +36794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>97</v>
       </c>
@@ -36818,7 +36831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>95</v>
       </c>
@@ -36855,7 +36868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>54</v>
       </c>
@@ -36892,7 +36905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>34</v>
       </c>
@@ -36929,7 +36942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>94</v>
       </c>
@@ -36966,7 +36979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>65</v>
       </c>
@@ -37003,7 +37016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>97</v>
       </c>
@@ -37040,7 +37053,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>51</v>
       </c>
@@ -37077,7 +37090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>37</v>
       </c>
@@ -37114,7 +37127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>77</v>
       </c>
@@ -37151,7 +37164,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>31</v>
       </c>
@@ -37188,7 +37201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>59</v>
       </c>
@@ -37225,7 +37238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>35</v>
       </c>
@@ -37262,7 +37275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>81</v>
       </c>
@@ -37299,7 +37312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>83</v>
       </c>
@@ -37336,7 +37349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -37373,7 +37386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>21</v>
       </c>
@@ -37410,7 +37423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>59</v>
       </c>
@@ -37447,7 +37460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>52</v>
       </c>
@@ -37484,7 +37497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>93</v>
       </c>
@@ -37521,7 +37534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>65</v>
       </c>
@@ -37558,7 +37571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>45</v>
       </c>
@@ -37595,7 +37608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>78</v>
       </c>
@@ -37632,7 +37645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>50</v>
       </c>
@@ -37669,7 +37682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>91</v>
       </c>
@@ -37706,7 +37719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>80</v>
       </c>
@@ -37743,7 +37756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>93</v>
       </c>
@@ -37780,7 +37793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>82</v>
       </c>
@@ -37817,7 +37830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>98</v>
       </c>
@@ -37854,7 +37867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>43</v>
       </c>
@@ -37891,7 +37904,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>38</v>
       </c>
@@ -37928,7 +37941,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>56</v>
       </c>
@@ -37965,7 +37978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>46</v>
       </c>
@@ -38002,7 +38015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>34</v>
       </c>
@@ -38039,7 +38052,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>52</v>
       </c>
@@ -38076,7 +38089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>82</v>
       </c>
@@ -38113,7 +38126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>74</v>
       </c>

--- a/Coursework Reports/4th assignment/xlsx4.xlsx
+++ b/Coursework Reports/4th assignment/xlsx4.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E8B0E-039E-42FA-A075-CB5F3FFC1EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4074F90-09E7-4E37-AEC8-1871920EB638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela 2" sheetId="8" r:id="rId2"/>
     <sheet name="Wykresy" sheetId="9" r:id="rId3"/>
     <sheet name="Klasyfikator" sheetId="13" r:id="rId4"/>
-    <sheet name="Wykres" sheetId="14" r:id="rId5"/>
+    <sheet name="Wykres" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t>Lp.</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>h = 0.0001</t>
+  </si>
+  <si>
+    <t>nie zbiega się</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1148,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>KROK</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 0,05</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1154,6 +1217,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>M. najszybszego spadku</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1514,7 +1580,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>seria2</c:v>
+            <c:v>M. gradientów sprzężonych</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1701,7 +1767,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>seria3</c:v>
+            <c:v>M. Newtona</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2585,6 +2651,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7529621805694513"/>
+          <c:y val="0.43947264114216128"/>
+          <c:w val="0.21795913597034056"/>
+          <c:h val="0.10077042254514507"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2643,7 +2750,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Krok</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 0,12</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2652,6 +2819,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>M. najszybszego spadku</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2759,6 +2929,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>M. gradientów sprzężonych</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3153,6 +3326,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>M. Newtona</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3675,6 +3851,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3733,7 +3940,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Metoda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> zmiennokrokowa</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3742,6 +4009,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>M. najszybszego spadku</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3831,6 +4101,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>M. gradientów sprzężonych</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3913,6 +4186,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>M. Newtona</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4129,6 +4405,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4187,7 +4494,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Metoda najszybszego spadku</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4196,6 +4558,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>0,05</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4555,6 +4920,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>0,12</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4661,6 +5029,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>M.zk</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4895,6 +5266,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4953,7 +5355,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Metoda gradientów sprzężonych</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4962,6 +5419,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>0,05</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -5146,6 +5606,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>0,12</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -5540,6 +6003,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>M. zk.</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -5768,6 +6234,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5826,7 +6323,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Metoda Newtona</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5835,6 +6387,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>0,05</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -6571,6 +7126,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>0,12</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -6947,6 +7505,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>M. zk.</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -7163,6 +7724,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7941,7 +8533,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71FD-4ADC-92A6-FB06FDB03CCF}"/>
+              <c16:uniqueId val="{00000000-F376-4E97-9AF1-525C350D28E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8594,7 +9186,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71FD-4ADC-92A6-FB06FDB03CCF}"/>
+              <c16:uniqueId val="{00000001-F376-4E97-9AF1-525C350D28E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8651,7 +9243,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-71FD-4ADC-92A6-FB06FDB03CCF}"/>
+              <c16:uniqueId val="{00000002-F376-4E97-9AF1-525C350D28E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12886,16 +13478,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>282942</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>29125</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514264</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>599514</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>34734</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>191684</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12924,16 +13516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>259772</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>145472</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>576344</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>40245</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12962,16 +13554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>331354</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>559026</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>109518</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13000,16 +13592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>623453</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>407346</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>96487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>229979</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>57564</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13038,16 +13630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>606137</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>46846</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>212663</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>57563</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13076,16 +13668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>554183</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>51956</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>218006</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160709</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>57565</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13119,23 +13711,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>259072</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19040</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10969</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>260078</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>62271</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11974</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
+        <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2C6728-BFE9-B7FF-6132-A02BC3FE3D31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9A392D-CDB9-4E9D-B8C1-CEA0D64CAB21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13451,21 +14043,21 @@
       <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="51" customWidth="1"/>
-    <col min="5" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="20" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="51" customWidth="1"/>
+    <col min="5" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="12" width="15.6328125" customWidth="1"/>
+    <col min="13" max="14" width="8.6328125" customWidth="1"/>
+    <col min="15" max="17" width="15.6328125" customWidth="1"/>
+    <col min="18" max="20" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
@@ -13501,7 +14093,7 @@
       <c r="S1" s="92"/>
       <c r="T1" s="93"/>
     </row>
-    <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="97"/>
       <c r="B2" s="101"/>
       <c r="C2" s="100"/>
@@ -13555,7 +14147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="84">
         <v>0.05</v>
       </c>
@@ -13617,7 +14209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="85"/>
       <c r="B4" s="38">
         <v>2</v>
@@ -13677,7 +14269,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="85"/>
       <c r="B5" s="38">
         <v>3</v>
@@ -13737,7 +14329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="85"/>
       <c r="B6" s="38">
         <v>4</v>
@@ -13797,7 +14389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="85"/>
       <c r="B7" s="38">
         <v>5</v>
@@ -13857,7 +14449,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
       <c r="B8" s="38">
         <v>6</v>
@@ -13917,7 +14509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="85"/>
       <c r="B9" s="38">
         <v>7</v>
@@ -13977,7 +14569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="85"/>
       <c r="B10" s="38">
         <v>8</v>
@@ -14037,7 +14629,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="85"/>
       <c r="B11" s="38">
         <v>9</v>
@@ -14097,7 +14689,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="85"/>
       <c r="B12" s="38">
         <v>10</v>
@@ -14157,7 +14749,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="85"/>
       <c r="B13" s="38">
         <v>11</v>
@@ -14217,7 +14809,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="85"/>
       <c r="B14" s="38">
         <v>12</v>
@@ -14277,7 +14869,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="85"/>
       <c r="B15" s="38">
         <v>13</v>
@@ -14337,7 +14929,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="85"/>
       <c r="B16" s="38">
         <v>14</v>
@@ -14397,7 +14989,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="85"/>
       <c r="B17" s="38">
         <v>15</v>
@@ -14457,7 +15049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="85"/>
       <c r="B18" s="38">
         <v>16</v>
@@ -14517,7 +15109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="85"/>
       <c r="B19" s="38">
         <v>17</v>
@@ -14577,7 +15169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="85"/>
       <c r="B20" s="38">
         <v>18</v>
@@ -14637,7 +15229,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="85"/>
       <c r="B21" s="38">
         <v>19</v>
@@ -14697,7 +15289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="85"/>
       <c r="B22" s="38">
         <v>20</v>
@@ -14757,7 +15349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="85"/>
       <c r="B23" s="38">
         <v>21</v>
@@ -14817,7 +15409,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="85"/>
       <c r="B24" s="38">
         <v>22</v>
@@ -14877,7 +15469,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="85"/>
       <c r="B25" s="38">
         <v>23</v>
@@ -14937,7 +15529,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="85"/>
       <c r="B26" s="38">
         <v>24</v>
@@ -14997,7 +15589,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="85"/>
       <c r="B27" s="38">
         <v>25</v>
@@ -15057,7 +15649,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="85"/>
       <c r="B28" s="38">
         <v>26</v>
@@ -15117,7 +15709,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="85"/>
       <c r="B29" s="38">
         <v>27</v>
@@ -15177,7 +15769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="85"/>
       <c r="B30" s="38">
         <v>28</v>
@@ -15237,7 +15829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="85"/>
       <c r="B31" s="38">
         <v>29</v>
@@ -15297,7 +15889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="85"/>
       <c r="B32" s="38">
         <v>30</v>
@@ -15357,7 +15949,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="85"/>
       <c r="B33" s="38">
         <v>31</v>
@@ -15417,7 +16009,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="85"/>
       <c r="B34" s="38">
         <v>32</v>
@@ -15477,7 +16069,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="85"/>
       <c r="B35" s="38">
         <v>33</v>
@@ -15537,7 +16129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="85"/>
       <c r="B36" s="38">
         <v>34</v>
@@ -15597,7 +16189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="85"/>
       <c r="B37" s="38">
         <v>35</v>
@@ -15657,7 +16249,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="85"/>
       <c r="B38" s="38">
         <v>36</v>
@@ -15717,7 +16309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="85"/>
       <c r="B39" s="38">
         <v>37</v>
@@ -15777,7 +16369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="85"/>
       <c r="B40" s="38">
         <v>38</v>
@@ -15837,7 +16429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="85"/>
       <c r="B41" s="38">
         <v>39</v>
@@ -15897,7 +16489,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="85"/>
       <c r="B42" s="38">
         <v>40</v>
@@ -15957,7 +16549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="85"/>
       <c r="B43" s="38">
         <v>41</v>
@@ -16017,7 +16609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="85"/>
       <c r="B44" s="38">
         <v>42</v>
@@ -16077,7 +16669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="85"/>
       <c r="B45" s="38">
         <v>43</v>
@@ -16137,7 +16729,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="85"/>
       <c r="B46" s="38">
         <v>44</v>
@@ -16197,7 +16789,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="85"/>
       <c r="B47" s="38">
         <v>45</v>
@@ -16257,7 +16849,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="85"/>
       <c r="B48" s="38">
         <v>46</v>
@@ -16317,7 +16909,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="85"/>
       <c r="B49" s="38">
         <v>47</v>
@@ -16377,7 +16969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="85"/>
       <c r="B50" s="38">
         <v>48</v>
@@ -16437,7 +17029,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="85"/>
       <c r="B51" s="38">
         <v>49</v>
@@ -16497,7 +17089,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="85"/>
       <c r="B52" s="38">
         <v>50</v>
@@ -16557,7 +17149,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="85"/>
       <c r="B53" s="38">
         <v>51</v>
@@ -16617,7 +17209,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="85"/>
       <c r="B54" s="38">
         <v>52</v>
@@ -16677,7 +17269,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="85"/>
       <c r="B55" s="38">
         <v>53</v>
@@ -16737,7 +17329,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="85"/>
       <c r="B56" s="38">
         <v>54</v>
@@ -16797,7 +17389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="85"/>
       <c r="B57" s="38">
         <v>55</v>
@@ -16857,7 +17449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="85"/>
       <c r="B58" s="38">
         <v>56</v>
@@ -16917,7 +17509,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="85"/>
       <c r="B59" s="38">
         <v>57</v>
@@ -16977,7 +17569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="85"/>
       <c r="B60" s="38">
         <v>58</v>
@@ -17037,7 +17629,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="85"/>
       <c r="B61" s="38">
         <v>59</v>
@@ -17097,7 +17689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="85"/>
       <c r="B62" s="38">
         <v>60</v>
@@ -17157,7 +17749,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="85"/>
       <c r="B63" s="38">
         <v>61</v>
@@ -17217,7 +17809,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="85"/>
       <c r="B64" s="38">
         <v>62</v>
@@ -17277,7 +17869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="85"/>
       <c r="B65" s="38">
         <v>63</v>
@@ -17337,7 +17929,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="85"/>
       <c r="B66" s="38">
         <v>64</v>
@@ -17397,7 +17989,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="85"/>
       <c r="B67" s="38">
         <v>65</v>
@@ -17457,7 +18049,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="85"/>
       <c r="B68" s="38">
         <v>66</v>
@@ -17517,7 +18109,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="85"/>
       <c r="B69" s="38">
         <v>67</v>
@@ -17577,7 +18169,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="85"/>
       <c r="B70" s="38">
         <v>68</v>
@@ -17637,7 +18229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="85"/>
       <c r="B71" s="38">
         <v>69</v>
@@ -17697,7 +18289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="85"/>
       <c r="B72" s="38">
         <v>70</v>
@@ -17757,7 +18349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="85"/>
       <c r="B73" s="38">
         <v>71</v>
@@ -17817,7 +18409,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="85"/>
       <c r="B74" s="38">
         <v>72</v>
@@ -17877,7 +18469,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="85"/>
       <c r="B75" s="38">
         <v>73</v>
@@ -17937,7 +18529,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="85"/>
       <c r="B76" s="38">
         <v>74</v>
@@ -17997,7 +18589,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="85"/>
       <c r="B77" s="38">
         <v>75</v>
@@ -18057,7 +18649,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="85"/>
       <c r="B78" s="38">
         <v>76</v>
@@ -18117,7 +18709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="85"/>
       <c r="B79" s="38">
         <v>77</v>
@@ -18177,7 +18769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="85"/>
       <c r="B80" s="38">
         <v>78</v>
@@ -18237,7 +18829,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="85"/>
       <c r="B81" s="38">
         <v>79</v>
@@ -18297,7 +18889,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="85"/>
       <c r="B82" s="38">
         <v>80</v>
@@ -18357,7 +18949,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="85"/>
       <c r="B83" s="38">
         <v>81</v>
@@ -18417,7 +19009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="85"/>
       <c r="B84" s="38">
         <v>82</v>
@@ -18477,7 +19069,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="85"/>
       <c r="B85" s="38">
         <v>83</v>
@@ -18537,7 +19129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="85"/>
       <c r="B86" s="38">
         <v>84</v>
@@ -18597,7 +19189,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="85"/>
       <c r="B87" s="38">
         <v>85</v>
@@ -18657,7 +19249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="85"/>
       <c r="B88" s="38">
         <v>86</v>
@@ -18717,7 +19309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="85"/>
       <c r="B89" s="38">
         <v>87</v>
@@ -18777,7 +19369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="85"/>
       <c r="B90" s="38">
         <v>88</v>
@@ -18837,7 +19429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="85"/>
       <c r="B91" s="38">
         <v>89</v>
@@ -18897,7 +19489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="85"/>
       <c r="B92" s="38">
         <v>90</v>
@@ -18957,7 +19549,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="85"/>
       <c r="B93" s="38">
         <v>91</v>
@@ -19017,7 +19609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="85"/>
       <c r="B94" s="38">
         <v>92</v>
@@ -19077,7 +19669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="85"/>
       <c r="B95" s="38">
         <v>93</v>
@@ -19137,7 +19729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="85"/>
       <c r="B96" s="38">
         <v>94</v>
@@ -19197,7 +19789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="85"/>
       <c r="B97" s="38">
         <v>95</v>
@@ -19257,7 +19849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="85"/>
       <c r="B98" s="38">
         <v>96</v>
@@ -19317,7 +19909,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="85"/>
       <c r="B99" s="38">
         <v>97</v>
@@ -19377,7 +19969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="85"/>
       <c r="B100" s="38">
         <v>98</v>
@@ -19437,7 +20029,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="85"/>
       <c r="B101" s="38">
         <v>99</v>
@@ -19497,7 +20089,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="86"/>
       <c r="B102" s="40">
         <v>100</v>
@@ -19557,7 +20149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="84">
         <v>0.12</v>
       </c>
@@ -19619,7 +20211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="85"/>
       <c r="B104" s="38">
         <v>2</v>
@@ -19679,7 +20271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="85"/>
       <c r="B105" s="38">
         <v>3</v>
@@ -19739,7 +20331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="85"/>
       <c r="B106" s="38">
         <v>4</v>
@@ -19799,7 +20391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="85"/>
       <c r="B107" s="38">
         <v>5</v>
@@ -19859,7 +20451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="85"/>
       <c r="B108" s="38">
         <v>6</v>
@@ -19919,7 +20511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="85"/>
       <c r="B109" s="38">
         <v>7</v>
@@ -19979,7 +20571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="85"/>
       <c r="B110" s="38">
         <v>8</v>
@@ -20039,7 +20631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="85"/>
       <c r="B111" s="38">
         <v>9</v>
@@ -20099,7 +20691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="85"/>
       <c r="B112" s="38">
         <v>10</v>
@@ -20159,7 +20751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="85"/>
       <c r="B113" s="38">
         <v>11</v>
@@ -20219,7 +20811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="85"/>
       <c r="B114" s="38">
         <v>12</v>
@@ -20279,7 +20871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="85"/>
       <c r="B115" s="38">
         <v>13</v>
@@ -20339,7 +20931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="85"/>
       <c r="B116" s="38">
         <v>14</v>
@@ -20399,7 +20991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="85"/>
       <c r="B117" s="38">
         <v>15</v>
@@ -20459,7 +21051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="85"/>
       <c r="B118" s="38">
         <v>16</v>
@@ -20519,7 +21111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="85"/>
       <c r="B119" s="38">
         <v>17</v>
@@ -20579,7 +21171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="85"/>
       <c r="B120" s="38">
         <v>18</v>
@@ -20639,7 +21231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="85"/>
       <c r="B121" s="38">
         <v>19</v>
@@ -20699,7 +21291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="85"/>
       <c r="B122" s="38">
         <v>20</v>
@@ -20759,7 +21351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="85"/>
       <c r="B123" s="38">
         <v>21</v>
@@ -20819,7 +21411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="85"/>
       <c r="B124" s="38">
         <v>22</v>
@@ -20879,7 +21471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="85"/>
       <c r="B125" s="38">
         <v>23</v>
@@ -20939,7 +21531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="85"/>
       <c r="B126" s="38">
         <v>24</v>
@@ -20999,7 +21591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="85"/>
       <c r="B127" s="38">
         <v>25</v>
@@ -21059,7 +21651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="85"/>
       <c r="B128" s="38">
         <v>26</v>
@@ -21119,7 +21711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="85"/>
       <c r="B129" s="38">
         <v>27</v>
@@ -21179,7 +21771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="85"/>
       <c r="B130" s="38">
         <v>28</v>
@@ -21239,7 +21831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="85"/>
       <c r="B131" s="38">
         <v>29</v>
@@ -21299,7 +21891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="85"/>
       <c r="B132" s="38">
         <v>30</v>
@@ -21359,7 +21951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="85"/>
       <c r="B133" s="38">
         <v>31</v>
@@ -21419,7 +22011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="85"/>
       <c r="B134" s="38">
         <v>32</v>
@@ -21479,7 +22071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="85"/>
       <c r="B135" s="38">
         <v>33</v>
@@ -21539,7 +22131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="85"/>
       <c r="B136" s="38">
         <v>34</v>
@@ -21599,7 +22191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="85"/>
       <c r="B137" s="38">
         <v>35</v>
@@ -21659,7 +22251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="85"/>
       <c r="B138" s="38">
         <v>36</v>
@@ -21719,7 +22311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="85"/>
       <c r="B139" s="38">
         <v>37</v>
@@ -21779,7 +22371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="85"/>
       <c r="B140" s="38">
         <v>38</v>
@@ -21839,7 +22431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="85"/>
       <c r="B141" s="38">
         <v>39</v>
@@ -21899,7 +22491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="85"/>
       <c r="B142" s="38">
         <v>40</v>
@@ -21959,7 +22551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="85"/>
       <c r="B143" s="38">
         <v>41</v>
@@ -22019,7 +22611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" s="85"/>
       <c r="B144" s="38">
         <v>42</v>
@@ -22079,7 +22671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="85"/>
       <c r="B145" s="38">
         <v>43</v>
@@ -22139,7 +22731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="85"/>
       <c r="B146" s="38">
         <v>44</v>
@@ -22199,7 +22791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="85"/>
       <c r="B147" s="38">
         <v>45</v>
@@ -22259,7 +22851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="85"/>
       <c r="B148" s="38">
         <v>46</v>
@@ -22319,7 +22911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="85"/>
       <c r="B149" s="38">
         <v>47</v>
@@ -22379,7 +22971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="85"/>
       <c r="B150" s="38">
         <v>48</v>
@@ -22439,7 +23031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="85"/>
       <c r="B151" s="38">
         <v>49</v>
@@ -22499,7 +23091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="85"/>
       <c r="B152" s="38">
         <v>50</v>
@@ -22559,7 +23151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="85"/>
       <c r="B153" s="38">
         <v>51</v>
@@ -22619,7 +23211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="85"/>
       <c r="B154" s="38">
         <v>52</v>
@@ -22679,7 +23271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="85"/>
       <c r="B155" s="38">
         <v>53</v>
@@ -22739,7 +23331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="85"/>
       <c r="B156" s="38">
         <v>54</v>
@@ -22799,7 +23391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" s="85"/>
       <c r="B157" s="38">
         <v>55</v>
@@ -22859,7 +23451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" s="85"/>
       <c r="B158" s="38">
         <v>56</v>
@@ -22919,7 +23511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="85"/>
       <c r="B159" s="38">
         <v>57</v>
@@ -22979,7 +23571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="85"/>
       <c r="B160" s="38">
         <v>58</v>
@@ -23039,7 +23631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="85"/>
       <c r="B161" s="38">
         <v>59</v>
@@ -23099,7 +23691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="85"/>
       <c r="B162" s="38">
         <v>60</v>
@@ -23159,7 +23751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="85"/>
       <c r="B163" s="38">
         <v>61</v>
@@ -23219,7 +23811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="85"/>
       <c r="B164" s="38">
         <v>62</v>
@@ -23279,7 +23871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="85"/>
       <c r="B165" s="38">
         <v>63</v>
@@ -23339,7 +23931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="85"/>
       <c r="B166" s="38">
         <v>64</v>
@@ -23399,7 +23991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="85"/>
       <c r="B167" s="38">
         <v>65</v>
@@ -23459,7 +24051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="85"/>
       <c r="B168" s="38">
         <v>66</v>
@@ -23519,7 +24111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="85"/>
       <c r="B169" s="38">
         <v>67</v>
@@ -23579,7 +24171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="85"/>
       <c r="B170" s="38">
         <v>68</v>
@@ -23639,7 +24231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="85"/>
       <c r="B171" s="38">
         <v>69</v>
@@ -23699,7 +24291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="85"/>
       <c r="B172" s="38">
         <v>70</v>
@@ -23759,7 +24351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="85"/>
       <c r="B173" s="38">
         <v>71</v>
@@ -23819,7 +24411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="85"/>
       <c r="B174" s="38">
         <v>72</v>
@@ -23879,7 +24471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="85"/>
       <c r="B175" s="38">
         <v>73</v>
@@ -23939,7 +24531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="85"/>
       <c r="B176" s="38">
         <v>74</v>
@@ -23999,7 +24591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" s="85"/>
       <c r="B177" s="38">
         <v>75</v>
@@ -24059,7 +24651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" s="85"/>
       <c r="B178" s="38">
         <v>76</v>
@@ -24119,7 +24711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" s="85"/>
       <c r="B179" s="38">
         <v>77</v>
@@ -24179,7 +24771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" s="85"/>
       <c r="B180" s="38">
         <v>78</v>
@@ -24239,7 +24831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="85"/>
       <c r="B181" s="38">
         <v>79</v>
@@ -24299,7 +24891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" s="85"/>
       <c r="B182" s="38">
         <v>80</v>
@@ -24359,7 +24951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="85"/>
       <c r="B183" s="38">
         <v>81</v>
@@ -24419,7 +25011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" s="85"/>
       <c r="B184" s="38">
         <v>82</v>
@@ -24479,7 +25071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" s="85"/>
       <c r="B185" s="38">
         <v>83</v>
@@ -24539,7 +25131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" s="85"/>
       <c r="B186" s="38">
         <v>84</v>
@@ -24599,7 +25191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" s="85"/>
       <c r="B187" s="38">
         <v>85</v>
@@ -24659,7 +25251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" s="85"/>
       <c r="B188" s="38">
         <v>86</v>
@@ -24719,7 +25311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" s="85"/>
       <c r="B189" s="38">
         <v>87</v>
@@ -24779,7 +25371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" s="85"/>
       <c r="B190" s="38">
         <v>88</v>
@@ -24839,7 +25431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" s="85"/>
       <c r="B191" s="38">
         <v>89</v>
@@ -24899,7 +25491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="85"/>
       <c r="B192" s="38">
         <v>90</v>
@@ -24959,7 +25551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193" s="85"/>
       <c r="B193" s="38">
         <v>91</v>
@@ -25019,7 +25611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194" s="85"/>
       <c r="B194" s="38">
         <v>92</v>
@@ -25079,7 +25671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195" s="85"/>
       <c r="B195" s="38">
         <v>93</v>
@@ -25139,7 +25731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196" s="85"/>
       <c r="B196" s="38">
         <v>94</v>
@@ -25199,7 +25791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197" s="85"/>
       <c r="B197" s="38">
         <v>95</v>
@@ -25259,7 +25851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198" s="85"/>
       <c r="B198" s="38">
         <v>96</v>
@@ -25319,7 +25911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" s="85"/>
       <c r="B199" s="38">
         <v>97</v>
@@ -25379,7 +25971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200" s="85"/>
       <c r="B200" s="38">
         <v>98</v>
@@ -25439,7 +26031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201" s="85"/>
       <c r="B201" s="38">
         <v>99</v>
@@ -25499,7 +26091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="87"/>
       <c r="B202" s="39">
         <v>100</v>
@@ -25559,7 +26151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203" s="88" t="s">
         <v>13</v>
       </c>
@@ -25621,7 +26213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" s="85"/>
       <c r="B204" s="38">
         <v>2</v>
@@ -25681,7 +26273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="85"/>
       <c r="B205" s="38">
         <v>3</v>
@@ -25741,7 +26333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206" s="85"/>
       <c r="B206" s="38">
         <v>4</v>
@@ -25801,7 +26393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207" s="85"/>
       <c r="B207" s="38">
         <v>5</v>
@@ -25861,7 +26453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208" s="85"/>
       <c r="B208" s="38">
         <v>6</v>
@@ -25921,7 +26513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" s="85"/>
       <c r="B209" s="38">
         <v>7</v>
@@ -25981,7 +26573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210" s="85"/>
       <c r="B210" s="38">
         <v>8</v>
@@ -26041,7 +26633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211" s="85"/>
       <c r="B211" s="38">
         <v>9</v>
@@ -26101,7 +26693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212" s="85"/>
       <c r="B212" s="38">
         <v>10</v>
@@ -26161,7 +26753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213" s="85"/>
       <c r="B213" s="38">
         <v>11</v>
@@ -26221,7 +26813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214" s="85"/>
       <c r="B214" s="38">
         <v>12</v>
@@ -26281,7 +26873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215" s="85"/>
       <c r="B215" s="38">
         <v>13</v>
@@ -26341,7 +26933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A216" s="85"/>
       <c r="B216" s="38">
         <v>14</v>
@@ -26401,7 +26993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="85"/>
       <c r="B217" s="38">
         <v>15</v>
@@ -26461,7 +27053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218" s="85"/>
       <c r="B218" s="38">
         <v>16</v>
@@ -26521,7 +27113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219" s="85"/>
       <c r="B219" s="38">
         <v>17</v>
@@ -26581,7 +27173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220" s="85"/>
       <c r="B220" s="38">
         <v>18</v>
@@ -26641,7 +27233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221" s="85"/>
       <c r="B221" s="38">
         <v>19</v>
@@ -26701,7 +27293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222" s="85"/>
       <c r="B222" s="38">
         <v>20</v>
@@ -26761,7 +27353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223" s="85"/>
       <c r="B223" s="38">
         <v>21</v>
@@ -26821,7 +27413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224" s="85"/>
       <c r="B224" s="38">
         <v>22</v>
@@ -26881,7 +27473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="85"/>
       <c r="B225" s="38">
         <v>23</v>
@@ -26941,7 +27533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" s="85"/>
       <c r="B226" s="38">
         <v>24</v>
@@ -27001,7 +27593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="85"/>
       <c r="B227" s="38">
         <v>25</v>
@@ -27061,7 +27653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="85"/>
       <c r="B228" s="38">
         <v>26</v>
@@ -27121,7 +27713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="85"/>
       <c r="B229" s="38">
         <v>27</v>
@@ -27181,7 +27773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="85"/>
       <c r="B230" s="38">
         <v>28</v>
@@ -27241,7 +27833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="85"/>
       <c r="B231" s="38">
         <v>29</v>
@@ -27301,7 +27893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="85"/>
       <c r="B232" s="38">
         <v>30</v>
@@ -27361,7 +27953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="85"/>
       <c r="B233" s="38">
         <v>31</v>
@@ -27421,7 +28013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="85"/>
       <c r="B234" s="38">
         <v>32</v>
@@ -27481,7 +28073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" s="85"/>
       <c r="B235" s="38">
         <v>33</v>
@@ -27541,7 +28133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236" s="85"/>
       <c r="B236" s="38">
         <v>34</v>
@@ -27601,7 +28193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" s="85"/>
       <c r="B237" s="38">
         <v>35</v>
@@ -27661,7 +28253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238" s="85"/>
       <c r="B238" s="38">
         <v>36</v>
@@ -27721,7 +28313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239" s="85"/>
       <c r="B239" s="38">
         <v>37</v>
@@ -27781,7 +28373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240" s="85"/>
       <c r="B240" s="38">
         <v>38</v>
@@ -27841,7 +28433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241" s="85"/>
       <c r="B241" s="38">
         <v>39</v>
@@ -27901,7 +28493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242" s="85"/>
       <c r="B242" s="38">
         <v>40</v>
@@ -27961,7 +28553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243" s="85"/>
       <c r="B243" s="38">
         <v>41</v>
@@ -28021,7 +28613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="85"/>
       <c r="B244" s="38">
         <v>42</v>
@@ -28081,7 +28673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245" s="85"/>
       <c r="B245" s="38">
         <v>43</v>
@@ -28141,7 +28733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" s="85"/>
       <c r="B246" s="38">
         <v>44</v>
@@ -28201,7 +28793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247" s="85"/>
       <c r="B247" s="38">
         <v>45</v>
@@ -28261,7 +28853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A248" s="85"/>
       <c r="B248" s="38">
         <v>46</v>
@@ -28321,7 +28913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249" s="85"/>
       <c r="B249" s="38">
         <v>47</v>
@@ -28381,7 +28973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250" s="85"/>
       <c r="B250" s="38">
         <v>48</v>
@@ -28441,7 +29033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="85"/>
       <c r="B251" s="38">
         <v>49</v>
@@ -28501,7 +29093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252" s="85"/>
       <c r="B252" s="38">
         <v>50</v>
@@ -28561,7 +29153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253" s="85"/>
       <c r="B253" s="38">
         <v>51</v>
@@ -28621,7 +29213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254" s="85"/>
       <c r="B254" s="38">
         <v>52</v>
@@ -28681,7 +29273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255" s="85"/>
       <c r="B255" s="38">
         <v>53</v>
@@ -28741,7 +29333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" s="85"/>
       <c r="B256" s="38">
         <v>54</v>
@@ -28801,7 +29393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257" s="85"/>
       <c r="B257" s="38">
         <v>55</v>
@@ -28861,7 +29453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258" s="85"/>
       <c r="B258" s="38">
         <v>56</v>
@@ -28921,7 +29513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" s="85"/>
       <c r="B259" s="38">
         <v>57</v>
@@ -28981,7 +29573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260" s="85"/>
       <c r="B260" s="38">
         <v>58</v>
@@ -29041,7 +29633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261" s="85"/>
       <c r="B261" s="38">
         <v>59</v>
@@ -29101,7 +29693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A262" s="85"/>
       <c r="B262" s="38">
         <v>60</v>
@@ -29161,7 +29753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263" s="85"/>
       <c r="B263" s="38">
         <v>61</v>
@@ -29221,7 +29813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264" s="85"/>
       <c r="B264" s="38">
         <v>62</v>
@@ -29281,7 +29873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265" s="85"/>
       <c r="B265" s="38">
         <v>63</v>
@@ -29341,7 +29933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A266" s="85"/>
       <c r="B266" s="38">
         <v>64</v>
@@ -29401,7 +29993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267" s="85"/>
       <c r="B267" s="38">
         <v>65</v>
@@ -29461,7 +30053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268" s="85"/>
       <c r="B268" s="38">
         <v>66</v>
@@ -29521,7 +30113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269" s="85"/>
       <c r="B269" s="38">
         <v>67</v>
@@ -29581,7 +30173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A270" s="85"/>
       <c r="B270" s="38">
         <v>68</v>
@@ -29641,7 +30233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271" s="85"/>
       <c r="B271" s="38">
         <v>69</v>
@@ -29701,7 +30293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A272" s="85"/>
       <c r="B272" s="38">
         <v>70</v>
@@ -29761,7 +30353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273" s="85"/>
       <c r="B273" s="38">
         <v>71</v>
@@ -29821,7 +30413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274" s="85"/>
       <c r="B274" s="38">
         <v>72</v>
@@ -29881,7 +30473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A275" s="85"/>
       <c r="B275" s="38">
         <v>73</v>
@@ -29941,7 +30533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276" s="85"/>
       <c r="B276" s="38">
         <v>74</v>
@@ -30001,7 +30593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277" s="85"/>
       <c r="B277" s="38">
         <v>75</v>
@@ -30061,7 +30653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278" s="85"/>
       <c r="B278" s="38">
         <v>76</v>
@@ -30121,7 +30713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279" s="85"/>
       <c r="B279" s="38">
         <v>77</v>
@@ -30181,7 +30773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A280" s="85"/>
       <c r="B280" s="38">
         <v>78</v>
@@ -30241,7 +30833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281" s="85"/>
       <c r="B281" s="38">
         <v>79</v>
@@ -30301,7 +30893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282" s="85"/>
       <c r="B282" s="38">
         <v>80</v>
@@ -30361,7 +30953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283" s="85"/>
       <c r="B283" s="38">
         <v>81</v>
@@ -30421,7 +31013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284" s="85"/>
       <c r="B284" s="38">
         <v>82</v>
@@ -30481,7 +31073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285" s="85"/>
       <c r="B285" s="38">
         <v>83</v>
@@ -30541,7 +31133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A286" s="85"/>
       <c r="B286" s="38">
         <v>84</v>
@@ -30601,7 +31193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287" s="85"/>
       <c r="B287" s="38">
         <v>85</v>
@@ -30661,7 +31253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288" s="85"/>
       <c r="B288" s="38">
         <v>86</v>
@@ -30721,7 +31313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289" s="85"/>
       <c r="B289" s="38">
         <v>87</v>
@@ -30781,7 +31373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A290" s="85"/>
       <c r="B290" s="38">
         <v>88</v>
@@ -30841,7 +31433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291" s="85"/>
       <c r="B291" s="38">
         <v>89</v>
@@ -30901,7 +31493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A292" s="85"/>
       <c r="B292" s="38">
         <v>90</v>
@@ -30961,7 +31553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A293" s="85"/>
       <c r="B293" s="38">
         <v>91</v>
@@ -31021,7 +31613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294" s="85"/>
       <c r="B294" s="38">
         <v>92</v>
@@ -31081,7 +31673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A295" s="85"/>
       <c r="B295" s="38">
         <v>93</v>
@@ -31141,7 +31733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A296" s="85"/>
       <c r="B296" s="38">
         <v>94</v>
@@ -31201,7 +31793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A297" s="85"/>
       <c r="B297" s="38">
         <v>95</v>
@@ -31261,7 +31853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298" s="85"/>
       <c r="B298" s="38">
         <v>96</v>
@@ -31321,7 +31913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A299" s="85"/>
       <c r="B299" s="38">
         <v>97</v>
@@ -31381,7 +31973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300" s="85"/>
       <c r="B300" s="38">
         <v>98</v>
@@ -31441,7 +32033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A301" s="85"/>
       <c r="B301" s="38">
         <v>99</v>
@@ -31501,7 +32093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="87"/>
       <c r="B302" s="39">
         <v>100</v>
@@ -31583,22 +32175,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="A1:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="26" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="17" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="26" customWidth="1"/>
+    <col min="2" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="14" width="15.6328125" customWidth="1"/>
+    <col min="15" max="17" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
@@ -31625,7 +32217,7 @@
       <c r="P1" s="92"/>
       <c r="Q1" s="93"/>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="97"/>
       <c r="B2" s="23" t="s">
         <v>3</v>
@@ -31676,7 +32268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="30">
         <v>0.05</v>
       </c>
@@ -31745,7 +32337,7 @@
         <v>117.94</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31">
         <v>0.12</v>
       </c>
@@ -31814,7 +32406,7 @@
         <v>55.23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="32" t="s">
         <v>13</v>
       </c>
@@ -31899,17 +32491,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CE66" sqref="CE66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="19" width="10.7109375" style="67" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="19" width="10.6328125" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="84" t="s">
         <v>15</v>
       </c>
@@ -31938,7 +32530,7 @@
       <c r="R1" s="103"/>
       <c r="S1" s="104"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="85"/>
       <c r="B2" s="105">
         <v>0.05</v>
@@ -31977,7 +32569,7 @@
       </c>
       <c r="S2" s="107"/>
     </row>
-    <row r="3" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="87"/>
       <c r="B3" s="52" t="s">
         <v>3</v>
@@ -32034,7 +32626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <v>0</v>
       </c>
@@ -32093,7 +32685,7 @@
         <v>5.9916999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -32152,7 +32744,7 @@
         <v>2.99959</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -32211,7 +32803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -32266,7 +32858,7 @@
       <c r="R7" s="63"/>
       <c r="S7" s="64"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>4</v>
       </c>
@@ -32321,7 +32913,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -32372,7 +32964,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>14</v>
       </c>
@@ -32419,7 +33011,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="67">
         <v>1.5533300000000001</v>
       </c>
@@ -32457,7 +33049,7 @@
         <v>4.2226299999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="67">
         <v>1.4979899999999999</v>
       </c>
@@ -32495,7 +33087,7 @@
         <v>4.07592</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="67">
         <v>1.4481900000000001</v>
       </c>
@@ -32527,7 +33119,7 @@
         <v>3.9468100000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="67">
         <v>1.40337</v>
       </c>
@@ -32559,7 +33151,7 @@
         <v>3.8331900000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="67">
         <v>1.36304</v>
       </c>
@@ -32591,7 +33183,7 @@
         <v>3.7332100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="67">
         <v>1.32673</v>
       </c>
@@ -32623,7 +33215,7 @@
         <v>3.6452200000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="67">
         <v>1.29406</v>
       </c>
@@ -32655,7 +33247,7 @@
         <v>3.5678000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="67">
         <v>1.2646500000000001</v>
       </c>
@@ -32687,7 +33279,7 @@
         <v>3.49966</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="67">
         <v>1.2381899999999999</v>
       </c>
@@ -32719,7 +33311,7 @@
         <v>3.4397000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="67">
         <v>1.2143699999999999</v>
       </c>
@@ -32751,7 +33343,7 @@
         <v>3.3869400000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="67">
         <v>1.19293</v>
       </c>
@@ -32783,7 +33375,7 @@
         <v>3.3405</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="67">
         <v>1.17364</v>
       </c>
@@ -32815,7 +33407,7 @@
         <v>3.2996400000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="67">
         <v>1.15628</v>
       </c>
@@ -32847,7 +33439,7 @@
         <v>3.26369</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="67">
         <v>1.1406499999999999</v>
       </c>
@@ -32879,7 +33471,7 @@
         <v>3.23204</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="67">
         <v>1.1265799999999999</v>
       </c>
@@ -32911,7 +33503,7 @@
         <v>3.2042000000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="67">
         <v>1.11392</v>
       </c>
@@ -32937,7 +33529,7 @@
         <v>3.1797</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="67">
         <v>1.10253</v>
       </c>
@@ -32963,7 +33555,7 @@
         <v>3.1581299999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="67">
         <v>1.0922799999999999</v>
       </c>
@@ -32989,7 +33581,7 @@
         <v>3.13916</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="67">
         <v>1.0830500000000001</v>
       </c>
@@ -33015,7 +33607,7 @@
         <v>3.1224599999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="67">
         <v>1.0747500000000001</v>
       </c>
@@ -33041,7 +33633,7 @@
         <v>3.1077599999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="67">
         <v>1.0672699999999999</v>
       </c>
@@ -33067,7 +33659,7 @@
         <v>3.09483</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="67">
         <v>1.06054</v>
       </c>
@@ -33093,7 +33685,7 @@
         <v>3.08345</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="67">
         <v>1.0544899999999999</v>
       </c>
@@ -33119,7 +33711,7 @@
         <v>3.0734400000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="67">
         <v>1.04904</v>
       </c>
@@ -33145,7 +33737,7 @@
         <v>3.0646200000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="67">
         <v>1.0441400000000001</v>
       </c>
@@ -33171,7 +33763,7 @@
         <v>3.05687</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="67">
         <v>1.03972</v>
       </c>
@@ -33197,7 +33789,7 @@
         <v>3.0500500000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="67">
         <v>1.0357499999999999</v>
       </c>
@@ -33223,7 +33815,7 @@
         <v>3.0440399999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="67">
         <v>1.0321800000000001</v>
       </c>
@@ -33249,7 +33841,7 @@
         <v>3.0387599999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="67">
         <v>1.0289600000000001</v>
       </c>
@@ -33275,7 +33867,7 @@
         <v>3.0341</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="67">
         <v>1.02606</v>
       </c>
@@ -33301,7 +33893,7 @@
         <v>3.0300099999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="67">
         <v>1.02346</v>
       </c>
@@ -33327,7 +33919,7 @@
         <v>3.0264099999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="67">
         <v>1.02111</v>
       </c>
@@ -33353,7 +33945,7 @@
         <v>3.0232399999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="67">
         <v>1.0189999999999999</v>
       </c>
@@ -33379,7 +33971,7 @@
         <v>3.0204499999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="67">
         <v>1.0170999999999999</v>
       </c>
@@ -33405,7 +33997,7 @@
         <v>3.0179999999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="67">
         <v>1.01539</v>
       </c>
@@ -33431,7 +34023,7 @@
         <v>3.0158399999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="67">
         <v>1.0138499999999999</v>
       </c>
@@ -33457,7 +34049,7 @@
         <v>3.0139399999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="67">
         <v>1.01247</v>
       </c>
@@ -33483,7 +34075,7 @@
         <v>3.01227</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="67">
         <v>1.01122</v>
       </c>
@@ -33509,7 +34101,7 @@
         <v>3.0107900000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="67">
         <v>1.0101</v>
       </c>
@@ -33535,7 +34127,7 @@
         <v>3.0095000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="67">
         <v>1.00909</v>
       </c>
@@ -33561,7 +34153,7 @@
         <v>3.0083600000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="67">
         <v>1.0081800000000001</v>
       </c>
@@ -33587,7 +34179,7 @@
         <v>3.0073599999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="67">
         <v>1.00736</v>
       </c>
@@ -33613,7 +34205,7 @@
         <v>3.0064700000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="67">
         <v>1.0066200000000001</v>
       </c>
@@ -33639,7 +34231,7 @@
         <v>3.0057</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="67">
         <v>1.00596</v>
       </c>
@@ -33665,7 +34257,7 @@
         <v>3.00501</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="J55" s="67">
         <v>0.999498</v>
       </c>
@@ -33685,7 +34277,7 @@
         <v>3.00441</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="J56" s="67">
         <v>1.0006600000000001</v>
       </c>
@@ -33705,7 +34297,7 @@
         <v>3.0038800000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
       <c r="J57" s="67">
         <v>1.0017400000000001</v>
       </c>
@@ -33725,7 +34317,7 @@
         <v>3.0034200000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
       <c r="J58" s="67">
         <v>1.0003200000000001</v>
       </c>
@@ -33739,7 +34331,7 @@
         <v>3.1875</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="J59" s="67">
         <v>0.999579</v>
       </c>
@@ -33753,7 +34345,7 @@
         <v>3.1781199999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="J60" s="67">
         <v>0.99888500000000002</v>
       </c>
@@ -33767,7 +34359,7 @@
         <v>3.1692200000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="N61" s="67">
         <v>1.28508</v>
       </c>
@@ -33775,7 +34367,7 @@
         <v>3.1607500000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
       <c r="N62" s="67">
         <v>1.2708299999999999</v>
       </c>
@@ -33783,7 +34375,7 @@
         <v>3.15272</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
       <c r="N63" s="67">
         <v>1.25728</v>
       </c>
@@ -33791,7 +34383,7 @@
         <v>3.1450800000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="N64" s="67">
         <v>1.2444200000000001</v>
       </c>
@@ -33799,7 +34391,7 @@
         <v>3.1378300000000001</v>
       </c>
     </row>
-    <row r="65" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N65" s="67">
         <v>1.2322</v>
       </c>
@@ -33807,7 +34399,7 @@
         <v>3.1309399999999998</v>
       </c>
     </row>
-    <row r="66" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N66" s="67">
         <v>1.2205900000000001</v>
       </c>
@@ -33815,7 +34407,7 @@
         <v>3.12439</v>
       </c>
     </row>
-    <row r="67" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N67" s="67">
         <v>1.20956</v>
       </c>
@@ -33823,7 +34415,7 @@
         <v>3.1181700000000001</v>
       </c>
     </row>
-    <row r="68" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N68" s="67">
         <v>1.1990799999999999</v>
       </c>
@@ -33831,7 +34423,7 @@
         <v>3.11226</v>
       </c>
     </row>
-    <row r="69" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N69" s="67">
         <v>1.18913</v>
       </c>
@@ -33839,7 +34431,7 @@
         <v>3.1066500000000001</v>
       </c>
     </row>
-    <row r="70" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N70" s="67">
         <v>1.17967</v>
       </c>
@@ -33847,7 +34439,7 @@
         <v>3.1013199999999999</v>
       </c>
     </row>
-    <row r="71" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N71" s="67">
         <v>1.17069</v>
       </c>
@@ -33855,7 +34447,7 @@
         <v>3.0962499999999999</v>
       </c>
     </row>
-    <row r="72" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N72" s="67">
         <v>1.16215</v>
       </c>
@@ -33863,7 +34455,7 @@
         <v>3.09144</v>
       </c>
     </row>
-    <row r="73" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N73" s="67">
         <v>1.15405</v>
       </c>
@@ -33871,7 +34463,7 @@
         <v>3.0868699999999998</v>
       </c>
     </row>
-    <row r="74" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N74" s="67">
         <v>1.1463399999999999</v>
       </c>
@@ -33879,7 +34471,7 @@
         <v>3.0825200000000001</v>
       </c>
     </row>
-    <row r="75" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N75" s="67">
         <v>1.13903</v>
       </c>
@@ -33887,7 +34479,7 @@
         <v>3.0783999999999998</v>
       </c>
     </row>
-    <row r="76" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N76" s="67">
         <v>1.1320699999999999</v>
       </c>
@@ -33895,7 +34487,7 @@
         <v>3.0744799999999999</v>
       </c>
     </row>
-    <row r="77" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N77" s="67">
         <v>1.12547</v>
       </c>
@@ -33903,7 +34495,7 @@
         <v>3.0707499999999999</v>
       </c>
     </row>
-    <row r="78" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N78" s="67">
         <v>1.1192</v>
       </c>
@@ -33911,7 +34503,7 @@
         <v>3.0672100000000002</v>
       </c>
     </row>
-    <row r="79" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N79" s="67">
         <v>1.11324</v>
       </c>
@@ -33919,7 +34511,7 @@
         <v>3.06385</v>
       </c>
     </row>
-    <row r="80" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N80" s="67">
         <v>1.10758</v>
       </c>
@@ -33927,7 +34519,7 @@
         <v>3.0606599999999999</v>
       </c>
     </row>
-    <row r="81" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N81" s="67">
         <v>1.1022000000000001</v>
       </c>
@@ -33935,7 +34527,7 @@
         <v>3.0576300000000001</v>
       </c>
     </row>
-    <row r="82" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N82" s="67">
         <v>1.0970899999999999</v>
       </c>
@@ -33943,7 +34535,7 @@
         <v>3.0547499999999999</v>
       </c>
     </row>
-    <row r="83" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N83" s="67">
         <v>1.09223</v>
       </c>
@@ -33951,7 +34543,7 @@
         <v>3.0520100000000001</v>
       </c>
     </row>
-    <row r="84" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N84" s="67">
         <v>1.08762</v>
       </c>
@@ -33959,7 +34551,7 @@
         <v>3.04941</v>
       </c>
     </row>
-    <row r="85" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N85" s="67">
         <v>1.08324</v>
       </c>
@@ -33967,7 +34559,7 @@
         <v>3.0469400000000002</v>
       </c>
     </row>
-    <row r="86" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N86" s="67">
         <v>1.07908</v>
       </c>
@@ -33975,7 +34567,7 @@
         <v>3.0445899999999999</v>
       </c>
     </row>
-    <row r="87" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N87" s="67">
         <v>1.0751200000000001</v>
       </c>
@@ -33983,7 +34575,7 @@
         <v>3.04236</v>
       </c>
     </row>
-    <row r="88" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N88" s="67">
         <v>1.0713699999999999</v>
       </c>
@@ -33991,7 +34583,7 @@
         <v>3.0402399999999998</v>
       </c>
     </row>
-    <row r="89" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N89" s="67">
         <v>1.0678000000000001</v>
       </c>
@@ -33999,7 +34591,7 @@
         <v>3.03823</v>
       </c>
     </row>
-    <row r="90" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N90" s="67">
         <v>1.0644100000000001</v>
       </c>
@@ -34007,7 +34599,7 @@
         <v>3.0363199999999999</v>
       </c>
     </row>
-    <row r="91" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N91" s="67">
         <v>1.0611900000000001</v>
       </c>
@@ -34015,7 +34607,7 @@
         <v>3.0345</v>
       </c>
     </row>
-    <row r="92" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N92" s="67">
         <v>1.05813</v>
       </c>
@@ -34023,7 +34615,7 @@
         <v>3.0327799999999998</v>
       </c>
     </row>
-    <row r="93" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N93" s="67">
         <v>1.05522</v>
       </c>
@@ -34031,7 +34623,7 @@
         <v>3.0311400000000002</v>
       </c>
     </row>
-    <row r="94" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N94" s="67">
         <v>1.05246</v>
       </c>
@@ -34039,7 +34631,7 @@
         <v>3.0295800000000002</v>
       </c>
     </row>
-    <row r="95" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N95" s="67">
         <v>1.0498400000000001</v>
       </c>
@@ -34047,7 +34639,7 @@
         <v>3.0280999999999998</v>
       </c>
     </row>
-    <row r="96" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N96" s="67">
         <v>1.04735</v>
       </c>
@@ -34055,7 +34647,7 @@
         <v>3.0266999999999999</v>
       </c>
     </row>
-    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N97" s="67">
         <v>1.04498</v>
       </c>
@@ -34063,7 +34655,7 @@
         <v>3.02536</v>
       </c>
     </row>
-    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N98" s="67">
         <v>1.0427299999999999</v>
       </c>
@@ -34071,7 +34663,7 @@
         <v>3.0240999999999998</v>
       </c>
     </row>
-    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N99" s="67">
         <v>1.0405899999999999</v>
       </c>
@@ -34079,7 +34671,7 @@
         <v>3.0228899999999999</v>
       </c>
     </row>
-    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N100" s="67">
         <v>1.0385599999999999</v>
       </c>
@@ -34087,7 +34679,7 @@
         <v>3.0217499999999999</v>
       </c>
     </row>
-    <row r="101" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N101" s="67">
         <v>1.03664</v>
       </c>
@@ -34095,7 +34687,7 @@
         <v>3.0206599999999999</v>
       </c>
     </row>
-    <row r="102" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N102" s="67">
         <v>1.0347999999999999</v>
       </c>
@@ -34103,7 +34695,7 @@
         <v>3.0196299999999998</v>
       </c>
     </row>
-    <row r="103" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N103" s="67">
         <v>1.0330600000000001</v>
       </c>
@@ -34111,7 +34703,7 @@
         <v>3.01864</v>
       </c>
     </row>
-    <row r="104" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N104" s="67">
         <v>1.0314099999999999</v>
       </c>
@@ -34119,7 +34711,7 @@
         <v>3.0177100000000001</v>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N105" s="67">
         <v>1.0298400000000001</v>
       </c>
@@ -34127,7 +34719,7 @@
         <v>3.0168300000000001</v>
       </c>
     </row>
-    <row r="106" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N106" s="67">
         <v>1.0283500000000001</v>
       </c>
@@ -34135,7 +34727,7 @@
         <v>3.0159899999999999</v>
       </c>
     </row>
-    <row r="107" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N107" s="67">
         <v>1.0269299999999999</v>
       </c>
@@ -34143,7 +34735,7 @@
         <v>3.01519</v>
       </c>
     </row>
-    <row r="108" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N108" s="67">
         <v>1.0255799999999999</v>
       </c>
@@ -34151,7 +34743,7 @@
         <v>3.0144299999999999</v>
       </c>
     </row>
-    <row r="109" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N109" s="67">
         <v>1.0243100000000001</v>
       </c>
@@ -34159,7 +34751,7 @@
         <v>3.0137100000000001</v>
       </c>
     </row>
-    <row r="110" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N110" s="67">
         <v>1.0230900000000001</v>
       </c>
@@ -34167,7 +34759,7 @@
         <v>3.01302</v>
       </c>
     </row>
-    <row r="111" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N111" s="67">
         <v>1.0219400000000001</v>
       </c>
@@ -34175,7 +34767,7 @@
         <v>3.0123700000000002</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N112" s="67">
         <v>1.02084</v>
       </c>
@@ -34183,7 +34775,7 @@
         <v>3.0117500000000001</v>
       </c>
     </row>
-    <row r="113" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N113" s="67">
         <v>1.0198</v>
       </c>
@@ -34191,7 +34783,7 @@
         <v>3.0111599999999998</v>
       </c>
     </row>
-    <row r="114" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N114" s="67">
         <v>1.01881</v>
       </c>
@@ -34199,7 +34791,7 @@
         <v>3.0106099999999998</v>
       </c>
     </row>
-    <row r="115" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N115" s="67">
         <v>1.0178700000000001</v>
       </c>
@@ -34207,7 +34799,7 @@
         <v>3.0100699999999998</v>
       </c>
     </row>
-    <row r="116" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N116" s="67">
         <v>1.0169699999999999</v>
       </c>
@@ -34215,7 +34807,7 @@
         <v>3.0095700000000001</v>
       </c>
     </row>
-    <row r="117" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N117" s="67">
         <v>1.0161199999999999</v>
       </c>
@@ -34250,18 +34842,18 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="26" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="26" customWidth="1"/>
+    <col min="2" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
@@ -34274,7 +34866,7 @@
       <c r="F1" s="92"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="97"/>
       <c r="B2" s="23" t="s">
         <v>16</v>
@@ -34296,7 +34888,7 @@
       </c>
       <c r="H2" s="81"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>0.01</v>
       </c>
@@ -34319,7 +34911,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>1E-3</v>
       </c>
@@ -34342,7 +34934,7 @@
         <v>8480</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="32">
         <v>1E-4</v>
       </c>
@@ -34364,8 +34956,11 @@
       <c r="G5" s="4">
         <v>23791</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="112"/>
       <c r="B10" s="113"/>
       <c r="C10" s="113"/>
@@ -34374,7 +34969,7 @@
       <c r="F10" s="113"/>
       <c r="G10" s="113"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="112"/>
       <c r="B11" s="82"/>
       <c r="C11" s="82"/>
@@ -34384,7 +34979,7 @@
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="80"/>
     </row>
   </sheetData>
@@ -34400,20 +34995,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528A5E5-678E-4C7F-9CBD-F13F3DBED583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542BD927-38E8-4600-8A8E-B99A6010C7E6}">
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+      <selection activeCell="N19" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -34454,7 +35049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>57</v>
       </c>
@@ -34486,15 +35081,15 @@
         <v>68</v>
       </c>
       <c r="L2" t="e">
-        <f t="shared" ref="L2:L33" si="0">IF($C2=0,A2, #N/A)</f>
+        <f>IF($C2=0,A2, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M2" t="e">
-        <f t="shared" ref="M2:M33" si="1">IF($C2=0,B2, #N/A)</f>
+        <f>IF($C2=0,B2, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>86</v>
       </c>
@@ -34514,27 +35109,27 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="2">-$E$2/$E$4-$E$3/$E$4*F3</f>
+        <f>-$E$2/$E$4-$E$3/$E$4*F3</f>
         <v>91.193246161699463</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">IF(C3=1,A3, #N/A)</f>
+        <f>IF(C3=1,A3, #N/A)</f>
         <v>86</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="4">IF($C3=1,B3, #N/A)</f>
+        <f>IF($C3=1,B3, #N/A)</f>
         <v>87</v>
       </c>
       <c r="L3" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C3=0,A3, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C3=0,B3, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>86</v>
       </c>
@@ -34554,27 +35149,27 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F4</f>
         <v>90.380398162327722</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f>IF(C4=1,A4, #N/A)</f>
         <v>86</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
+        <f>IF($C4=1,B4, #N/A)</f>
         <v>46</v>
       </c>
       <c r="L4" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C4=0,A4, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M4" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C4=0,B4, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>71</v>
       </c>
@@ -34591,27 +35186,27 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F5</f>
         <v>89.567550162955982</v>
       </c>
       <c r="I5" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C5=1,A5, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J5" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C5=1,B5, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f>IF($C5=0,A5, #N/A)</f>
         <v>71</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f>IF($C5=0,B5, #N/A)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>75</v>
       </c>
@@ -34628,27 +35223,27 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F6</f>
         <v>88.754702163584255</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f>IF(C6=1,A6, #N/A)</f>
         <v>75</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
+        <f>IF($C6=1,B6, #N/A)</f>
         <v>77</v>
       </c>
       <c r="L6" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C6=0,A6, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C6=0,B6, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>84</v>
       </c>
@@ -34665,27 +35260,27 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F7</f>
         <v>87.941854164212515</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f>IF(C7=1,A7, #N/A)</f>
         <v>84</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
+        <f>IF($C7=1,B7, #N/A)</f>
         <v>53</v>
       </c>
       <c r="L7" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C7=0,A7, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M7" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C7=0,B7, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>89</v>
       </c>
@@ -34702,27 +35297,27 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F8</f>
         <v>87.129006164840774</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f>IF(C8=1,A8, #N/A)</f>
         <v>89</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f>IF($C8=1,B8, #N/A)</f>
         <v>93</v>
       </c>
       <c r="L8" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C8=0,A8, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C8=0,B8, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>68</v>
       </c>
@@ -34739,27 +35334,27 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F9</f>
         <v>86.316158165469048</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f>IF(C9=1,A9, #N/A)</f>
         <v>68</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f>IF($C9=1,B9, #N/A)</f>
         <v>96</v>
       </c>
       <c r="L9" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C9=0,A9, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M9" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C9=0,B9, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -34776,27 +35371,27 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F10</f>
         <v>85.503310166097307</v>
       </c>
       <c r="I10" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C10=1,A10, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J10" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C10=1,B10, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f>IF($C10=0,A10, #N/A)</f>
         <v>50</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f>IF($C10=0,B10, #N/A)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90</v>
       </c>
@@ -34813,27 +35408,27 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F11</f>
         <v>84.690462166725567</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f>IF(C11=1,A11, #N/A)</f>
         <v>90</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f>IF($C11=1,B11, #N/A)</f>
         <v>92</v>
       </c>
       <c r="L11" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C11=0,A11, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M11" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C11=0,B11, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>53</v>
       </c>
@@ -34850,27 +35445,27 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F12</f>
         <v>83.87761416735384</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f>IF(C12=1,A12, #N/A)</f>
         <v>53</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f>IF($C12=1,B12, #N/A)</f>
         <v>87</v>
       </c>
       <c r="L12" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C12=0,A12, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C12=0,B12, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>40</v>
       </c>
@@ -34887,27 +35482,27 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F13</f>
         <v>83.0647661679821</v>
       </c>
       <c r="I13" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C13=1,A13, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J13" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C13=1,B13, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f>IF($C13=0,A13, #N/A)</f>
         <v>40</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f>IF($C13=0,B13, #N/A)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>40</v>
       </c>
@@ -34924,27 +35519,27 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F14</f>
         <v>82.251918168610359</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f>IF(C14=1,A14, #N/A)</f>
         <v>40</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f>IF($C14=1,B14, #N/A)</f>
         <v>68</v>
       </c>
       <c r="L14" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C14=0,A14, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M14" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C14=0,B14, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>28</v>
       </c>
@@ -34961,27 +35556,27 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F15</f>
         <v>81.439070169238633</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C15=1,A15, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J15" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C15=1,B15, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f>IF($C15=0,A15, #N/A)</f>
         <v>28</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f>IF($C15=0,B15, #N/A)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>97</v>
       </c>
@@ -34998,27 +35593,27 @@
         <v>15</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F16</f>
         <v>80.626222169866892</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f>IF(C16=1,A16, #N/A)</f>
         <v>97</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f>IF($C16=1,B16, #N/A)</f>
         <v>88</v>
       </c>
       <c r="L16" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C16=0,A16, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M16" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C16=0,B16, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>35</v>
       </c>
@@ -35035,27 +35630,27 @@
         <v>16</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F17</f>
         <v>79.813374170495152</v>
       </c>
       <c r="I17" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C17=1,A17, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J17" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C17=1,B17, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f>IF($C17=0,A17, #N/A)</f>
         <v>35</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f>IF($C17=0,B17, #N/A)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>59</v>
       </c>
@@ -35072,27 +35667,27 @@
         <v>17</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F18</f>
         <v>79.000526171123425</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f>IF(C18=1,A18, #N/A)</f>
         <v>59</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <f>IF($C18=1,B18, #N/A)</f>
         <v>80</v>
       </c>
       <c r="L18" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C18=0,A18, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M18" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C18=0,B18, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>29</v>
       </c>
@@ -35109,27 +35704,27 @@
         <v>18</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F19</f>
         <v>78.187678171751685</v>
       </c>
       <c r="I19" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C19=1,A19, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J19" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C19=1,B19, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f>IF($C19=0,A19, #N/A)</f>
         <v>29</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f>IF($C19=0,B19, #N/A)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>44</v>
       </c>
@@ -35146,27 +35741,27 @@
         <v>19</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F20</f>
         <v>77.374830172379944</v>
       </c>
       <c r="I20" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C20=1,A20, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J20" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C20=1,B20, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f>IF($C20=0,A20, #N/A)</f>
         <v>44</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f>IF($C20=0,B20, #N/A)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>54</v>
       </c>
@@ -35183,27 +35778,27 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F21</f>
         <v>76.561982173008204</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f>IF(C21=1,A21, #N/A)</f>
         <v>54</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f>IF($C21=1,B21, #N/A)</f>
         <v>73</v>
       </c>
       <c r="L21" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C21=0,A21, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M21" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C21=0,B21, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22</v>
       </c>
@@ -35220,27 +35815,27 @@
         <v>21</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F22</f>
         <v>75.749134173636477</v>
       </c>
       <c r="I22" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C22=1,A22, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J22" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C22=1,B22, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f>IF($C22=0,A22, #N/A)</f>
         <v>22</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f>IF($C22=0,B22, #N/A)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>53</v>
       </c>
@@ -35257,27 +35852,27 @@
         <v>22</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F23</f>
         <v>74.936286174264737</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f>IF(C23=1,A23, #N/A)</f>
         <v>53</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
+        <f>IF($C23=1,B23, #N/A)</f>
         <v>48</v>
       </c>
       <c r="L23" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C23=0,A23, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M23" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C23=0,B23, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>66</v>
       </c>
@@ -35294,27 +35889,27 @@
         <v>23</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F24</f>
         <v>74.12343817489301</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f>IF(C24=1,A24, #N/A)</f>
         <v>66</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f>IF($C24=1,B24, #N/A)</f>
         <v>42</v>
       </c>
       <c r="L24" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C24=0,A24, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M24" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C24=0,B24, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>26</v>
       </c>
@@ -35331,27 +35926,27 @@
         <v>24</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F25</f>
         <v>73.31059017552127</v>
       </c>
       <c r="I25" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C25=1,A25, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J25" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C25=1,B25, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f>IF($C25=0,A25, #N/A)</f>
         <v>26</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f>IF($C25=0,B25, #N/A)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>43</v>
       </c>
@@ -35368,27 +35963,27 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F26</f>
         <v>72.497742176149529</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f>IF(C26=1,A26, #N/A)</f>
         <v>43</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
+        <f>IF($C26=1,B26, #N/A)</f>
         <v>67</v>
       </c>
       <c r="L26" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C26=0,A26, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M26" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C26=0,B26, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>70</v>
       </c>
@@ -35405,27 +36000,27 @@
         <v>26</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F27</f>
         <v>71.684894176777789</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f>IF(C27=1,A27, #N/A)</f>
         <v>70</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f>IF($C27=1,B27, #N/A)</f>
         <v>62</v>
       </c>
       <c r="L27" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C27=0,A27, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M27" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C27=0,B27, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>100</v>
       </c>
@@ -35442,27 +36037,27 @@
         <v>27</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F28</f>
         <v>70.872046177406062</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f>IF(C28=1,A28, #N/A)</f>
         <v>100</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <f>IF($C28=1,B28, #N/A)</f>
         <v>96</v>
       </c>
       <c r="L28" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C28=0,A28, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M28" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C28=0,B28, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>64</v>
       </c>
@@ -35479,27 +36074,27 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F29</f>
         <v>70.059198178034322</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f>IF(C29=1,A29, #N/A)</f>
         <v>64</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f>IF($C29=1,B29, #N/A)</f>
         <v>56</v>
       </c>
       <c r="L29" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C29=0,A29, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C29=0,B29, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>79</v>
       </c>
@@ -35516,27 +36111,27 @@
         <v>29</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F30</f>
         <v>69.246350178662595</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f>IF(C30=1,A30, #N/A)</f>
         <v>79</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <f>IF($C30=1,B30, #N/A)</f>
         <v>82</v>
       </c>
       <c r="L30" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C30=0,A30, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M30" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C30=0,B30, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>48</v>
       </c>
@@ -35553,27 +36148,27 @@
         <v>30</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F31</f>
         <v>68.433502179290855</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f>IF(C31=1,A31, #N/A)</f>
         <v>48</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f>IF($C31=1,B31, #N/A)</f>
         <v>91</v>
       </c>
       <c r="L31" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C31=0,A31, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M31" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C31=0,B31, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>82</v>
       </c>
@@ -35590,27 +36185,27 @@
         <v>31</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F32</f>
         <v>67.620654179919114</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f>IF(C32=1,A32, #N/A)</f>
         <v>82</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <f>IF($C32=1,B32, #N/A)</f>
         <v>79</v>
       </c>
       <c r="L32" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C32=0,A32, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M32" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C32=0,B32, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>44</v>
       </c>
@@ -35627,27 +36222,27 @@
         <v>32</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F33</f>
         <v>66.807806180547374</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f>IF(C33=1,A33, #N/A)</f>
         <v>44</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <f>IF($C33=1,B33, #N/A)</f>
         <v>52</v>
       </c>
       <c r="L33" t="e">
-        <f t="shared" si="0"/>
+        <f>IF($C33=0,A33, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M33" t="e">
-        <f t="shared" si="1"/>
+        <f>IF($C33=0,B33, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>50</v>
       </c>
@@ -35664,27 +36259,27 @@
         <v>33</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F34</f>
         <v>65.994958181175647</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f>IF(C34=1,A34, #N/A)</f>
         <v>50</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <f>IF($C34=1,B34, #N/A)</f>
         <v>45</v>
       </c>
       <c r="L34" t="e">
-        <f t="shared" ref="L34:L65" si="5">IF($C34=0,A34, #N/A)</f>
+        <f>IF($C34=0,A34, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M34" t="e">
-        <f t="shared" ref="M34:M65" si="6">IF($C34=0,B34, #N/A)</f>
+        <f>IF($C34=0,B34, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>95</v>
       </c>
@@ -35701,27 +36296,27 @@
         <v>34</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F35</f>
         <v>65.182110181803907</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f>IF(C35=1,A35, #N/A)</f>
         <v>95</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <f>IF($C35=1,B35, #N/A)</f>
         <v>53</v>
       </c>
       <c r="L35" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C35=0,A35, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M35" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C35=0,B35, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>28</v>
       </c>
@@ -35738,27 +36333,27 @@
         <v>35</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F36</f>
         <v>64.36926218243218</v>
       </c>
       <c r="I36" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C36=1,A36, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J36" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C36=1,B36, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L36">
-        <f t="shared" si="5"/>
+        <f>IF($C36=0,A36, #N/A)</f>
         <v>28</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f>IF($C36=0,B36, #N/A)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>37</v>
       </c>
@@ -35775,27 +36370,27 @@
         <v>36</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F37</f>
         <v>63.55641418306044</v>
       </c>
       <c r="I37" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C37=1,A37, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J37" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C37=1,B37, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L37">
-        <f t="shared" si="5"/>
+        <f>IF($C37=0,A37, #N/A)</f>
         <v>37</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f>IF($C37=0,B37, #N/A)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>71</v>
       </c>
@@ -35812,27 +36407,27 @@
         <v>37</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F38</f>
         <v>62.743566183688699</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f>IF(C38=1,A38, #N/A)</f>
         <v>71</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f>IF($C38=1,B38, #N/A)</f>
         <v>81</v>
       </c>
       <c r="L38" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C38=0,A38, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M38" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C38=0,B38, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>26</v>
       </c>
@@ -35849,27 +36444,27 @@
         <v>38</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F39</f>
         <v>61.930718184316966</v>
       </c>
       <c r="I39" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C39=1,A39, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J39" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C39=1,B39, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L39">
-        <f t="shared" si="5"/>
+        <f>IF($C39=0,A39, #N/A)</f>
         <v>26</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f>IF($C39=0,B39, #N/A)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>75</v>
       </c>
@@ -35886,27 +36481,27 @@
         <v>39</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F40</f>
         <v>61.117870184945232</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f>IF(C40=1,A40, #N/A)</f>
         <v>75</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f>IF($C40=1,B40, #N/A)</f>
         <v>54</v>
       </c>
       <c r="L40" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C40=0,A40, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M40" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C40=0,B40, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>35</v>
       </c>
@@ -35923,27 +36518,27 @@
         <v>40</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F41</f>
         <v>60.305022185573492</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f>IF(C41=1,A41, #N/A)</f>
         <v>35</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f>IF($C41=1,B41, #N/A)</f>
         <v>98</v>
       </c>
       <c r="L41" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C41=0,A41, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M41" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C41=0,B41, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>23</v>
       </c>
@@ -35960,27 +36555,27 @@
         <v>41</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F42</f>
         <v>59.492174186201758</v>
       </c>
       <c r="I42" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C42=1,A42, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J42" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C42=1,B42, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
+        <f>IF($C42=0,A42, #N/A)</f>
         <v>23</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f>IF($C42=0,B42, #N/A)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>87</v>
       </c>
@@ -35997,27 +36592,27 @@
         <v>42</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F43</f>
         <v>58.679326186830025</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f>IF(C43=1,A43, #N/A)</f>
         <v>87</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f>IF($C43=1,B43, #N/A)</f>
         <v>99</v>
       </c>
       <c r="L43" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C43=0,A43, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M43" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C43=0,B43, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>92</v>
       </c>
@@ -36034,27 +36629,27 @@
         <v>43</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F44</f>
         <v>57.866478187458284</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f>IF(C44=1,A44, #N/A)</f>
         <v>92</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f>IF($C44=1,B44, #N/A)</f>
         <v>76</v>
       </c>
       <c r="L44" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C44=0,A44, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M44" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C44=0,B44, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>37</v>
       </c>
@@ -36071,27 +36666,27 @@
         <v>44</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F45</f>
         <v>57.053630188086551</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f>IF(C45=1,A45, #N/A)</f>
         <v>37</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f>IF($C45=1,B45, #N/A)</f>
         <v>71</v>
       </c>
       <c r="L45" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C45=0,A45, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M45" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C45=0,B45, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -36108,27 +36703,27 @@
         <v>45</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F46</f>
         <v>56.240782188714817</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f>IF(C46=1,A46, #N/A)</f>
         <v>45</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f>IF($C46=1,B46, #N/A)</f>
         <v>74</v>
       </c>
       <c r="L46" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C46=0,A46, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M46" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C46=0,B46, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>42</v>
       </c>
@@ -36145,27 +36740,27 @@
         <v>46</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F47</f>
         <v>55.427934189343077</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f>IF(C47=1,A47, #N/A)</f>
         <v>42</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f>IF($C47=1,B47, #N/A)</f>
         <v>59</v>
       </c>
       <c r="L47" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C47=0,A47, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M47" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C47=0,B47, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>31</v>
       </c>
@@ -36182,27 +36777,27 @@
         <v>47</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F48</f>
         <v>54.615086189971343</v>
       </c>
       <c r="I48" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C48=1,A48, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J48" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C48=1,B48, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L48">
-        <f t="shared" si="5"/>
+        <f>IF($C48=0,A48, #N/A)</f>
         <v>31</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
+        <f>IF($C48=0,B48, #N/A)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -36219,27 +36814,27 @@
         <v>48</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F49</f>
         <v>53.80223819059961</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f>IF(C49=1,A49, #N/A)</f>
         <v>47</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f>IF($C49=1,B49, #N/A)</f>
         <v>52</v>
       </c>
       <c r="L49" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C49=0,A49, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M49" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C49=0,B49, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>68</v>
       </c>
@@ -36256,27 +36851,27 @@
         <v>49</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F50</f>
         <v>52.989390191227869</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f>IF(C50=1,A50, #N/A)</f>
         <v>68</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f>IF($C50=1,B50, #N/A)</f>
         <v>66</v>
       </c>
       <c r="L50" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C50=0,A50, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M50" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C50=0,B50, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>76</v>
       </c>
@@ -36293,27 +36888,27 @@
         <v>50</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F51</f>
         <v>52.176542191856136</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f>IF(C51=1,A51, #N/A)</f>
         <v>76</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f>IF($C51=1,B51, #N/A)</f>
         <v>49</v>
       </c>
       <c r="L51" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C51=0,A51, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M51" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C51=0,B51, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>86</v>
       </c>
@@ -36330,27 +36925,27 @@
         <v>51</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F52</f>
         <v>51.363694192484395</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f>IF(C52=1,A52, #N/A)</f>
         <v>86</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f>IF($C52=1,B52, #N/A)</f>
         <v>51</v>
       </c>
       <c r="L52" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C52=0,A52, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M52" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C52=0,B52, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>60</v>
       </c>
@@ -36367,27 +36962,27 @@
         <v>52</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F53</f>
         <v>50.550846193112662</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f>IF(C53=1,A53, #N/A)</f>
         <v>60</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f>IF($C53=1,B53, #N/A)</f>
         <v>93</v>
       </c>
       <c r="L53" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C53=0,A53, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C53=0,B53, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>33</v>
       </c>
@@ -36404,27 +36999,27 @@
         <v>53</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F54</f>
         <v>49.737998193740928</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C54=1,A54, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C54=1,B54, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L54">
-        <f t="shared" si="5"/>
+        <f>IF($C54=0,A54, #N/A)</f>
         <v>33</v>
       </c>
       <c r="M54">
-        <f t="shared" si="6"/>
+        <f>IF($C54=0,B54, #N/A)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>56</v>
       </c>
@@ -36441,27 +37036,27 @@
         <v>54</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F55</f>
         <v>48.925150194369188</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
+        <f>IF(C55=1,A55, #N/A)</f>
         <v>56</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f>IF($C55=1,B55, #N/A)</f>
         <v>37</v>
       </c>
       <c r="L55" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C55=0,A55, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C55=0,B55, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>78</v>
       </c>
@@ -36478,27 +37073,27 @@
         <v>55</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F56</f>
         <v>48.112302194997454</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C56=1,A56, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C56=1,B56, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L56">
-        <f t="shared" si="5"/>
+        <f>IF($C56=0,A56, #N/A)</f>
         <v>78</v>
       </c>
       <c r="M56">
-        <f t="shared" si="6"/>
+        <f>IF($C56=0,B56, #N/A)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>51</v>
       </c>
@@ -36515,27 +37110,27 @@
         <v>56</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F57</f>
         <v>47.299454195625721</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
+        <f>IF(C57=1,A57, #N/A)</f>
         <v>51</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f>IF($C57=1,B57, #N/A)</f>
         <v>71</v>
       </c>
       <c r="L57" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C57=0,A57, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M57" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C57=0,B57, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>40</v>
       </c>
@@ -36552,27 +37147,27 @@
         <v>57</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F58</f>
         <v>46.48660619625398</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
+        <f>IF(C58=1,A58, #N/A)</f>
         <v>40</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f>IF($C58=1,B58, #N/A)</f>
         <v>99</v>
       </c>
       <c r="L58" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C58=0,A58, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C58=0,B58, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>36</v>
       </c>
@@ -36589,27 +37184,27 @@
         <v>58</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F59</f>
         <v>45.673758196882247</v>
       </c>
       <c r="I59" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C59=1,A59, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C59=1,B59, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L59">
-        <f t="shared" si="5"/>
+        <f>IF($C59=0,A59, #N/A)</f>
         <v>36</v>
       </c>
       <c r="M59">
-        <f t="shared" si="6"/>
+        <f>IF($C59=0,B59, #N/A)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>51</v>
       </c>
@@ -36626,27 +37221,27 @@
         <v>59</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F60</f>
         <v>44.860910197510513</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
+        <f>IF(C60=1,A60, #N/A)</f>
         <v>51</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f>IF($C60=1,B60, #N/A)</f>
         <v>38</v>
       </c>
       <c r="L60" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C60=0,A60, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C60=0,B60, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>46</v>
       </c>
@@ -36663,27 +37258,27 @@
         <v>60</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F61</f>
         <v>44.048062198138773</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
+        <f>IF(C61=1,A61, #N/A)</f>
         <v>46</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f>IF($C61=1,B61, #N/A)</f>
         <v>100</v>
       </c>
       <c r="L61" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C61=0,A61, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C61=0,B61, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>36</v>
       </c>
@@ -36700,27 +37295,27 @@
         <v>61</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F62</f>
         <v>43.235214198767039</v>
       </c>
       <c r="I62" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C62=1,A62, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C62=1,B62, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L62">
-        <f t="shared" si="5"/>
+        <f>IF($C62=0,A62, #N/A)</f>
         <v>36</v>
       </c>
       <c r="M62">
-        <f t="shared" si="6"/>
+        <f>IF($C62=0,B62, #N/A)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>38</v>
       </c>
@@ -36737,27 +37332,27 @@
         <v>62</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F63</f>
         <v>42.422366199395306</v>
       </c>
       <c r="I63" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C63=1,A63, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C63=1,B63, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L63">
-        <f t="shared" si="5"/>
+        <f>IF($C63=0,A63, #N/A)</f>
         <v>38</v>
       </c>
       <c r="M63">
-        <f t="shared" si="6"/>
+        <f>IF($C63=0,B63, #N/A)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>96</v>
       </c>
@@ -36774,27 +37369,27 @@
         <v>63</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F64</f>
         <v>41.609518200023565</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
+        <f>IF(C64=1,A64, #N/A)</f>
         <v>96</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f>IF($C64=1,B64, #N/A)</f>
         <v>46</v>
       </c>
       <c r="L64" t="e">
-        <f t="shared" si="5"/>
+        <f>IF($C64=0,A64, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f t="shared" si="6"/>
+        <f>IF($C64=0,B64, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>97</v>
       </c>
@@ -36811,27 +37406,27 @@
         <v>64</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F65</f>
         <v>40.796670200651832</v>
       </c>
       <c r="I65" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C65=1,A65, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C65=1,B65, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L65">
-        <f t="shared" si="5"/>
+        <f>IF($C65=0,A65, #N/A)</f>
         <v>97</v>
       </c>
       <c r="M65">
-        <f t="shared" si="6"/>
+        <f>IF($C65=0,B65, #N/A)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>95</v>
       </c>
@@ -36848,27 +37443,27 @@
         <v>65</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F66</f>
         <v>39.983822201280098</v>
       </c>
       <c r="I66" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(C66=1,A66, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" si="4"/>
+        <f>IF($C66=1,B66, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L101" si="7">IF($C66=0,A66, #N/A)</f>
+        <f>IF($C66=0,A66, #N/A)</f>
         <v>95</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M101" si="8">IF($C66=0,B66, #N/A)</f>
+        <f>IF($C66=0,B66, #N/A)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>54</v>
       </c>
@@ -36885,27 +37480,27 @@
         <v>66</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G101" si="9">-$E$2/$E$4-$E$3/$E$4*F67</f>
+        <f>-$E$2/$E$4-$E$3/$E$4*F67</f>
         <v>39.170974201908358</v>
       </c>
       <c r="I67" t="e">
-        <f t="shared" ref="I67:I101" si="10">IF(C67=1,A67, #N/A)</f>
+        <f>IF(C67=1,A67, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f t="shared" ref="J67:J101" si="11">IF($C67=1,B67, #N/A)</f>
+        <f>IF($C67=1,B67, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L67">
-        <f t="shared" si="7"/>
+        <f>IF($C67=0,A67, #N/A)</f>
         <v>54</v>
       </c>
       <c r="M67">
-        <f t="shared" si="8"/>
+        <f>IF($C67=0,B67, #N/A)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>34</v>
       </c>
@@ -36922,27 +37517,27 @@
         <v>67</v>
       </c>
       <c r="G68">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F68</f>
         <v>38.358126202536624</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
+        <f>IF(C68=1,A68, #N/A)</f>
         <v>34</v>
       </c>
       <c r="J68">
-        <f t="shared" si="11"/>
+        <f>IF($C68=1,B68, #N/A)</f>
         <v>87</v>
       </c>
       <c r="L68" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C68=0,A68, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C68=0,B68, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>94</v>
       </c>
@@ -36959,27 +37554,27 @@
         <v>68</v>
       </c>
       <c r="G69">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F69</f>
         <v>37.545278203164891</v>
       </c>
       <c r="I69" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C69=1,A69, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C69=1,B69, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L69">
-        <f t="shared" si="7"/>
+        <f>IF($C69=0,A69, #N/A)</f>
         <v>94</v>
       </c>
       <c r="M69">
-        <f t="shared" si="8"/>
+        <f>IF($C69=0,B69, #N/A)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>65</v>
       </c>
@@ -36996,27 +37591,27 @@
         <v>69</v>
       </c>
       <c r="G70">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F70</f>
         <v>36.73243020379315</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C70=1,A70, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C70=1,B70, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L70">
-        <f t="shared" si="7"/>
+        <f>IF($C70=0,A70, #N/A)</f>
         <v>65</v>
       </c>
       <c r="M70">
-        <f t="shared" si="8"/>
+        <f>IF($C70=0,B70, #N/A)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>97</v>
       </c>
@@ -37033,27 +37628,27 @@
         <v>70</v>
       </c>
       <c r="G71">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F71</f>
         <v>35.919582204421417</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
+        <f>IF(C71=1,A71, #N/A)</f>
         <v>97</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
+        <f>IF($C71=1,B71, #N/A)</f>
         <v>82</v>
       </c>
       <c r="L71" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C71=0,A71, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C71=0,B71, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>51</v>
       </c>
@@ -37070,27 +37665,27 @@
         <v>71</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F72</f>
         <v>35.106734205049683</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
+        <f>IF(C72=1,A72, #N/A)</f>
         <v>51</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
+        <f>IF($C72=1,B72, #N/A)</f>
         <v>98</v>
       </c>
       <c r="L72" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C72=0,A72, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C72=0,B72, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>37</v>
       </c>
@@ -37107,27 +37702,27 @@
         <v>72</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F73</f>
         <v>34.293886205677943</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C73=1,A73, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C73=1,B73, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L73">
-        <f t="shared" si="7"/>
+        <f>IF($C73=0,A73, #N/A)</f>
         <v>37</v>
       </c>
       <c r="M73">
-        <f t="shared" si="8"/>
+        <f>IF($C73=0,B73, #N/A)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>77</v>
       </c>
@@ -37144,27 +37739,27 @@
         <v>73</v>
       </c>
       <c r="G74">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F74</f>
         <v>33.481038206306209</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
+        <f>IF(C74=1,A74, #N/A)</f>
         <v>77</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
+        <f>IF($C74=1,B74, #N/A)</f>
         <v>93</v>
       </c>
       <c r="L74" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C74=0,A74, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C74=0,B74, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>31</v>
       </c>
@@ -37181,27 +37776,27 @@
         <v>74</v>
       </c>
       <c r="G75">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F75</f>
         <v>32.668190206934476</v>
       </c>
       <c r="I75" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C75=1,A75, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C75=1,B75, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L75">
-        <f t="shared" si="7"/>
+        <f>IF($C75=0,A75, #N/A)</f>
         <v>31</v>
       </c>
       <c r="M75">
-        <f t="shared" si="8"/>
+        <f>IF($C75=0,B75, #N/A)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>59</v>
       </c>
@@ -37218,27 +37813,27 @@
         <v>75</v>
       </c>
       <c r="G76">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F76</f>
         <v>31.855342207562735</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
+        <f>IF(C76=1,A76, #N/A)</f>
         <v>59</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
+        <f>IF($C76=1,B76, #N/A)</f>
         <v>60</v>
       </c>
       <c r="L76" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C76=0,A76, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C76=0,B76, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>35</v>
       </c>
@@ -37255,27 +37850,27 @@
         <v>76</v>
       </c>
       <c r="G77">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F77</f>
         <v>31.042494208191002</v>
       </c>
       <c r="I77" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C77=1,A77, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C77=1,B77, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L77">
-        <f t="shared" si="7"/>
+        <f>IF($C77=0,A77, #N/A)</f>
         <v>35</v>
       </c>
       <c r="M77">
-        <f t="shared" si="8"/>
+        <f>IF($C77=0,B77, #N/A)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>81</v>
       </c>
@@ -37292,27 +37887,27 @@
         <v>77</v>
       </c>
       <c r="G78">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F78</f>
         <v>30.229646208819268</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
+        <f>IF(C78=1,A78, #N/A)</f>
         <v>81</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
+        <f>IF($C78=1,B78, #N/A)</f>
         <v>42</v>
       </c>
       <c r="L78" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C78=0,A78, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C78=0,B78, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>83</v>
       </c>
@@ -37329,27 +37924,27 @@
         <v>78</v>
       </c>
       <c r="G79">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F79</f>
         <v>29.416798209447528</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
+        <f>IF(C79=1,A79, #N/A)</f>
         <v>83</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
+        <f>IF($C79=1,B79, #N/A)</f>
         <v>67</v>
       </c>
       <c r="L79" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C79=0,A79, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C79=0,B79, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>77</v>
       </c>
@@ -37366,27 +37961,27 @@
         <v>79</v>
       </c>
       <c r="G80">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F80</f>
         <v>28.603950210075794</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
+        <f>IF(C80=1,A80, #N/A)</f>
         <v>77</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
+        <f>IF($C80=1,B80, #N/A)</f>
         <v>75</v>
       </c>
       <c r="L80" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C80=0,A80, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M80" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C80=0,B80, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>21</v>
       </c>
@@ -37403,27 +37998,27 @@
         <v>80</v>
       </c>
       <c r="G81">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F81</f>
         <v>27.791102210704054</v>
       </c>
       <c r="I81" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C81=1,A81, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C81=1,B81, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L81">
-        <f t="shared" si="7"/>
+        <f>IF($C81=0,A81, #N/A)</f>
         <v>21</v>
       </c>
       <c r="M81">
-        <f t="shared" si="8"/>
+        <f>IF($C81=0,B81, #N/A)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>59</v>
       </c>
@@ -37440,27 +38035,27 @@
         <v>81</v>
       </c>
       <c r="G82">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F82</f>
         <v>26.978254211332327</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
+        <f>IF(C82=1,A82, #N/A)</f>
         <v>59</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
+        <f>IF($C82=1,B82, #N/A)</f>
         <v>82</v>
       </c>
       <c r="L82" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C82=0,A82, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C82=0,B82, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>52</v>
       </c>
@@ -37477,27 +38072,27 @@
         <v>82</v>
       </c>
       <c r="G83">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F83</f>
         <v>26.165406211960587</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
+        <f>IF(C83=1,A83, #N/A)</f>
         <v>52</v>
       </c>
       <c r="J83">
-        <f t="shared" si="11"/>
+        <f>IF($C83=1,B83, #N/A)</f>
         <v>66</v>
       </c>
       <c r="L83" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C83=0,A83, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C83=0,B83, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>93</v>
       </c>
@@ -37514,27 +38109,27 @@
         <v>83</v>
       </c>
       <c r="G84">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F84</f>
         <v>25.352558212588846</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
+        <f>IF(C84=1,A84, #N/A)</f>
         <v>93</v>
       </c>
       <c r="J84">
-        <f t="shared" si="11"/>
+        <f>IF($C84=1,B84, #N/A)</f>
         <v>90</v>
       </c>
       <c r="L84" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C84=0,A84, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C84=0,B84, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>65</v>
       </c>
@@ -37551,27 +38146,27 @@
         <v>84</v>
       </c>
       <c r="G85">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F85</f>
         <v>24.53971021321712</v>
       </c>
       <c r="I85" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C85=1,A85, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C85=1,B85, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L85">
-        <f t="shared" si="7"/>
+        <f>IF($C85=0,A85, #N/A)</f>
         <v>65</v>
       </c>
       <c r="M85">
-        <f t="shared" si="8"/>
+        <f>IF($C85=0,B85, #N/A)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>45</v>
       </c>
@@ -37588,27 +38183,27 @@
         <v>85</v>
       </c>
       <c r="G86">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F86</f>
         <v>23.726862213845379</v>
       </c>
       <c r="I86">
-        <f t="shared" si="10"/>
+        <f>IF(C86=1,A86, #N/A)</f>
         <v>45</v>
       </c>
       <c r="J86">
-        <f t="shared" si="11"/>
+        <f>IF($C86=1,B86, #N/A)</f>
         <v>85</v>
       </c>
       <c r="L86" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C86=0,A86, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M86" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C86=0,B86, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>78</v>
       </c>
@@ -37625,27 +38220,27 @@
         <v>86</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F87</f>
         <v>22.914014214473639</v>
       </c>
       <c r="I87">
-        <f t="shared" si="10"/>
+        <f>IF(C87=1,A87, #N/A)</f>
         <v>78</v>
       </c>
       <c r="J87">
-        <f t="shared" si="11"/>
+        <f>IF($C87=1,B87, #N/A)</f>
         <v>85</v>
       </c>
       <c r="L87" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C87=0,A87, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C87=0,B87, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>50</v>
       </c>
@@ -37662,27 +38257,27 @@
         <v>87</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F88</f>
         <v>22.101166215101912</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
+        <f>IF(C88=1,A88, #N/A)</f>
         <v>50</v>
       </c>
       <c r="J88">
-        <f t="shared" si="11"/>
+        <f>IF($C88=1,B88, #N/A)</f>
         <v>62</v>
       </c>
       <c r="L88" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C88=0,A88, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M88" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C88=0,B88, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>91</v>
       </c>
@@ -37699,27 +38294,27 @@
         <v>88</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F89</f>
         <v>21.288318215730172</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f>IF(C89=1,A89, #N/A)</f>
         <v>91</v>
       </c>
       <c r="J89">
-        <f t="shared" si="11"/>
+        <f>IF($C89=1,B89, #N/A)</f>
         <v>71</v>
       </c>
       <c r="L89" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C89=0,A89, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M89" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C89=0,B89, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>80</v>
       </c>
@@ -37736,27 +38331,27 @@
         <v>89</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F90</f>
         <v>20.475470216358431</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
+        <f>IF(C90=1,A90, #N/A)</f>
         <v>80</v>
       </c>
       <c r="J90">
-        <f t="shared" si="11"/>
+        <f>IF($C90=1,B90, #N/A)</f>
         <v>36</v>
       </c>
       <c r="L90" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C90=0,A90, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M90" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C90=0,B90, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>93</v>
       </c>
@@ -37773,27 +38368,27 @@
         <v>90</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F91</f>
         <v>19.662622216986705</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
+        <f>IF(C91=1,A91, #N/A)</f>
         <v>93</v>
       </c>
       <c r="J91">
-        <f t="shared" si="11"/>
+        <f>IF($C91=1,B91, #N/A)</f>
         <v>61</v>
       </c>
       <c r="L91" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C91=0,A91, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M91" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C91=0,B91, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>82</v>
       </c>
@@ -37810,27 +38405,27 @@
         <v>91</v>
       </c>
       <c r="G92">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F92</f>
         <v>18.849774217614964</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
+        <f>IF(C92=1,A92, #N/A)</f>
         <v>82</v>
       </c>
       <c r="J92">
-        <f t="shared" si="11"/>
+        <f>IF($C92=1,B92, #N/A)</f>
         <v>37</v>
       </c>
       <c r="L92" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C92=0,A92, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M92" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C92=0,B92, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>98</v>
       </c>
@@ -37847,27 +38442,27 @@
         <v>92</v>
       </c>
       <c r="G93">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F93</f>
         <v>18.036926218243224</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
+        <f>IF(C93=1,A93, #N/A)</f>
         <v>98</v>
       </c>
       <c r="J93">
-        <f t="shared" si="11"/>
+        <f>IF($C93=1,B93, #N/A)</f>
         <v>33</v>
       </c>
       <c r="L93" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C93=0,A93, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M93" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C93=0,B93, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>43</v>
       </c>
@@ -37884,27 +38479,27 @@
         <v>93</v>
       </c>
       <c r="G94">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F94</f>
         <v>17.224078218871497</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
+        <f>IF(C94=1,A94, #N/A)</f>
         <v>43</v>
       </c>
       <c r="J94">
-        <f t="shared" si="11"/>
+        <f>IF($C94=1,B94, #N/A)</f>
         <v>57</v>
       </c>
       <c r="L94" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C94=0,A94, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M94" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C94=0,B94, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>38</v>
       </c>
@@ -37921,27 +38516,27 @@
         <v>94</v>
       </c>
       <c r="G95">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F95</f>
         <v>16.411230219499757</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
+        <f>IF(C95=1,A95, #N/A)</f>
         <v>38</v>
       </c>
       <c r="J95">
-        <f t="shared" si="11"/>
+        <f>IF($C95=1,B95, #N/A)</f>
         <v>67</v>
       </c>
       <c r="L95" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C95=0,A95, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M95" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C95=0,B95, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>56</v>
       </c>
@@ -37958,27 +38553,27 @@
         <v>95</v>
       </c>
       <c r="G96">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F96</f>
         <v>15.598382220128016</v>
       </c>
       <c r="I96" t="e">
-        <f t="shared" si="10"/>
+        <f>IF(C96=1,A96, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <f t="shared" si="11"/>
+        <f>IF($C96=1,B96, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="L96">
-        <f t="shared" si="7"/>
+        <f>IF($C96=0,A96, #N/A)</f>
         <v>56</v>
       </c>
       <c r="M96">
-        <f t="shared" si="8"/>
+        <f>IF($C96=0,B96, #N/A)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>46</v>
       </c>
@@ -37995,27 +38590,27 @@
         <v>96</v>
       </c>
       <c r="G97">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F97</f>
         <v>14.78553422075629</v>
       </c>
       <c r="I97">
-        <f t="shared" si="10"/>
+        <f>IF(C97=1,A97, #N/A)</f>
         <v>46</v>
       </c>
       <c r="J97">
-        <f t="shared" si="11"/>
+        <f>IF($C97=1,B97, #N/A)</f>
         <v>98</v>
       </c>
       <c r="L97" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C97=0,A97, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M97" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C97=0,B97, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>34</v>
       </c>
@@ -38032,27 +38627,27 @@
         <v>97</v>
       </c>
       <c r="G98">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F98</f>
         <v>13.972686221384549</v>
       </c>
       <c r="I98">
-        <f t="shared" si="10"/>
+        <f>IF(C98=1,A98, #N/A)</f>
         <v>34</v>
       </c>
       <c r="J98">
-        <f t="shared" si="11"/>
+        <f>IF($C98=1,B98, #N/A)</f>
         <v>86</v>
       </c>
       <c r="L98" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C98=0,A98, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M98" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C98=0,B98, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>52</v>
       </c>
@@ -38069,27 +38664,27 @@
         <v>98</v>
       </c>
       <c r="G99">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F99</f>
         <v>13.159838222012809</v>
       </c>
       <c r="I99">
-        <f t="shared" si="10"/>
+        <f>IF(C99=1,A99, #N/A)</f>
         <v>52</v>
       </c>
       <c r="J99">
-        <f t="shared" si="11"/>
+        <f>IF($C99=1,B99, #N/A)</f>
         <v>92</v>
       </c>
       <c r="L99" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C99=0,A99, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M99" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C99=0,B99, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>82</v>
       </c>
@@ -38106,27 +38701,27 @@
         <v>99</v>
       </c>
       <c r="G100">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F100</f>
         <v>12.346990222641068</v>
       </c>
       <c r="I100">
-        <f t="shared" si="10"/>
+        <f>IF(C100=1,A100, #N/A)</f>
         <v>82</v>
       </c>
       <c r="J100">
-        <f t="shared" si="11"/>
+        <f>IF($C100=1,B100, #N/A)</f>
         <v>100</v>
       </c>
       <c r="L100" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C100=0,A100, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M100" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C100=0,B100, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>74</v>
       </c>
@@ -38143,23 +38738,23 @@
         <v>100</v>
       </c>
       <c r="G101">
-        <f t="shared" si="9"/>
+        <f>-$E$2/$E$4-$E$3/$E$4*F101</f>
         <v>11.534142223269342</v>
       </c>
       <c r="I101">
-        <f t="shared" si="10"/>
+        <f>IF(C101=1,A101, #N/A)</f>
         <v>74</v>
       </c>
       <c r="J101">
-        <f t="shared" si="11"/>
+        <f>IF($C101=1,B101, #N/A)</f>
         <v>87</v>
       </c>
       <c r="L101" t="e">
-        <f t="shared" si="7"/>
+        <f>IF($C101=0,A101, #N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="M101" t="e">
-        <f t="shared" si="8"/>
+        <f>IF($C101=0,B101, #N/A)</f>
         <v>#N/A</v>
       </c>
     </row>
